--- a/SustSol/TimeTracking_2025.xlsx
+++ b/SustSol/TimeTracking_2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="170">
   <si>
     <t xml:space="preserve">SustSol Time Tracking</t>
   </si>
@@ -398,6 +398,57 @@
     <t xml:space="preserve">Cont. Measurement → Tigerstate refactorings &amp; minimizing consumer-based reactivity</t>
   </si>
   <si>
+    <t xml:space="preserve">F&amp;E grant proposal theme research &amp; outlines for 2024+25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SusCall / Monday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ImageViewer/&gt; component refactoring (splitting functionality)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schluckakt-2-Avif extractor Python (for demo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Externalized state management for new WebViewer (Tigerstate II)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic Layout for new Viewer (CSS Grid + animations)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Svelte/kit "Native" with Capacitor + Konsta UI+ iOS Simulator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WebViewer Mobile UI planning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WebViewer Mobile UI separation strategy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xmas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\=&gt; 2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To go</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># 8-hr days</t>
+  </si>
+  <si>
     <t xml:space="preserve">HL7 1st Roslyn implementation </t>
   </si>
   <si>
@@ -408,15 +459,6 @@
   </si>
   <si>
     <t xml:space="preserve">HL7 other vendors + test suite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Svelte/kit "Native" with Capacitor + Konsta UI+ iOS Simulator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WebViewer Mobile UI planning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WebViewer Mobile UI separation strategy</t>
   </si>
   <si>
     <t xml:space="preserve">Misc shortcut filters &amp; UI refactoring</t>
@@ -462,24 +504,6 @@
   </si>
   <si>
     <t xml:space="preserve">Reset DB switch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sum hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mid Dec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To go</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># 8-hr days</t>
   </si>
   <si>
     <t xml:space="preserve">General</t>
@@ -677,14 +701,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
-      <vertAlign val="superscript"/>
-      <sz val="10"/>
-      <name val="LiterationSerif Nerd Font"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <i val="true"/>
       <sz val="10"/>
@@ -762,6 +778,14 @@
       <i val="true"/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
+      <name val="LiterationSerif Nerd Font"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
       <name val="LiterationSerif Nerd Font"/>
       <family val="1"/>
       <charset val="1"/>
@@ -1154,15 +1178,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="20" fillId="13" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="21" fillId="13" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1170,23 +1194,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="21" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="23" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1194,11 +1218,35 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="24" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1206,7 +1254,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="25" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1214,7 +1262,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="25" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="26" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1222,51 +1270,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="25" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="25" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="27" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1282,11 +1306,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="19" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1294,7 +1318,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1679,10 +1703,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE204"/>
+  <dimension ref="A1:AE212"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A144" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B160" activeCellId="0" sqref="B160"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A147" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D170" activeCellId="0" sqref="D170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -4914,8 +4938,16 @@
       <c r="M162" s="21"/>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="n">
+        <v>45942</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="C163" s="19"/>
-      <c r="D163" s="19"/>
+      <c r="D163" s="19" t="n">
+        <v>2</v>
+      </c>
       <c r="E163" s="19"/>
       <c r="F163" s="20"/>
       <c r="G163" s="20"/>
@@ -4927,7 +4959,15 @@
       <c r="M163" s="21"/>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C164" s="19"/>
+      <c r="A164" s="1" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C164" s="19" t="s">
+        <v>127</v>
+      </c>
       <c r="D164" s="19"/>
       <c r="E164" s="19"/>
       <c r="F164" s="20"/>
@@ -4940,9 +4980,17 @@
       <c r="M164" s="21"/>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="C165" s="19"/>
       <c r="D165" s="19"/>
-      <c r="E165" s="19"/>
+      <c r="E165" s="19" t="s">
+        <v>127</v>
+      </c>
       <c r="F165" s="20"/>
       <c r="G165" s="20"/>
       <c r="H165" s="20"/>
@@ -4953,9 +5001,17 @@
       <c r="M165" s="21"/>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="C166" s="19"/>
       <c r="D166" s="19"/>
-      <c r="E166" s="19"/>
+      <c r="E166" s="19" t="s">
+        <v>127</v>
+      </c>
       <c r="F166" s="20"/>
       <c r="G166" s="20"/>
       <c r="H166" s="20"/>
@@ -4966,9 +5022,6 @@
       <c r="M166" s="21"/>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B167" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C167" s="19"/>
       <c r="D167" s="19"/>
       <c r="E167" s="19"/>
@@ -4982,12 +5035,17 @@
       <c r="M167" s="21"/>
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="n">
+        <v>45945</v>
+      </c>
       <c r="B168" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C168" s="19"/>
       <c r="D168" s="19"/>
-      <c r="E168" s="19"/>
+      <c r="E168" s="19" t="s">
+        <v>127</v>
+      </c>
       <c r="F168" s="20"/>
       <c r="G168" s="20"/>
       <c r="H168" s="20"/>
@@ -4998,12 +5056,17 @@
       <c r="M168" s="21"/>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="n">
+        <v>45945</v>
+      </c>
       <c r="B169" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C169" s="19"/>
       <c r="D169" s="19"/>
-      <c r="E169" s="19"/>
+      <c r="E169" s="19" t="s">
+        <v>127</v>
+      </c>
       <c r="F169" s="20"/>
       <c r="G169" s="20"/>
       <c r="H169" s="20"/>
@@ -5014,9 +5077,6 @@
       <c r="M169" s="21"/>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B170" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="C170" s="19"/>
       <c r="D170" s="19"/>
       <c r="E170" s="19"/>
@@ -5043,9 +5103,6 @@
       <c r="M171" s="21"/>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B172" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C172" s="19"/>
       <c r="D172" s="19"/>
       <c r="E172" s="19"/>
@@ -5060,7 +5117,7 @@
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B173" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C173" s="19"/>
       <c r="D173" s="19"/>
@@ -5076,7 +5133,7 @@
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B174" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C174" s="19"/>
       <c r="D174" s="19"/>
@@ -5091,6 +5148,9 @@
       <c r="M174" s="21"/>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B175" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="C175" s="19"/>
       <c r="D175" s="19"/>
       <c r="E175" s="19"/>
@@ -5104,9 +5164,6 @@
       <c r="M175" s="21"/>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B176" s="18" t="s">
-        <v>132</v>
-      </c>
       <c r="C176" s="19"/>
       <c r="D176" s="19"/>
       <c r="E176" s="19"/>
@@ -5120,9 +5177,6 @@
       <c r="M176" s="21"/>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B177" s="18" t="s">
-        <v>133</v>
-      </c>
       <c r="C177" s="19"/>
       <c r="D177" s="19"/>
       <c r="E177" s="19"/>
@@ -5136,9 +5190,6 @@
       <c r="M177" s="21"/>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B178" s="18" t="s">
-        <v>134</v>
-      </c>
       <c r="C178" s="19"/>
       <c r="D178" s="19"/>
       <c r="E178" s="19"/>
@@ -5152,9 +5203,6 @@
       <c r="M178" s="21"/>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B179" s="18" t="s">
-        <v>135</v>
-      </c>
       <c r="C179" s="19"/>
       <c r="D179" s="19"/>
       <c r="E179" s="19"/>
@@ -5168,9 +5216,7 @@
       <c r="M179" s="21"/>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B180" s="18" t="s">
-        <v>136</v>
-      </c>
+      <c r="B180" s="0"/>
       <c r="C180" s="19"/>
       <c r="D180" s="19"/>
       <c r="E180" s="19"/>
@@ -5184,7 +5230,7 @@
       <c r="M180" s="21"/>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B181" s="18"/>
+      <c r="B181" s="0"/>
       <c r="C181" s="19"/>
       <c r="D181" s="19"/>
       <c r="E181" s="19"/>
@@ -5198,6 +5244,7 @@
       <c r="M181" s="21"/>
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B182" s="18"/>
       <c r="C182" s="19"/>
       <c r="D182" s="19"/>
       <c r="E182" s="19"/>
@@ -5224,295 +5271,349 @@
       <c r="M183" s="21"/>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="B184" s="18"/>
-      <c r="C184" s="25" t="n">
-        <f aca="false">SUM(C4:C183)</f>
+      <c r="C184" s="19"/>
+      <c r="D184" s="19"/>
+      <c r="E184" s="19"/>
+      <c r="F184" s="20"/>
+      <c r="G184" s="20"/>
+      <c r="H184" s="20"/>
+      <c r="I184" s="20"/>
+      <c r="J184" s="21"/>
+      <c r="K184" s="21"/>
+      <c r="L184" s="21"/>
+      <c r="M184" s="21"/>
+    </row>
+    <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A185" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B185" s="18"/>
+      <c r="C185" s="25" t="n">
+        <f aca="false">SUM(C4:C184)</f>
         <v>44</v>
       </c>
-      <c r="D184" s="25" t="n">
-        <f aca="false">SUM(D4:D183)</f>
-        <v>68</v>
-      </c>
-      <c r="E184" s="25" t="n">
-        <f aca="false">SUM(E4:E183)</f>
+      <c r="D185" s="25" t="n">
+        <f aca="false">SUM(D4:D184)</f>
+        <v>70</v>
+      </c>
+      <c r="E185" s="25" t="n">
+        <f aca="false">SUM(E4:E184)</f>
         <v>146</v>
       </c>
-      <c r="F184" s="26" t="n">
-        <f aca="false">SUM(F4:F183)</f>
+      <c r="F185" s="26" t="n">
+        <f aca="false">SUM(F4:F184)</f>
         <v>8.5</v>
       </c>
-      <c r="G184" s="26" t="n">
-        <f aca="false">SUM(G4:G183)</f>
+      <c r="G185" s="26" t="n">
+        <f aca="false">SUM(G4:G184)</f>
         <v>83</v>
       </c>
-      <c r="H184" s="26" t="n">
-        <f aca="false">SUM(H4:H183)</f>
+      <c r="H185" s="26" t="n">
+        <f aca="false">SUM(H4:H184)</f>
         <v>1</v>
       </c>
-      <c r="I184" s="26" t="n">
-        <f aca="false">SUM(I4:I183)</f>
+      <c r="I185" s="26" t="n">
+        <f aca="false">SUM(I4:I184)</f>
         <v>0</v>
       </c>
-      <c r="J184" s="26" t="n">
-        <f aca="false">SUM(J4:J183)</f>
+      <c r="J185" s="26" t="n">
+        <f aca="false">SUM(J4:J184)</f>
         <v>51.5</v>
       </c>
-      <c r="K184" s="26" t="n">
-        <f aca="false">SUM(K4:K183)</f>
+      <c r="K185" s="26" t="n">
+        <f aca="false">SUM(K4:K184)</f>
         <v>0</v>
       </c>
-      <c r="L184" s="26" t="n">
-        <f aca="false">SUM(L4:L183)</f>
+      <c r="L185" s="26" t="n">
+        <f aca="false">SUM(L4:L184)</f>
         <v>0</v>
       </c>
-      <c r="M184" s="26" t="n">
-        <f aca="false">SUM(M4:M183)</f>
+      <c r="M185" s="26" t="n">
+        <f aca="false">SUM(M4:M184)</f>
         <v>0</v>
       </c>
-      <c r="N184" s="18"/>
-      <c r="O184" s="18"/>
-      <c r="P184" s="18"/>
-      <c r="Q184" s="18"/>
-      <c r="R184" s="18"/>
-      <c r="S184" s="18"/>
-      <c r="T184" s="18"/>
-      <c r="U184" s="18"/>
-      <c r="V184" s="18"/>
-      <c r="W184" s="18"/>
-      <c r="X184" s="18"/>
-      <c r="Y184" s="18"/>
-      <c r="Z184" s="18"/>
-      <c r="AA184" s="18"/>
-      <c r="AB184" s="18"/>
-      <c r="AC184" s="18"/>
-      <c r="AD184" s="18"/>
-      <c r="AE184" s="18"/>
-    </row>
-    <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B185" s="18"/>
-      <c r="C185" s="27"/>
-      <c r="D185" s="27"/>
-      <c r="E185" s="27"/>
-      <c r="F185" s="27"/>
-      <c r="G185" s="27"/>
-      <c r="H185" s="27"/>
-      <c r="I185" s="27"/>
-      <c r="J185" s="27"/>
-      <c r="K185" s="27"/>
-      <c r="L185" s="27"/>
-      <c r="M185" s="27"/>
-    </row>
-    <row r="186" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="N185" s="18"/>
+      <c r="O185" s="18"/>
+      <c r="P185" s="18"/>
+      <c r="Q185" s="18"/>
+      <c r="R185" s="18"/>
+      <c r="S185" s="18"/>
+      <c r="T185" s="18"/>
+      <c r="U185" s="18"/>
+      <c r="V185" s="18"/>
+      <c r="W185" s="18"/>
+      <c r="X185" s="18"/>
+      <c r="Y185" s="18"/>
+      <c r="Z185" s="18"/>
+      <c r="AA185" s="18"/>
+      <c r="AB185" s="18"/>
+      <c r="AC185" s="18"/>
+      <c r="AD185" s="18"/>
+      <c r="AE185" s="18"/>
+    </row>
+    <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B186" s="18"/>
-      <c r="D186" s="28"/>
-      <c r="E186" s="28"/>
+      <c r="C186" s="27"/>
+      <c r="D186" s="27"/>
+      <c r="E186" s="27"/>
       <c r="F186" s="27"/>
-      <c r="H186" s="29"/>
-      <c r="I186" s="29"/>
+      <c r="G186" s="27"/>
+      <c r="H186" s="27"/>
+      <c r="I186" s="27"/>
       <c r="J186" s="27"/>
       <c r="K186" s="27"/>
-      <c r="L186" s="30"/>
-      <c r="M186" s="30"/>
-    </row>
-    <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="L186" s="27"/>
+      <c r="M186" s="27"/>
+    </row>
+    <row r="187" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B187" s="18"/>
-      <c r="D187" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="E187" s="28" t="n">
-        <f aca="false">SUM(C184:E184)</f>
-        <v>258</v>
-      </c>
+      <c r="D187" s="28"/>
+      <c r="E187" s="28"/>
       <c r="F187" s="27"/>
-      <c r="H187" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I187" s="29" t="n">
-        <f aca="false">SUM(F184:I184)</f>
-        <v>92.5</v>
-      </c>
+      <c r="H187" s="29"/>
+      <c r="I187" s="29"/>
       <c r="J187" s="27"/>
       <c r="K187" s="27"/>
-      <c r="L187" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="M187" s="30" t="n">
-        <f aca="false">SUM(J184:M184)</f>
-        <v>51.5</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="L187" s="30"/>
+      <c r="M187" s="30"/>
+    </row>
+    <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B188" s="18"/>
-      <c r="D188" s="28"/>
-      <c r="E188" s="28"/>
+      <c r="D188" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E188" s="28" t="n">
+        <f aca="false">SUM(C185:E185)</f>
+        <v>260</v>
+      </c>
       <c r="F188" s="27"/>
-      <c r="H188" s="29"/>
-      <c r="I188" s="29"/>
+      <c r="H188" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I188" s="29" t="n">
+        <f aca="false">SUM(F185:I185)</f>
+        <v>92.5</v>
+      </c>
       <c r="J188" s="27"/>
       <c r="K188" s="27"/>
-      <c r="L188" s="30"/>
-      <c r="M188" s="30"/>
+      <c r="L188" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="M188" s="30" t="n">
+        <f aca="false">SUM(J185:M185)</f>
+        <v>51.5</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B189" s="18"/>
-      <c r="D189" s="34"/>
-      <c r="E189" s="34"/>
+      <c r="D189" s="28"/>
+      <c r="E189" s="28"/>
       <c r="F189" s="27"/>
-      <c r="H189" s="34"/>
-      <c r="I189" s="34"/>
+      <c r="H189" s="29"/>
+      <c r="I189" s="29"/>
       <c r="J189" s="27"/>
       <c r="K189" s="27"/>
-      <c r="L189" s="35"/>
-      <c r="M189" s="35"/>
+      <c r="L189" s="30"/>
+      <c r="M189" s="30"/>
     </row>
     <row r="190" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B190" s="18"/>
-      <c r="D190" s="36"/>
-      <c r="E190" s="37"/>
-      <c r="H190" s="38"/>
-      <c r="I190" s="39"/>
-      <c r="L190" s="40"/>
-      <c r="M190" s="41"/>
-    </row>
-    <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D190" s="34"/>
+      <c r="E190" s="34"/>
+      <c r="F190" s="27"/>
+      <c r="H190" s="34"/>
+      <c r="I190" s="34"/>
+      <c r="J190" s="27"/>
+      <c r="K190" s="27"/>
+      <c r="L190" s="35"/>
+      <c r="M190" s="35"/>
+    </row>
+    <row r="191" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B191" s="18"/>
-      <c r="D191" s="42" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E191" s="43" t="n">
-        <f aca="false">SUM(C4:E183)</f>
-        <v>258</v>
-      </c>
-      <c r="H191" s="44" t="n">
-        <v>2025</v>
-      </c>
-      <c r="I191" s="45" t="n">
-        <f aca="false">SUM(F4:I183)</f>
-        <v>92.5</v>
-      </c>
-      <c r="L191" s="46" t="n">
-        <v>2025</v>
-      </c>
-      <c r="M191" s="47" t="n">
-        <f aca="false">SUM(J4:M183)</f>
-        <v>51.5</v>
-      </c>
+      <c r="D191" s="36"/>
+      <c r="E191" s="37"/>
+      <c r="H191" s="38"/>
+      <c r="I191" s="39"/>
+      <c r="L191" s="40"/>
+      <c r="M191" s="41"/>
     </row>
     <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B192" s="18"/>
-      <c r="D192" s="48" t="s">
-        <v>138</v>
+      <c r="D192" s="42" t="n">
+        <v>2025</v>
       </c>
       <c r="E192" s="43" t="n">
-        <f aca="false">SUM(C155:E183)</f>
-        <v>19</v>
-      </c>
-      <c r="H192" s="49" t="s">
-        <v>138</v>
+        <f aca="false">SUM(C4:E184)</f>
+        <v>260</v>
+      </c>
+      <c r="H192" s="44" t="n">
+        <v>2025</v>
       </c>
       <c r="I192" s="45" t="n">
-        <f aca="false">SUM(F155:I183)</f>
+        <f aca="false">SUM(F4:I184)</f>
+        <v>92.5</v>
+      </c>
+      <c r="L192" s="46" t="n">
+        <v>2025</v>
+      </c>
+      <c r="M192" s="47" t="n">
+        <f aca="false">SUM(J4:M184)</f>
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B193" s="18"/>
+      <c r="D193" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="E193" s="43" t="n">
+        <f aca="false">SUM(C155:E184)</f>
+        <v>21</v>
+      </c>
+      <c r="H193" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="I193" s="45" t="n">
+        <f aca="false">SUM(F155:I184)</f>
         <v>0</v>
       </c>
-      <c r="L192" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="M192" s="47" t="n">
-        <f aca="false">SUM(J155:M183)</f>
+      <c r="L193" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="M193" s="47" t="n">
+        <f aca="false">SUM(J155:M184)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="193" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B193" s="18"/>
-      <c r="D193" s="36"/>
-      <c r="E193" s="37"/>
-      <c r="H193" s="38"/>
-      <c r="I193" s="39"/>
-      <c r="K193" s="51"/>
-      <c r="L193" s="40"/>
-      <c r="M193" s="41"/>
     </row>
     <row r="194" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B194" s="18"/>
-      <c r="E194" s="27"/>
+      <c r="D194" s="36"/>
+      <c r="E194" s="37"/>
+      <c r="H194" s="38"/>
+      <c r="I194" s="39"/>
       <c r="K194" s="51"/>
-      <c r="M194" s="27"/>
+      <c r="L194" s="40"/>
+      <c r="M194" s="41"/>
     </row>
     <row r="195" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B195" s="18"/>
       <c r="E195" s="27"/>
-      <c r="K195" s="52"/>
-      <c r="L195" s="53"/>
-      <c r="M195" s="54"/>
-    </row>
-    <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K195" s="51"/>
+      <c r="M195" s="27"/>
+    </row>
+    <row r="196" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B196" s="18"/>
       <c r="E196" s="27"/>
-      <c r="K196" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="L196" s="55"/>
-      <c r="M196" s="56" t="n">
-        <f aca="false">SUM(C4:M183)</f>
-        <v>402</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K196" s="52"/>
+      <c r="L196" s="53"/>
+      <c r="M196" s="54"/>
+    </row>
+    <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B197" s="18"/>
+      <c r="E197" s="27"/>
       <c r="K197" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="L197" s="57"/>
+        <v>137</v>
+      </c>
+      <c r="L197" s="55"/>
       <c r="M197" s="56" t="n">
-        <f aca="false">E192+I192+M192</f>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K198" s="53"/>
-      <c r="L198" s="53"/>
-      <c r="M198" s="54"/>
-    </row>
-    <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C199" s="27"/>
-      <c r="K199" s="58" t="s">
-        <v>140</v>
-      </c>
-      <c r="M199" s="2" t="n">
-        <v>180</v>
-      </c>
+        <f aca="false">SUM(C4:M184)</f>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K198" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="L198" s="57"/>
+      <c r="M198" s="56" t="n">
+        <f aca="false">E193+I193+M193</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K199" s="53"/>
+      <c r="L199" s="53"/>
+      <c r="M199" s="54"/>
     </row>
     <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C200" s="27"/>
-      <c r="K200" s="2" t="s">
-        <v>141</v>
+      <c r="K200" s="58" t="s">
+        <v>138</v>
       </c>
       <c r="M200" s="2" t="n">
-        <f aca="false">M199-M197</f>
-        <v>161</v>
+        <v>200</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B201" s="59" t="s">
+        <v>139</v>
+      </c>
       <c r="C201" s="27"/>
       <c r="K201" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M201" s="2" t="n">
+        <f aca="false">M200-M198</f>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C202" s="27"/>
+      <c r="K202" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M202" s="2" t="n">
+        <f aca="false">M201/8</f>
+        <v>22.375</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B203" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="M201" s="2" t="n">
-        <f aca="false">M200/8</f>
-        <v>20.125</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C202" s="27"/>
-    </row>
-    <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C203" s="27"/>
     </row>
     <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B204" s="59"/>
-      <c r="C204" s="60"/>
+      <c r="B204" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C204" s="27"/>
+    </row>
+    <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B205" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C205" s="60"/>
+    </row>
+    <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B206" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B208" s="18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B209" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B210" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B211" s="18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B212" s="18" t="s">
+        <v>150</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5571,99 +5672,99 @@
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="62"/>
       <c r="B2" s="63" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="62"/>
       <c r="E2" s="65" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="F2" s="66"/>
       <c r="G2" s="62"/>
       <c r="H2" s="65" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="I2" s="66"/>
       <c r="J2" s="62"/>
       <c r="K2" s="65" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="L2" s="66"/>
       <c r="M2" s="62"/>
       <c r="N2" s="65" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="O2" s="67"/>
       <c r="P2" s="62"/>
       <c r="Q2" s="65" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="R2" s="66"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="62"/>
       <c r="B3" s="68" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C3" s="64" t="n">
-        <f aca="false">SUM(Tasks_23_24!C336:E336)</f>
+        <f aca="false">SUM(Tasks_23_24!C337:E337)</f>
         <v>0</v>
       </c>
       <c r="D3" s="62"/>
       <c r="E3" s="69" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F3" s="70" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="G3" s="62"/>
       <c r="H3" s="69" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="I3" s="70" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="J3" s="62"/>
       <c r="K3" s="69" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="L3" s="70" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="M3" s="62"/>
       <c r="N3" s="69" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="O3" s="70" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="P3" s="62"/>
       <c r="Q3" s="69" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="R3" s="70" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="62"/>
       <c r="B4" s="71" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C4" s="72" t="n">
         <v>100</v>
       </c>
       <c r="D4" s="62"/>
       <c r="E4" s="67" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F4" s="73" t="e">
-        <f aca="false">SUM(Tasks_23_24!F506:G506)+#REF!*228/496</f>
+        <f aca="false">SUM(Tasks_23_24!F507:G507)+#REF!*228/496</f>
         <v>#REF!</v>
       </c>
       <c r="G4" s="62"/>
       <c r="H4" s="67" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="I4" s="73" t="e">
         <f aca="false">#REF!+#REF!*80/496</f>
@@ -5671,15 +5772,15 @@
       </c>
       <c r="J4" s="62"/>
       <c r="K4" s="67" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="L4" s="73" t="e">
-        <f aca="false">Tasks_23_24!H506+#REF!*36/496</f>
+        <f aca="false">Tasks_23_24!H507+#REF!*36/496</f>
         <v>#REF!</v>
       </c>
       <c r="M4" s="62"/>
       <c r="N4" s="67" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="O4" s="73" t="e">
         <f aca="false">#REF!+#REF!*24/496</f>
@@ -5687,17 +5788,17 @@
       </c>
       <c r="P4" s="62"/>
       <c r="Q4" s="67" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="R4" s="73" t="e">
-        <f aca="false">Tasks_23_24!I506+#REF!*128/496</f>
+        <f aca="false">Tasks_23_24!I507+#REF!*128/496</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="62"/>
       <c r="B5" s="74" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C5" s="75" t="n">
         <f aca="false">C3*C4</f>
@@ -5705,35 +5806,35 @@
       </c>
       <c r="D5" s="62"/>
       <c r="E5" s="76" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="F5" s="77" t="n">
         <v>100</v>
       </c>
       <c r="G5" s="62"/>
       <c r="H5" s="76" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="I5" s="77" t="n">
         <v>100</v>
       </c>
       <c r="J5" s="62"/>
       <c r="K5" s="76" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="L5" s="77" t="n">
         <v>100</v>
       </c>
       <c r="M5" s="62"/>
       <c r="N5" s="76" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="O5" s="77" t="n">
         <v>100</v>
       </c>
       <c r="P5" s="62"/>
       <c r="Q5" s="76" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="R5" s="77" t="n">
         <v>100</v>
@@ -5742,7 +5843,7 @@
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="62"/>
       <c r="B6" s="71" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="C6" s="78" t="n">
         <f aca="false">C5*0.2</f>
@@ -5750,7 +5851,7 @@
       </c>
       <c r="D6" s="62"/>
       <c r="E6" s="79" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="F6" s="80" t="e">
         <f aca="false">F4*F5</f>
@@ -5758,7 +5859,7 @@
       </c>
       <c r="G6" s="62"/>
       <c r="H6" s="79" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="I6" s="80" t="e">
         <f aca="false">I4*I5</f>
@@ -5766,7 +5867,7 @@
       </c>
       <c r="J6" s="62"/>
       <c r="K6" s="79" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="L6" s="80" t="e">
         <f aca="false">L4*L5</f>
@@ -5774,7 +5875,7 @@
       </c>
       <c r="M6" s="62"/>
       <c r="N6" s="79" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="O6" s="80" t="e">
         <f aca="false">O4*O5</f>
@@ -5782,7 +5883,7 @@
       </c>
       <c r="P6" s="62"/>
       <c r="Q6" s="79" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="R6" s="80" t="e">
         <f aca="false">R4*R5</f>
@@ -5792,7 +5893,7 @@
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="62"/>
       <c r="B7" s="81" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C7" s="82" t="n">
         <f aca="false">C5+C6</f>
@@ -5800,7 +5901,7 @@
       </c>
       <c r="D7" s="62"/>
       <c r="E7" s="76" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F7" s="73" t="e">
         <f aca="false">F6*0.2</f>
@@ -5808,7 +5909,7 @@
       </c>
       <c r="G7" s="62"/>
       <c r="H7" s="76" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="I7" s="73" t="e">
         <f aca="false">I6*0.2</f>
@@ -5816,7 +5917,7 @@
       </c>
       <c r="J7" s="62"/>
       <c r="K7" s="76" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="L7" s="73" t="e">
         <f aca="false">L6*0.2</f>
@@ -5824,7 +5925,7 @@
       </c>
       <c r="M7" s="62"/>
       <c r="N7" s="76" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="O7" s="73" t="e">
         <f aca="false">O6*0.2</f>
@@ -5832,7 +5933,7 @@
       </c>
       <c r="P7" s="62"/>
       <c r="Q7" s="76" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="R7" s="73" t="e">
         <f aca="false">R6*0.2</f>
@@ -5841,7 +5942,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E8" s="81" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F8" s="82" t="e">
         <f aca="false">F6+F7</f>
@@ -5849,7 +5950,7 @@
       </c>
       <c r="G8" s="62"/>
       <c r="H8" s="81" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="I8" s="82" t="e">
         <f aca="false">I6+I7</f>
@@ -5857,7 +5958,7 @@
       </c>
       <c r="J8" s="62"/>
       <c r="K8" s="81" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="L8" s="82" t="e">
         <f aca="false">L6+L7</f>
@@ -5865,7 +5966,7 @@
       </c>
       <c r="M8" s="62"/>
       <c r="N8" s="81" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="O8" s="82" t="e">
         <f aca="false">O6+O7</f>
@@ -5873,7 +5974,7 @@
       </c>
       <c r="P8" s="62"/>
       <c r="Q8" s="81" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="R8" s="82" t="e">
         <f aca="false">R6+R7</f>
@@ -5885,15 +5986,15 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E10" s="69" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="F10" s="70" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E11" s="61" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F11" s="83" t="e">
         <f aca="false">F4+I4+L4+R4+O4</f>
@@ -5902,7 +6003,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E12" s="81" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F12" s="82" t="e">
         <f aca="false">F6+I6+L6+R6+O6</f>
@@ -5912,7 +6013,7 @@
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="62"/>
       <c r="B13" s="84" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C13" s="85" t="e">
         <f aca="false">C7+F12</f>

--- a/SustSol/TimeTracking_2025.xlsx
+++ b/SustSol/TimeTracking_2025.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="170">
   <si>
     <t xml:space="preserve">SustSol Time Tracking</t>
   </si>
@@ -401,16 +401,16 @@
     <t xml:space="preserve">F&amp;E grant proposal theme research &amp; outlines for 2024+25</t>
   </si>
   <si>
-    <t xml:space="preserve">SusCall / Monday</t>
+    <t xml:space="preserve">&lt;ImageViewer/&gt; component refactoring (splitting functionality)</t>
   </si>
   <si>
     <t xml:space="preserve">x</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;ImageViewer/&gt; component refactoring (splitting functionality)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Schluckakt-2-Avif extractor Python (for demo)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peregrin Call Monday</t>
   </si>
   <si>
     <t xml:space="preserve">Externalized state management for new WebViewer (Tigerstate II)</t>
@@ -849,7 +849,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -882,38 +882,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8EA9DB"/>
-        <bgColor rgb="FFB4C7DC"/>
+        <fgColor rgb="FF5983B0"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA9D08E"/>
-        <bgColor rgb="FFB4C7DC"/>
+        <fgColor rgb="FF77BC65"/>
+        <bgColor rgb="FF729FCF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF860D"/>
         <bgColor rgb="FFFF6600"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDEBF7"/>
-        <bgColor rgb="FFE7E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFDA"/>
-        <bgColor rgb="FFDDE8CB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.3997"/>
-        <bgColor rgb="FFFF99CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -930,20 +912,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB4C7DC"/>
-        <bgColor rgb="FFA9D08E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDE8CB"/>
-        <bgColor rgb="FFE2EFDA"/>
+        <fgColor rgb="FF729FCF"/>
+        <bgColor rgb="FF5983B0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD62E4E"/>
         <bgColor rgb="FF993366"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FFE7E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
     <fill>
@@ -977,7 +965,7 @@
       <top style="dotted">
         <color theme="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -1081,7 +1069,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="87">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1111,46 +1099,34 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1158,15 +1134,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="13" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1174,19 +1150,23 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="19" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="13" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="20" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1194,27 +1174,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="23" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1226,22 +1206,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="24" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1250,19 +1214,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1274,43 +1238,59 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="19" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1334,83 +1314,83 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="29" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="31" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="29" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="29" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="30" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="32" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="31" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="31" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="29" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="33" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="33" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="33" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="31" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="31" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="31" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="29" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="33" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="33" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="33" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="34" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="34" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="34" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1418,11 +1398,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="35" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="35" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="35" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1476,9 +1456,9 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB4C7DC"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF8EA9DB"/>
+      <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FFD62E4E"/>
       <rgbColor rgb="FFE7E6E6"/>
       <rgbColor rgb="FFDDEBF7"/>
@@ -1495,23 +1475,23 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFDDE8CB"/>
+      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFE2EFDA"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FFA9D08E"/>
+      <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFAC090"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF77BC65"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF860D"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666666"/>
       <rgbColor rgb="FF757171"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF5983B0"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF262626"/>
       <rgbColor rgb="FF993300"/>
@@ -1703,13 +1683,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE212"/>
+  <dimension ref="A1:XFD213"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A147" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D170" activeCellId="0" sqref="D170"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A153" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E165" activeCellId="0" sqref="E165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="71"/>
@@ -1742,1682 +1722,1682 @@
         <v>1</v>
       </c>
       <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>45673</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="21" t="n">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>45674</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="21" t="n">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>45674</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19" t="n">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>45675</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="21" t="n">
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>45676</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="21" t="n">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>45677</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20" t="n">
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B11" s="18" t="s">
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="B11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>45691</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20" t="n">
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>45691</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="19" t="n">
+      <c r="C14" s="16" t="n">
         <v>1.5</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>45691</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19" t="n">
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16" t="n">
         <v>2.5</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B17" s="18" t="s">
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="B17" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>45703</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="21" t="n">
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>45703</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20" t="n">
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>45704</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="21" t="n">
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>45705</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="19" t="n">
+      <c r="C22" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>45706</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19" t="n">
+      <c r="C23" s="16"/>
+      <c r="D23" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>45712</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="21" t="n">
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>45712</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="21" t="n">
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="18" t="n">
         <v>2.5</v>
       </c>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>45712</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20" t="n">
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17" t="n">
         <v>1.5</v>
       </c>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>45712</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="19" t="n">
+      <c r="C27" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>45712</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20" t="n">
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>45717</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19" t="n">
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>45721</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19" t="n">
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16" t="n">
         <v>2.5</v>
       </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>45722</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20" t="n">
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>45722</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20" t="n">
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17" t="n">
         <v>1.5</v>
       </c>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>45731</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20" t="n">
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>45725</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19" t="n">
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>45729</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="21" t="n">
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>45730</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="21" t="n">
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>45732</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19" t="n">
+      <c r="C39" s="16"/>
+      <c r="D39" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="E39" s="19"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="E39" s="16"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>45733</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19" t="n">
+      <c r="C40" s="16"/>
+      <c r="D40" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="E40" s="19"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="E40" s="16"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>45733</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20" t="n">
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>45733</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20" t="n">
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>45734</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20" t="n">
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="21"/>
-      <c r="M43" s="21"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>45730</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20" t="n">
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>45731</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20" t="n">
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="21"/>
-      <c r="M46" s="21"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>45731</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="19" t="n">
+      <c r="C47" s="16" t="n">
         <v>1.5</v>
       </c>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>45732</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19" t="n">
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="21"/>
-      <c r="M48" s="21"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B49" s="22"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="B49" s="19"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>45733</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20" t="n">
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="21"/>
-      <c r="M50" s="21"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>45736</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20" t="n">
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>45740</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20" t="n">
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>45741</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20" t="n">
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>45742</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20" t="n">
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="21"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B55" s="22"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
-      <c r="M55" s="21"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="B55" s="19"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>45745</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20" t="n">
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>45747</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20" t="n">
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="21"/>
-      <c r="L57" s="21"/>
-      <c r="M57" s="21"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>45748</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20" t="n">
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="21"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="21"/>
-      <c r="M58" s="21"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>45749</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="20" t="n">
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="G59" s="20" t="n">
+      <c r="G59" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="21"/>
-      <c r="K59" s="21"/>
-      <c r="L59" s="21"/>
-      <c r="M59" s="21"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>45750</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="21" t="n">
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="K60" s="21"/>
-      <c r="L60" s="21"/>
-      <c r="M60" s="21"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="21"/>
-      <c r="L61" s="21"/>
-      <c r="M61" s="21"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="18"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="18"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>45755</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C62" s="19" t="n">
+      <c r="C62" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="21"/>
-      <c r="K62" s="21"/>
-      <c r="L62" s="21"/>
-      <c r="M62" s="21"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="18"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>45758</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20" t="n">
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="21"/>
-      <c r="K63" s="21"/>
-      <c r="L63" s="21"/>
-      <c r="M63" s="21"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="18"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>45761</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20" t="n">
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="21"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="21"/>
-      <c r="M64" s="21"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="18"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>45761</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19" t="n">
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="21"/>
-      <c r="M65" s="21"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="18"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>45761</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C66" s="19" t="n">
+      <c r="C66" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="21"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
-      <c r="M67" s="21"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="18"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="18"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>45775</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="20" t="n">
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="17" t="n">
         <v>1.5</v>
       </c>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="20"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="21"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="18"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>45775</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="20" t="n">
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="17" t="n">
         <v>2.5</v>
       </c>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="21"/>
-      <c r="K69" s="21"/>
-      <c r="L69" s="21"/>
-      <c r="M69" s="21"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="18"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>45777</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="20" t="n">
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="17" t="n">
         <v>1.5</v>
       </c>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="21"/>
-      <c r="K70" s="21"/>
-      <c r="L70" s="21"/>
-      <c r="M70" s="21"/>
-    </row>
-    <row r="71" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="18"/>
+      <c r="M70" s="18"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>45779</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20" t="n">
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="21"/>
-      <c r="K71" s="21"/>
-      <c r="L71" s="21"/>
-      <c r="M71" s="21"/>
-    </row>
-    <row r="72" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="21"/>
-      <c r="K72" s="21"/>
-      <c r="L72" s="21"/>
-      <c r="M72" s="21"/>
-    </row>
-    <row r="73" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="18"/>
+      <c r="M71" s="18"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="18"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>45791</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20" t="n">
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="21"/>
-      <c r="K73" s="21"/>
-      <c r="L73" s="21"/>
-      <c r="M73" s="21"/>
-    </row>
-    <row r="74" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="18"/>
+      <c r="M73" s="18"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>45798</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C74" s="19" t="n">
+      <c r="C74" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="21"/>
-      <c r="K74" s="21"/>
-      <c r="L74" s="21"/>
-      <c r="M74" s="21"/>
-    </row>
-    <row r="75" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="18"/>
+      <c r="M74" s="18"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>45799</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C75" s="19" t="n">
+      <c r="C75" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="21"/>
-      <c r="K75" s="21"/>
-      <c r="L75" s="21"/>
-      <c r="M75" s="21"/>
-    </row>
-    <row r="76" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="18"/>
+      <c r="L75" s="18"/>
+      <c r="M75" s="18"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>45802</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19" t="n">
+      <c r="C76" s="16"/>
+      <c r="D76" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="E76" s="19"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
-      <c r="J76" s="21"/>
-      <c r="K76" s="21"/>
-      <c r="L76" s="21"/>
-      <c r="M76" s="21"/>
-    </row>
-    <row r="77" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="E76" s="16"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="18"/>
+      <c r="K76" s="18"/>
+      <c r="L76" s="18"/>
+      <c r="M76" s="18"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>45802</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19" t="n">
+      <c r="C77" s="16"/>
+      <c r="D77" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="E77" s="19"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="20"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="21"/>
-      <c r="L77" s="21"/>
-      <c r="M77" s="21"/>
-    </row>
-    <row r="78" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="E77" s="16"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="18"/>
+      <c r="L77" s="18"/>
+      <c r="M77" s="18"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A78" s="1" t="n">
         <v>45802</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19" t="n">
+      <c r="C78" s="16"/>
+      <c r="D78" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="E78" s="19"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="20"/>
-      <c r="J78" s="21"/>
-      <c r="K78" s="21"/>
-      <c r="L78" s="21"/>
-      <c r="M78" s="21"/>
-    </row>
-    <row r="79" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="E78" s="16"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="18"/>
+      <c r="M78" s="18"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A79" s="1" t="n">
         <v>45803</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C79" s="19" t="n">
+      <c r="C79" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
-      <c r="J79" s="21"/>
-      <c r="K79" s="21"/>
-      <c r="L79" s="21"/>
-      <c r="M79" s="21"/>
-    </row>
-    <row r="80" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="18"/>
+      <c r="K79" s="18"/>
+      <c r="L79" s="18"/>
+      <c r="M79" s="18"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A80" s="1" t="n">
         <v>45804</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C80" s="19"/>
-      <c r="D80" s="19" t="n">
+      <c r="C80" s="16"/>
+      <c r="D80" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="E80" s="19"/>
-      <c r="F80" s="20"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="20"/>
-      <c r="I80" s="20"/>
-      <c r="J80" s="21"/>
-      <c r="K80" s="21"/>
-      <c r="L80" s="21"/>
-      <c r="M80" s="21"/>
-    </row>
-    <row r="81" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="E80" s="16"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="18"/>
+      <c r="L80" s="18"/>
+      <c r="M80" s="18"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A81" s="1" t="n">
         <v>45804</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19" t="n">
+      <c r="C81" s="16"/>
+      <c r="D81" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="E81" s="19"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="20"/>
-      <c r="J81" s="21"/>
-      <c r="K81" s="21"/>
-      <c r="L81" s="21"/>
-      <c r="M81" s="21"/>
-    </row>
-    <row r="82" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="20"/>
-      <c r="I82" s="20"/>
-      <c r="J82" s="21"/>
-      <c r="K82" s="21"/>
-      <c r="L82" s="21"/>
-      <c r="M82" s="21"/>
-    </row>
-    <row r="83" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="E81" s="16"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="18"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="18"/>
+      <c r="M82" s="18"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
       <c r="A83" s="1" t="n">
         <v>45805</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C83" s="19" t="n">
+      <c r="C83" s="16" t="n">
         <v>1.5</v>
       </c>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="20"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="21"/>
-      <c r="K83" s="21"/>
-      <c r="L83" s="21"/>
-      <c r="M83" s="21"/>
-    </row>
-    <row r="84" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="20"/>
-      <c r="G84" s="20"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="20"/>
-      <c r="J84" s="21"/>
-      <c r="K84" s="21"/>
-      <c r="L84" s="21"/>
-      <c r="M84" s="21"/>
-    </row>
-    <row r="85" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="B85" s="23" t="s">
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="18"/>
+      <c r="M83" s="18"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="18"/>
+      <c r="L84" s="18"/>
+      <c r="M84" s="18"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="B85" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="20"/>
-      <c r="J85" s="21"/>
-      <c r="K85" s="21"/>
-      <c r="L85" s="21"/>
-      <c r="M85" s="21"/>
-    </row>
-    <row r="86" customFormat="false" ht="12.75" hidden="true" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="20"/>
-      <c r="J86" s="21"/>
-      <c r="K86" s="21"/>
-      <c r="L86" s="21"/>
-      <c r="M86" s="21"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="17"/>
+      <c r="J85" s="18"/>
+      <c r="K85" s="18"/>
+      <c r="L85" s="18"/>
+      <c r="M85" s="18"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="18"/>
+      <c r="M86" s="18"/>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="20"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="20"/>
-      <c r="I87" s="20"/>
-      <c r="J87" s="21"/>
-      <c r="K87" s="21"/>
-      <c r="L87" s="21"/>
-      <c r="M87" s="21"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="18"/>
+      <c r="K87" s="18"/>
+      <c r="L87" s="18"/>
+      <c r="M87" s="18"/>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
@@ -3426,19 +3406,19 @@
       <c r="B88" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C88" s="19" t="n">
+      <c r="C88" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="20"/>
-      <c r="J88" s="21"/>
-      <c r="K88" s="21"/>
-      <c r="L88" s="21"/>
-      <c r="M88" s="21"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="18"/>
+      <c r="K88" s="18"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="18"/>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
@@ -3447,21 +3427,21 @@
       <c r="B89" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19" t="n">
+      <c r="C89" s="16"/>
+      <c r="D89" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="E89" s="19"/>
-      <c r="F89" s="20"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="20" t="n">
+      <c r="E89" s="16"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="I89" s="20"/>
-      <c r="J89" s="21"/>
-      <c r="K89" s="21"/>
-      <c r="L89" s="21"/>
-      <c r="M89" s="21"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="18"/>
+      <c r="K89" s="18"/>
+      <c r="L89" s="18"/>
+      <c r="M89" s="18"/>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
@@ -3470,19 +3450,19 @@
       <c r="B90" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19" t="n">
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="F90" s="20"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="20"/>
-      <c r="I90" s="20"/>
-      <c r="J90" s="21"/>
-      <c r="K90" s="21"/>
-      <c r="L90" s="21"/>
-      <c r="M90" s="21"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="18"/>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
@@ -3491,30 +3471,30 @@
       <c r="B91" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="20"/>
-      <c r="I91" s="20"/>
-      <c r="J91" s="21"/>
-      <c r="K91" s="21"/>
-      <c r="L91" s="21"/>
-      <c r="M91" s="21"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="18"/>
+      <c r="K91" s="18"/>
+      <c r="L91" s="18"/>
+      <c r="M91" s="18"/>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C92" s="19"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="20"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="20"/>
-      <c r="I92" s="20"/>
-      <c r="J92" s="21"/>
-      <c r="K92" s="21"/>
-      <c r="L92" s="21"/>
-      <c r="M92" s="21"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="18"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="18"/>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
@@ -3523,19 +3503,19 @@
       <c r="B93" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C93" s="19" t="n">
+      <c r="C93" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="20"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="20"/>
-      <c r="I93" s="20"/>
-      <c r="J93" s="21"/>
-      <c r="K93" s="21"/>
-      <c r="L93" s="21"/>
-      <c r="M93" s="21"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="18"/>
+      <c r="K93" s="18"/>
+      <c r="L93" s="18"/>
+      <c r="M93" s="18"/>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
@@ -3544,32 +3524,32 @@
       <c r="B94" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19" t="n">
+      <c r="C94" s="16"/>
+      <c r="D94" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="E94" s="19"/>
-      <c r="F94" s="20"/>
-      <c r="G94" s="20"/>
-      <c r="H94" s="20"/>
-      <c r="I94" s="20"/>
-      <c r="J94" s="21"/>
-      <c r="K94" s="21"/>
-      <c r="L94" s="21"/>
-      <c r="M94" s="21"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="18"/>
+      <c r="K94" s="18"/>
+      <c r="L94" s="18"/>
+      <c r="M94" s="18"/>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C95" s="19"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="19"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="20"/>
-      <c r="H95" s="20"/>
-      <c r="I95" s="20"/>
-      <c r="J95" s="21"/>
-      <c r="K95" s="21"/>
-      <c r="L95" s="21"/>
-      <c r="M95" s="21"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="18"/>
+      <c r="K95" s="18"/>
+      <c r="L95" s="18"/>
+      <c r="M95" s="18"/>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
@@ -3578,19 +3558,19 @@
       <c r="B96" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="19" t="n">
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="F96" s="20"/>
-      <c r="G96" s="20"/>
-      <c r="H96" s="20"/>
-      <c r="I96" s="20"/>
-      <c r="J96" s="21"/>
-      <c r="K96" s="21"/>
-      <c r="L96" s="21"/>
-      <c r="M96" s="21"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="18"/>
+      <c r="K96" s="18"/>
+      <c r="L96" s="18"/>
+      <c r="M96" s="18"/>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
@@ -3599,19 +3579,19 @@
       <c r="B97" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="19" t="n">
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="F97" s="20"/>
-      <c r="G97" s="20"/>
-      <c r="H97" s="20"/>
-      <c r="I97" s="20"/>
-      <c r="J97" s="21"/>
-      <c r="K97" s="21"/>
-      <c r="L97" s="21"/>
-      <c r="M97" s="21"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="18"/>
+      <c r="K97" s="18"/>
+      <c r="L97" s="18"/>
+      <c r="M97" s="18"/>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
@@ -3620,19 +3600,19 @@
       <c r="B98" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C98" s="19" t="n">
+      <c r="C98" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="D98" s="19"/>
-      <c r="E98" s="19"/>
-      <c r="F98" s="20"/>
-      <c r="G98" s="20"/>
-      <c r="H98" s="20"/>
-      <c r="I98" s="20"/>
-      <c r="J98" s="21"/>
-      <c r="K98" s="21"/>
-      <c r="L98" s="21"/>
-      <c r="M98" s="21"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="18"/>
+      <c r="K98" s="18"/>
+      <c r="L98" s="18"/>
+      <c r="M98" s="18"/>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
@@ -3641,19 +3621,19 @@
       <c r="B99" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19" t="n">
+      <c r="C99" s="16"/>
+      <c r="D99" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="E99" s="19"/>
-      <c r="F99" s="20"/>
-      <c r="G99" s="20"/>
-      <c r="H99" s="20"/>
-      <c r="I99" s="20"/>
-      <c r="J99" s="21"/>
-      <c r="K99" s="21"/>
-      <c r="L99" s="21"/>
-      <c r="M99" s="21"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="18"/>
+      <c r="K99" s="18"/>
+      <c r="L99" s="18"/>
+      <c r="M99" s="18"/>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
@@ -3662,19 +3642,19 @@
       <c r="B100" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19" t="n">
+      <c r="C100" s="16"/>
+      <c r="D100" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="E100" s="19"/>
-      <c r="F100" s="20"/>
-      <c r="G100" s="20"/>
-      <c r="H100" s="20"/>
-      <c r="I100" s="20"/>
-      <c r="J100" s="21"/>
-      <c r="K100" s="21"/>
-      <c r="L100" s="21"/>
-      <c r="M100" s="21"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="18"/>
+      <c r="K100" s="18"/>
+      <c r="L100" s="18"/>
+      <c r="M100" s="18"/>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
@@ -3683,19 +3663,19 @@
       <c r="B101" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19" t="n">
+      <c r="C101" s="16"/>
+      <c r="D101" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="E101" s="19"/>
-      <c r="F101" s="20"/>
-      <c r="G101" s="20"/>
-      <c r="H101" s="20"/>
-      <c r="I101" s="20"/>
-      <c r="J101" s="21"/>
-      <c r="K101" s="21"/>
-      <c r="L101" s="21"/>
-      <c r="M101" s="21"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="17"/>
+      <c r="J101" s="18"/>
+      <c r="K101" s="18"/>
+      <c r="L101" s="18"/>
+      <c r="M101" s="18"/>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
@@ -3704,19 +3684,19 @@
       <c r="B102" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C102" s="19" t="n">
+      <c r="C102" s="16" t="n">
         <v>1.5</v>
       </c>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="20"/>
-      <c r="G102" s="20"/>
-      <c r="H102" s="20"/>
-      <c r="I102" s="20"/>
-      <c r="J102" s="21"/>
-      <c r="K102" s="21"/>
-      <c r="L102" s="21"/>
-      <c r="M102" s="21"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="17"/>
+      <c r="I102" s="17"/>
+      <c r="J102" s="18"/>
+      <c r="K102" s="18"/>
+      <c r="L102" s="18"/>
+      <c r="M102" s="18"/>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
@@ -3725,19 +3705,19 @@
       <c r="B103" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19" t="n">
+      <c r="C103" s="16"/>
+      <c r="D103" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="E103" s="19"/>
-      <c r="F103" s="20"/>
-      <c r="G103" s="20"/>
-      <c r="H103" s="20"/>
-      <c r="I103" s="20"/>
-      <c r="J103" s="21"/>
-      <c r="K103" s="21"/>
-      <c r="L103" s="21"/>
-      <c r="M103" s="21"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="17"/>
+      <c r="I103" s="17"/>
+      <c r="J103" s="18"/>
+      <c r="K103" s="18"/>
+      <c r="L103" s="18"/>
+      <c r="M103" s="18"/>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
@@ -3746,19 +3726,19 @@
       <c r="B104" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C104" s="19"/>
-      <c r="D104" s="19" t="n">
+      <c r="C104" s="16"/>
+      <c r="D104" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="E104" s="19"/>
-      <c r="F104" s="20"/>
-      <c r="G104" s="20"/>
-      <c r="H104" s="20"/>
-      <c r="I104" s="20"/>
-      <c r="J104" s="21"/>
-      <c r="K104" s="21"/>
-      <c r="L104" s="21"/>
-      <c r="M104" s="21"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="17"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="17"/>
+      <c r="I104" s="17"/>
+      <c r="J104" s="18"/>
+      <c r="K104" s="18"/>
+      <c r="L104" s="18"/>
+      <c r="M104" s="18"/>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
@@ -3767,19 +3747,19 @@
       <c r="B105" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19" t="n">
+      <c r="C105" s="16"/>
+      <c r="D105" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="E105" s="19"/>
-      <c r="F105" s="20"/>
-      <c r="G105" s="20"/>
-      <c r="H105" s="20"/>
-      <c r="I105" s="20"/>
-      <c r="J105" s="21"/>
-      <c r="K105" s="21"/>
-      <c r="L105" s="21"/>
-      <c r="M105" s="21"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="17"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="17"/>
+      <c r="J105" s="18"/>
+      <c r="K105" s="18"/>
+      <c r="L105" s="18"/>
+      <c r="M105" s="18"/>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
@@ -3788,19 +3768,19 @@
       <c r="B106" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C106" s="19" t="n">
+      <c r="C106" s="16" t="n">
         <v>1.5</v>
       </c>
-      <c r="D106" s="19"/>
-      <c r="E106" s="19"/>
-      <c r="F106" s="20"/>
-      <c r="G106" s="20"/>
-      <c r="H106" s="20"/>
-      <c r="I106" s="20"/>
-      <c r="J106" s="21"/>
-      <c r="K106" s="21"/>
-      <c r="L106" s="21"/>
-      <c r="M106" s="21"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="17"/>
+      <c r="J106" s="18"/>
+      <c r="K106" s="18"/>
+      <c r="L106" s="18"/>
+      <c r="M106" s="18"/>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
@@ -3809,19 +3789,19 @@
       <c r="B107" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C107" s="19" t="n">
+      <c r="C107" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="D107" s="19"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="20"/>
-      <c r="G107" s="20"/>
-      <c r="H107" s="20"/>
-      <c r="I107" s="20"/>
-      <c r="J107" s="21"/>
-      <c r="K107" s="21"/>
-      <c r="L107" s="21"/>
-      <c r="M107" s="21"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="17"/>
+      <c r="H107" s="17"/>
+      <c r="I107" s="17"/>
+      <c r="J107" s="18"/>
+      <c r="K107" s="18"/>
+      <c r="L107" s="18"/>
+      <c r="M107" s="18"/>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
@@ -3830,21 +3810,21 @@
       <c r="B108" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C108" s="19" t="n">
+      <c r="C108" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="D108" s="19" t="n">
+      <c r="D108" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="E108" s="19"/>
-      <c r="F108" s="20"/>
-      <c r="G108" s="20"/>
-      <c r="H108" s="20"/>
-      <c r="I108" s="20"/>
-      <c r="J108" s="21"/>
-      <c r="K108" s="21"/>
-      <c r="L108" s="21"/>
-      <c r="M108" s="21"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="17"/>
+      <c r="J108" s="18"/>
+      <c r="K108" s="18"/>
+      <c r="L108" s="18"/>
+      <c r="M108" s="18"/>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
@@ -3853,21 +3833,21 @@
       <c r="B109" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C109" s="19" t="n">
+      <c r="C109" s="16" t="n">
         <v>1.5</v>
       </c>
-      <c r="D109" s="19" t="n">
+      <c r="D109" s="16" t="n">
         <v>3.5</v>
       </c>
-      <c r="E109" s="19"/>
-      <c r="F109" s="20"/>
-      <c r="G109" s="20"/>
-      <c r="H109" s="20"/>
-      <c r="I109" s="20"/>
-      <c r="J109" s="21"/>
-      <c r="K109" s="21"/>
-      <c r="L109" s="21"/>
-      <c r="M109" s="21"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="17"/>
+      <c r="I109" s="17"/>
+      <c r="J109" s="18"/>
+      <c r="K109" s="18"/>
+      <c r="L109" s="18"/>
+      <c r="M109" s="18"/>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
@@ -3876,19 +3856,19 @@
       <c r="B110" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19" t="n">
+      <c r="C110" s="16"/>
+      <c r="D110" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="E110" s="19"/>
-      <c r="F110" s="20"/>
-      <c r="G110" s="20"/>
-      <c r="H110" s="20"/>
-      <c r="I110" s="20"/>
-      <c r="J110" s="21"/>
-      <c r="K110" s="21"/>
-      <c r="L110" s="21"/>
-      <c r="M110" s="21"/>
+      <c r="E110" s="16"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="17"/>
+      <c r="I110" s="17"/>
+      <c r="J110" s="18"/>
+      <c r="K110" s="18"/>
+      <c r="L110" s="18"/>
+      <c r="M110" s="18"/>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
@@ -3897,19 +3877,19 @@
       <c r="B111" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C111" s="19"/>
-      <c r="D111" s="19" t="n">
+      <c r="C111" s="16"/>
+      <c r="D111" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="E111" s="19"/>
-      <c r="F111" s="20"/>
-      <c r="G111" s="20"/>
-      <c r="H111" s="20"/>
-      <c r="I111" s="20"/>
-      <c r="J111" s="21"/>
-      <c r="K111" s="21"/>
-      <c r="L111" s="21"/>
-      <c r="M111" s="21"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="17"/>
+      <c r="J111" s="18"/>
+      <c r="K111" s="18"/>
+      <c r="L111" s="18"/>
+      <c r="M111" s="18"/>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
@@ -3918,19 +3898,19 @@
       <c r="B112" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C112" s="19"/>
-      <c r="D112" s="19"/>
-      <c r="E112" s="19" t="n">
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="F112" s="20"/>
-      <c r="G112" s="20"/>
-      <c r="H112" s="20"/>
-      <c r="I112" s="20"/>
-      <c r="J112" s="21"/>
-      <c r="K112" s="21"/>
-      <c r="L112" s="21"/>
-      <c r="M112" s="21"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="17"/>
+      <c r="J112" s="18"/>
+      <c r="K112" s="18"/>
+      <c r="L112" s="18"/>
+      <c r="M112" s="18"/>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
@@ -3939,19 +3919,19 @@
       <c r="B113" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C113" s="19"/>
-      <c r="D113" s="19"/>
-      <c r="E113" s="19" t="n">
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="16" t="n">
         <v>9</v>
       </c>
-      <c r="F113" s="20"/>
-      <c r="G113" s="20"/>
-      <c r="H113" s="20"/>
-      <c r="I113" s="20"/>
-      <c r="J113" s="21"/>
-      <c r="K113" s="21"/>
-      <c r="L113" s="21"/>
-      <c r="M113" s="21"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="17"/>
+      <c r="I113" s="17"/>
+      <c r="J113" s="18"/>
+      <c r="K113" s="18"/>
+      <c r="L113" s="18"/>
+      <c r="M113" s="18"/>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
@@ -3960,19 +3940,19 @@
       <c r="B114" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C114" s="19"/>
-      <c r="D114" s="19"/>
-      <c r="E114" s="19" t="n">
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="F114" s="20"/>
-      <c r="G114" s="20"/>
-      <c r="H114" s="20"/>
-      <c r="I114" s="20"/>
-      <c r="J114" s="21"/>
-      <c r="K114" s="21"/>
-      <c r="L114" s="21"/>
-      <c r="M114" s="21"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="17"/>
+      <c r="I114" s="17"/>
+      <c r="J114" s="18"/>
+      <c r="K114" s="18"/>
+      <c r="L114" s="18"/>
+      <c r="M114" s="18"/>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
@@ -3981,19 +3961,19 @@
       <c r="B115" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C115" s="19" t="n">
+      <c r="C115" s="16" t="n">
         <v>1.5</v>
       </c>
-      <c r="D115" s="19"/>
-      <c r="E115" s="19"/>
-      <c r="F115" s="20"/>
-      <c r="G115" s="20"/>
-      <c r="H115" s="20"/>
-      <c r="I115" s="20"/>
-      <c r="J115" s="21"/>
-      <c r="K115" s="21"/>
-      <c r="L115" s="21"/>
-      <c r="M115" s="21"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="17"/>
+      <c r="H115" s="17"/>
+      <c r="I115" s="17"/>
+      <c r="J115" s="18"/>
+      <c r="K115" s="18"/>
+      <c r="L115" s="18"/>
+      <c r="M115" s="18"/>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
@@ -4002,19 +3982,19 @@
       <c r="B116" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C116" s="19"/>
-      <c r="D116" s="19" t="n">
+      <c r="C116" s="16"/>
+      <c r="D116" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="E116" s="19"/>
-      <c r="F116" s="20"/>
-      <c r="G116" s="20"/>
-      <c r="H116" s="20"/>
-      <c r="I116" s="20"/>
-      <c r="J116" s="21"/>
-      <c r="K116" s="21"/>
-      <c r="L116" s="21"/>
-      <c r="M116" s="21"/>
+      <c r="E116" s="16"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="17"/>
+      <c r="H116" s="17"/>
+      <c r="I116" s="17"/>
+      <c r="J116" s="18"/>
+      <c r="K116" s="18"/>
+      <c r="L116" s="18"/>
+      <c r="M116" s="18"/>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
@@ -4023,19 +4003,19 @@
       <c r="B117" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C117" s="19"/>
-      <c r="D117" s="19"/>
-      <c r="E117" s="19" t="n">
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F117" s="20"/>
-      <c r="G117" s="20"/>
-      <c r="H117" s="20"/>
-      <c r="I117" s="20"/>
-      <c r="J117" s="21"/>
-      <c r="K117" s="21"/>
-      <c r="L117" s="21"/>
-      <c r="M117" s="21"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="17"/>
+      <c r="I117" s="17"/>
+      <c r="J117" s="18"/>
+      <c r="K117" s="18"/>
+      <c r="L117" s="18"/>
+      <c r="M117" s="18"/>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
@@ -4044,19 +4024,19 @@
       <c r="B118" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C118" s="19" t="n">
+      <c r="C118" s="16" t="n">
         <v>2.5</v>
       </c>
-      <c r="D118" s="19"/>
-      <c r="E118" s="19"/>
-      <c r="F118" s="20"/>
-      <c r="G118" s="20"/>
-      <c r="H118" s="20"/>
-      <c r="I118" s="20"/>
-      <c r="J118" s="21"/>
-      <c r="K118" s="21"/>
-      <c r="L118" s="21"/>
-      <c r="M118" s="21"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="16"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="17"/>
+      <c r="H118" s="17"/>
+      <c r="I118" s="17"/>
+      <c r="J118" s="18"/>
+      <c r="K118" s="18"/>
+      <c r="L118" s="18"/>
+      <c r="M118" s="18"/>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
@@ -4065,19 +4045,19 @@
       <c r="B119" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C119" s="19"/>
-      <c r="D119" s="19"/>
-      <c r="E119" s="19" t="n">
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="F119" s="20"/>
-      <c r="G119" s="20"/>
-      <c r="H119" s="20"/>
-      <c r="I119" s="20"/>
-      <c r="J119" s="21"/>
-      <c r="K119" s="21"/>
-      <c r="L119" s="21"/>
-      <c r="M119" s="21"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="17"/>
+      <c r="H119" s="17"/>
+      <c r="I119" s="17"/>
+      <c r="J119" s="18"/>
+      <c r="K119" s="18"/>
+      <c r="L119" s="18"/>
+      <c r="M119" s="18"/>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
@@ -4086,19 +4066,19 @@
       <c r="B120" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C120" s="19"/>
-      <c r="D120" s="19"/>
-      <c r="E120" s="19" t="n">
+      <c r="C120" s="16"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="16" t="n">
         <v>4.5</v>
       </c>
-      <c r="F120" s="20"/>
-      <c r="G120" s="20"/>
-      <c r="H120" s="20"/>
-      <c r="I120" s="20"/>
-      <c r="J120" s="21"/>
-      <c r="K120" s="21"/>
-      <c r="L120" s="21"/>
-      <c r="M120" s="21"/>
+      <c r="F120" s="17"/>
+      <c r="G120" s="17"/>
+      <c r="H120" s="17"/>
+      <c r="I120" s="17"/>
+      <c r="J120" s="18"/>
+      <c r="K120" s="18"/>
+      <c r="L120" s="18"/>
+      <c r="M120" s="18"/>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
@@ -4107,19 +4087,19 @@
       <c r="B121" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C121" s="19"/>
-      <c r="D121" s="19" t="n">
+      <c r="C121" s="16"/>
+      <c r="D121" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="E121" s="19"/>
-      <c r="F121" s="20"/>
-      <c r="G121" s="20"/>
-      <c r="H121" s="20"/>
-      <c r="I121" s="20"/>
-      <c r="J121" s="21"/>
-      <c r="K121" s="21"/>
-      <c r="L121" s="21"/>
-      <c r="M121" s="21"/>
+      <c r="E121" s="16"/>
+      <c r="F121" s="17"/>
+      <c r="G121" s="17"/>
+      <c r="H121" s="17"/>
+      <c r="I121" s="17"/>
+      <c r="J121" s="18"/>
+      <c r="K121" s="18"/>
+      <c r="L121" s="18"/>
+      <c r="M121" s="18"/>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
@@ -4128,19 +4108,19 @@
       <c r="B122" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C122" s="19"/>
-      <c r="D122" s="19"/>
-      <c r="E122" s="19" t="n">
+      <c r="C122" s="16"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="F122" s="20"/>
-      <c r="G122" s="20"/>
-      <c r="H122" s="20"/>
-      <c r="I122" s="20"/>
-      <c r="J122" s="21"/>
-      <c r="K122" s="21"/>
-      <c r="L122" s="21"/>
-      <c r="M122" s="21"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="17"/>
+      <c r="H122" s="17"/>
+      <c r="I122" s="17"/>
+      <c r="J122" s="18"/>
+      <c r="K122" s="18"/>
+      <c r="L122" s="18"/>
+      <c r="M122" s="18"/>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
@@ -4149,19 +4129,19 @@
       <c r="B123" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C123" s="19"/>
-      <c r="D123" s="19"/>
-      <c r="E123" s="19" t="n">
+      <c r="C123" s="16"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="16" t="n">
         <v>2.5</v>
       </c>
-      <c r="F123" s="20"/>
-      <c r="G123" s="20"/>
-      <c r="H123" s="20"/>
-      <c r="I123" s="20"/>
-      <c r="J123" s="21"/>
-      <c r="K123" s="21"/>
-      <c r="L123" s="21"/>
-      <c r="M123" s="21"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="17"/>
+      <c r="H123" s="17"/>
+      <c r="I123" s="17"/>
+      <c r="J123" s="18"/>
+      <c r="K123" s="18"/>
+      <c r="L123" s="18"/>
+      <c r="M123" s="18"/>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
@@ -4170,19 +4150,19 @@
       <c r="B124" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C124" s="19"/>
-      <c r="D124" s="19"/>
-      <c r="E124" s="19" t="n">
+      <c r="C124" s="16"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="16" t="n">
         <v>3.5</v>
       </c>
-      <c r="F124" s="20"/>
-      <c r="G124" s="20"/>
-      <c r="H124" s="20"/>
-      <c r="I124" s="20"/>
-      <c r="J124" s="21"/>
-      <c r="K124" s="21"/>
-      <c r="L124" s="21"/>
-      <c r="M124" s="21"/>
+      <c r="F124" s="17"/>
+      <c r="G124" s="17"/>
+      <c r="H124" s="17"/>
+      <c r="I124" s="17"/>
+      <c r="J124" s="18"/>
+      <c r="K124" s="18"/>
+      <c r="L124" s="18"/>
+      <c r="M124" s="18"/>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
@@ -4191,19 +4171,19 @@
       <c r="B125" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C125" s="19"/>
-      <c r="D125" s="19"/>
-      <c r="E125" s="19" t="n">
+      <c r="C125" s="16"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="F125" s="20"/>
-      <c r="G125" s="20"/>
-      <c r="H125" s="20"/>
-      <c r="I125" s="20"/>
-      <c r="J125" s="21"/>
-      <c r="K125" s="21"/>
-      <c r="L125" s="21"/>
-      <c r="M125" s="21"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="17"/>
+      <c r="H125" s="17"/>
+      <c r="I125" s="17"/>
+      <c r="J125" s="18"/>
+      <c r="K125" s="18"/>
+      <c r="L125" s="18"/>
+      <c r="M125" s="18"/>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
@@ -4212,19 +4192,19 @@
       <c r="B126" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C126" s="19"/>
-      <c r="D126" s="19"/>
-      <c r="E126" s="19" t="n">
+      <c r="C126" s="16"/>
+      <c r="D126" s="16"/>
+      <c r="E126" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="F126" s="20"/>
-      <c r="G126" s="20"/>
-      <c r="H126" s="20"/>
-      <c r="I126" s="20"/>
-      <c r="J126" s="21"/>
-      <c r="K126" s="21"/>
-      <c r="L126" s="21"/>
-      <c r="M126" s="21"/>
+      <c r="F126" s="17"/>
+      <c r="G126" s="17"/>
+      <c r="H126" s="17"/>
+      <c r="I126" s="17"/>
+      <c r="J126" s="18"/>
+      <c r="K126" s="18"/>
+      <c r="L126" s="18"/>
+      <c r="M126" s="18"/>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
@@ -4233,19 +4213,19 @@
       <c r="B127" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C127" s="19"/>
-      <c r="D127" s="19"/>
-      <c r="E127" s="19" t="n">
+      <c r="C127" s="16"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="F127" s="20"/>
-      <c r="G127" s="20"/>
-      <c r="H127" s="20"/>
-      <c r="I127" s="20"/>
-      <c r="J127" s="21"/>
-      <c r="K127" s="21"/>
-      <c r="L127" s="21"/>
-      <c r="M127" s="21"/>
+      <c r="F127" s="17"/>
+      <c r="G127" s="17"/>
+      <c r="H127" s="17"/>
+      <c r="I127" s="17"/>
+      <c r="J127" s="18"/>
+      <c r="K127" s="18"/>
+      <c r="L127" s="18"/>
+      <c r="M127" s="18"/>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
@@ -4254,19 +4234,19 @@
       <c r="B128" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C128" s="19" t="n">
+      <c r="C128" s="16" t="n">
         <v>1.5</v>
       </c>
-      <c r="D128" s="19"/>
-      <c r="E128" s="19"/>
-      <c r="F128" s="20"/>
-      <c r="G128" s="20"/>
-      <c r="H128" s="20"/>
-      <c r="I128" s="20"/>
-      <c r="J128" s="21"/>
-      <c r="K128" s="21"/>
-      <c r="L128" s="21"/>
-      <c r="M128" s="21"/>
+      <c r="D128" s="16"/>
+      <c r="E128" s="16"/>
+      <c r="F128" s="17"/>
+      <c r="G128" s="17"/>
+      <c r="H128" s="17"/>
+      <c r="I128" s="17"/>
+      <c r="J128" s="18"/>
+      <c r="K128" s="18"/>
+      <c r="L128" s="18"/>
+      <c r="M128" s="18"/>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
@@ -4275,19 +4255,19 @@
       <c r="B129" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C129" s="19"/>
-      <c r="D129" s="19"/>
-      <c r="E129" s="19" t="n">
+      <c r="C129" s="16"/>
+      <c r="D129" s="16"/>
+      <c r="E129" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="F129" s="20"/>
-      <c r="G129" s="20"/>
-      <c r="H129" s="20"/>
-      <c r="I129" s="20"/>
-      <c r="J129" s="21"/>
-      <c r="K129" s="21"/>
-      <c r="L129" s="21"/>
-      <c r="M129" s="21"/>
+      <c r="F129" s="17"/>
+      <c r="G129" s="17"/>
+      <c r="H129" s="17"/>
+      <c r="I129" s="17"/>
+      <c r="J129" s="18"/>
+      <c r="K129" s="18"/>
+      <c r="L129" s="18"/>
+      <c r="M129" s="18"/>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
@@ -4296,19 +4276,19 @@
       <c r="B130" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C130" s="19"/>
-      <c r="D130" s="19"/>
-      <c r="E130" s="19" t="n">
+      <c r="C130" s="16"/>
+      <c r="D130" s="16"/>
+      <c r="E130" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="F130" s="20"/>
-      <c r="G130" s="20"/>
-      <c r="H130" s="20"/>
-      <c r="I130" s="20"/>
-      <c r="J130" s="21"/>
-      <c r="K130" s="21"/>
-      <c r="L130" s="21"/>
-      <c r="M130" s="21"/>
+      <c r="F130" s="17"/>
+      <c r="G130" s="17"/>
+      <c r="H130" s="17"/>
+      <c r="I130" s="17"/>
+      <c r="J130" s="18"/>
+      <c r="K130" s="18"/>
+      <c r="L130" s="18"/>
+      <c r="M130" s="18"/>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
@@ -4317,19 +4297,19 @@
       <c r="B131" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C131" s="19"/>
-      <c r="D131" s="19" t="n">
+      <c r="C131" s="16"/>
+      <c r="D131" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="E131" s="19"/>
-      <c r="F131" s="20"/>
-      <c r="G131" s="20"/>
-      <c r="H131" s="20"/>
-      <c r="I131" s="20"/>
-      <c r="J131" s="21"/>
-      <c r="K131" s="21"/>
-      <c r="L131" s="21"/>
-      <c r="M131" s="21"/>
+      <c r="E131" s="16"/>
+      <c r="F131" s="17"/>
+      <c r="G131" s="17"/>
+      <c r="H131" s="17"/>
+      <c r="I131" s="17"/>
+      <c r="J131" s="18"/>
+      <c r="K131" s="18"/>
+      <c r="L131" s="18"/>
+      <c r="M131" s="18"/>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
@@ -4338,19 +4318,19 @@
       <c r="B132" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C132" s="19"/>
-      <c r="D132" s="19"/>
-      <c r="E132" s="19" t="n">
+      <c r="C132" s="16"/>
+      <c r="D132" s="16"/>
+      <c r="E132" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="F132" s="20"/>
-      <c r="G132" s="20"/>
-      <c r="H132" s="20"/>
-      <c r="I132" s="20"/>
-      <c r="J132" s="21"/>
-      <c r="K132" s="21"/>
-      <c r="L132" s="21"/>
-      <c r="M132" s="21"/>
+      <c r="F132" s="17"/>
+      <c r="G132" s="17"/>
+      <c r="H132" s="17"/>
+      <c r="I132" s="17"/>
+      <c r="J132" s="18"/>
+      <c r="K132" s="18"/>
+      <c r="L132" s="18"/>
+      <c r="M132" s="18"/>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
@@ -4359,19 +4339,19 @@
       <c r="B133" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C133" s="19"/>
-      <c r="D133" s="19"/>
-      <c r="E133" s="19" t="n">
+      <c r="C133" s="16"/>
+      <c r="D133" s="16"/>
+      <c r="E133" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="F133" s="20"/>
-      <c r="G133" s="20"/>
-      <c r="H133" s="20"/>
-      <c r="I133" s="20"/>
-      <c r="J133" s="21"/>
-      <c r="K133" s="21"/>
-      <c r="L133" s="21"/>
-      <c r="M133" s="21"/>
+      <c r="F133" s="17"/>
+      <c r="G133" s="17"/>
+      <c r="H133" s="17"/>
+      <c r="I133" s="17"/>
+      <c r="J133" s="18"/>
+      <c r="K133" s="18"/>
+      <c r="L133" s="18"/>
+      <c r="M133" s="18"/>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
@@ -4380,19 +4360,19 @@
       <c r="B134" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C134" s="19" t="n">
+      <c r="C134" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="D134" s="19"/>
-      <c r="E134" s="19"/>
-      <c r="F134" s="20"/>
-      <c r="G134" s="20"/>
-      <c r="H134" s="20"/>
-      <c r="I134" s="20"/>
-      <c r="J134" s="21"/>
-      <c r="K134" s="21"/>
-      <c r="L134" s="21"/>
-      <c r="M134" s="21"/>
+      <c r="D134" s="16"/>
+      <c r="E134" s="16"/>
+      <c r="F134" s="17"/>
+      <c r="G134" s="17"/>
+      <c r="H134" s="17"/>
+      <c r="I134" s="17"/>
+      <c r="J134" s="18"/>
+      <c r="K134" s="18"/>
+      <c r="L134" s="18"/>
+      <c r="M134" s="18"/>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
@@ -4401,19 +4381,19 @@
       <c r="B135" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C135" s="19"/>
-      <c r="D135" s="19"/>
-      <c r="E135" s="19" t="n">
+      <c r="C135" s="16"/>
+      <c r="D135" s="16"/>
+      <c r="E135" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="F135" s="20"/>
-      <c r="G135" s="20"/>
-      <c r="H135" s="20"/>
-      <c r="I135" s="20"/>
-      <c r="J135" s="21"/>
-      <c r="K135" s="21"/>
-      <c r="L135" s="21"/>
-      <c r="M135" s="21"/>
+      <c r="F135" s="17"/>
+      <c r="G135" s="17"/>
+      <c r="H135" s="17"/>
+      <c r="I135" s="17"/>
+      <c r="J135" s="18"/>
+      <c r="K135" s="18"/>
+      <c r="L135" s="18"/>
+      <c r="M135" s="18"/>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
@@ -4422,19 +4402,19 @@
       <c r="B136" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C136" s="19" t="n">
+      <c r="C136" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="D136" s="19"/>
-      <c r="E136" s="19"/>
-      <c r="F136" s="20"/>
-      <c r="G136" s="20"/>
-      <c r="H136" s="20"/>
-      <c r="I136" s="20"/>
-      <c r="J136" s="21"/>
-      <c r="K136" s="21"/>
-      <c r="L136" s="21"/>
-      <c r="M136" s="21"/>
+      <c r="D136" s="16"/>
+      <c r="E136" s="16"/>
+      <c r="F136" s="17"/>
+      <c r="G136" s="17"/>
+      <c r="H136" s="17"/>
+      <c r="I136" s="17"/>
+      <c r="J136" s="18"/>
+      <c r="K136" s="18"/>
+      <c r="L136" s="18"/>
+      <c r="M136" s="18"/>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
@@ -4443,32 +4423,32 @@
       <c r="B137" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C137" s="19"/>
-      <c r="D137" s="19"/>
-      <c r="E137" s="19" t="n">
+      <c r="C137" s="16"/>
+      <c r="D137" s="16"/>
+      <c r="E137" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="F137" s="20"/>
-      <c r="G137" s="20"/>
-      <c r="H137" s="20"/>
-      <c r="I137" s="20"/>
-      <c r="J137" s="21"/>
-      <c r="K137" s="21"/>
-      <c r="L137" s="21"/>
-      <c r="M137" s="21"/>
+      <c r="F137" s="17"/>
+      <c r="G137" s="17"/>
+      <c r="H137" s="17"/>
+      <c r="I137" s="17"/>
+      <c r="J137" s="18"/>
+      <c r="K137" s="18"/>
+      <c r="L137" s="18"/>
+      <c r="M137" s="18"/>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C138" s="19"/>
-      <c r="D138" s="19"/>
-      <c r="E138" s="19"/>
-      <c r="F138" s="20"/>
-      <c r="G138" s="20"/>
-      <c r="H138" s="20"/>
-      <c r="I138" s="20"/>
-      <c r="J138" s="21"/>
-      <c r="K138" s="21"/>
-      <c r="L138" s="21"/>
-      <c r="M138" s="21"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="16"/>
+      <c r="E138" s="16"/>
+      <c r="F138" s="17"/>
+      <c r="G138" s="17"/>
+      <c r="H138" s="17"/>
+      <c r="I138" s="17"/>
+      <c r="J138" s="18"/>
+      <c r="K138" s="18"/>
+      <c r="L138" s="18"/>
+      <c r="M138" s="18"/>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
@@ -4477,19 +4457,19 @@
       <c r="B139" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C139" s="19"/>
-      <c r="D139" s="19" t="n">
+      <c r="C139" s="16"/>
+      <c r="D139" s="16" t="n">
         <v>2.5</v>
       </c>
-      <c r="E139" s="19"/>
-      <c r="F139" s="20"/>
-      <c r="G139" s="20"/>
-      <c r="H139" s="20"/>
-      <c r="I139" s="20"/>
-      <c r="J139" s="21"/>
-      <c r="K139" s="21"/>
-      <c r="L139" s="21"/>
-      <c r="M139" s="21"/>
+      <c r="E139" s="16"/>
+      <c r="F139" s="17"/>
+      <c r="G139" s="17"/>
+      <c r="H139" s="17"/>
+      <c r="I139" s="17"/>
+      <c r="J139" s="18"/>
+      <c r="K139" s="18"/>
+      <c r="L139" s="18"/>
+      <c r="M139" s="18"/>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="n">
@@ -4498,19 +4478,19 @@
       <c r="B140" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C140" s="19" t="n">
+      <c r="C140" s="16" t="n">
         <v>1.5</v>
       </c>
-      <c r="D140" s="19"/>
-      <c r="E140" s="19"/>
-      <c r="F140" s="20"/>
-      <c r="G140" s="20"/>
-      <c r="H140" s="20"/>
-      <c r="I140" s="20"/>
-      <c r="J140" s="21"/>
-      <c r="K140" s="21"/>
-      <c r="L140" s="21"/>
-      <c r="M140" s="21"/>
+      <c r="D140" s="16"/>
+      <c r="E140" s="16"/>
+      <c r="F140" s="17"/>
+      <c r="G140" s="17"/>
+      <c r="H140" s="17"/>
+      <c r="I140" s="17"/>
+      <c r="J140" s="18"/>
+      <c r="K140" s="18"/>
+      <c r="L140" s="18"/>
+      <c r="M140" s="18"/>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="n">
@@ -4519,19 +4499,19 @@
       <c r="B141" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C141" s="19"/>
-      <c r="D141" s="19"/>
-      <c r="E141" s="19" t="n">
+      <c r="C141" s="16"/>
+      <c r="D141" s="16"/>
+      <c r="E141" s="16" t="n">
         <v>4.5</v>
       </c>
-      <c r="F141" s="20"/>
-      <c r="G141" s="20"/>
-      <c r="H141" s="20"/>
-      <c r="I141" s="20"/>
-      <c r="J141" s="21"/>
-      <c r="K141" s="21"/>
-      <c r="L141" s="21"/>
-      <c r="M141" s="21"/>
+      <c r="F141" s="17"/>
+      <c r="G141" s="17"/>
+      <c r="H141" s="17"/>
+      <c r="I141" s="17"/>
+      <c r="J141" s="18"/>
+      <c r="K141" s="18"/>
+      <c r="L141" s="18"/>
+      <c r="M141" s="18"/>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
@@ -4540,19 +4520,19 @@
       <c r="B142" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C142" s="19"/>
-      <c r="D142" s="19"/>
-      <c r="E142" s="19" t="n">
+      <c r="C142" s="16"/>
+      <c r="D142" s="16"/>
+      <c r="E142" s="16" t="n">
         <v>9</v>
       </c>
-      <c r="F142" s="20"/>
-      <c r="G142" s="20"/>
-      <c r="H142" s="20"/>
-      <c r="I142" s="20"/>
-      <c r="J142" s="21"/>
-      <c r="K142" s="21"/>
-      <c r="L142" s="21"/>
-      <c r="M142" s="21"/>
+      <c r="F142" s="17"/>
+      <c r="G142" s="17"/>
+      <c r="H142" s="17"/>
+      <c r="I142" s="17"/>
+      <c r="J142" s="18"/>
+      <c r="K142" s="18"/>
+      <c r="L142" s="18"/>
+      <c r="M142" s="18"/>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="n">
@@ -4561,19 +4541,19 @@
       <c r="B143" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C143" s="19"/>
-      <c r="D143" s="19" t="n">
+      <c r="C143" s="16"/>
+      <c r="D143" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="E143" s="19"/>
-      <c r="F143" s="20"/>
-      <c r="G143" s="20"/>
-      <c r="H143" s="20"/>
-      <c r="I143" s="20"/>
-      <c r="J143" s="21"/>
-      <c r="K143" s="21"/>
-      <c r="L143" s="21"/>
-      <c r="M143" s="21"/>
+      <c r="E143" s="16"/>
+      <c r="F143" s="17"/>
+      <c r="G143" s="17"/>
+      <c r="H143" s="17"/>
+      <c r="I143" s="17"/>
+      <c r="J143" s="18"/>
+      <c r="K143" s="18"/>
+      <c r="L143" s="18"/>
+      <c r="M143" s="18"/>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="n">
@@ -4582,19 +4562,19 @@
       <c r="B144" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C144" s="19"/>
-      <c r="D144" s="19"/>
-      <c r="E144" s="19" t="n">
+      <c r="C144" s="16"/>
+      <c r="D144" s="16"/>
+      <c r="E144" s="16" t="n">
         <v>0.5</v>
       </c>
-      <c r="F144" s="20"/>
-      <c r="G144" s="20"/>
-      <c r="H144" s="20"/>
-      <c r="I144" s="20"/>
-      <c r="J144" s="21"/>
-      <c r="K144" s="21"/>
-      <c r="L144" s="21"/>
-      <c r="M144" s="21"/>
+      <c r="F144" s="17"/>
+      <c r="G144" s="17"/>
+      <c r="H144" s="17"/>
+      <c r="I144" s="17"/>
+      <c r="J144" s="18"/>
+      <c r="K144" s="18"/>
+      <c r="L144" s="18"/>
+      <c r="M144" s="18"/>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="n">
@@ -4603,19 +4583,19 @@
       <c r="B145" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C145" s="19" t="n">
+      <c r="C145" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="D145" s="19"/>
-      <c r="E145" s="19"/>
-      <c r="F145" s="20"/>
-      <c r="G145" s="20"/>
-      <c r="H145" s="20"/>
-      <c r="I145" s="20"/>
-      <c r="J145" s="21"/>
-      <c r="K145" s="21"/>
-      <c r="L145" s="21"/>
-      <c r="M145" s="21"/>
+      <c r="D145" s="16"/>
+      <c r="E145" s="16"/>
+      <c r="F145" s="17"/>
+      <c r="G145" s="17"/>
+      <c r="H145" s="17"/>
+      <c r="I145" s="17"/>
+      <c r="J145" s="18"/>
+      <c r="K145" s="18"/>
+      <c r="L145" s="18"/>
+      <c r="M145" s="18"/>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="n">
@@ -4624,19 +4604,19 @@
       <c r="B146" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C146" s="19"/>
-      <c r="D146" s="19"/>
-      <c r="E146" s="19" t="n">
+      <c r="C146" s="16"/>
+      <c r="D146" s="16"/>
+      <c r="E146" s="16" t="n">
         <v>4.5</v>
       </c>
-      <c r="F146" s="20"/>
-      <c r="G146" s="20"/>
-      <c r="H146" s="20"/>
-      <c r="I146" s="20"/>
-      <c r="J146" s="21"/>
-      <c r="K146" s="21"/>
-      <c r="L146" s="21"/>
-      <c r="M146" s="21"/>
+      <c r="F146" s="17"/>
+      <c r="G146" s="17"/>
+      <c r="H146" s="17"/>
+      <c r="I146" s="17"/>
+      <c r="J146" s="18"/>
+      <c r="K146" s="18"/>
+      <c r="L146" s="18"/>
+      <c r="M146" s="18"/>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="n">
@@ -4645,19 +4625,19 @@
       <c r="B147" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C147" s="19"/>
-      <c r="D147" s="19" t="n">
+      <c r="C147" s="16"/>
+      <c r="D147" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="E147" s="19"/>
-      <c r="F147" s="20"/>
-      <c r="G147" s="20"/>
-      <c r="H147" s="20"/>
-      <c r="I147" s="20"/>
-      <c r="J147" s="21"/>
-      <c r="K147" s="21"/>
-      <c r="L147" s="21"/>
-      <c r="M147" s="21"/>
+      <c r="E147" s="16"/>
+      <c r="F147" s="17"/>
+      <c r="G147" s="17"/>
+      <c r="H147" s="17"/>
+      <c r="I147" s="17"/>
+      <c r="J147" s="18"/>
+      <c r="K147" s="18"/>
+      <c r="L147" s="18"/>
+      <c r="M147" s="18"/>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="n">
@@ -4666,19 +4646,19 @@
       <c r="B148" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C148" s="19" t="n">
+      <c r="C148" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="D148" s="19"/>
-      <c r="E148" s="19"/>
-      <c r="F148" s="20"/>
-      <c r="G148" s="20"/>
-      <c r="H148" s="20"/>
-      <c r="I148" s="20"/>
-      <c r="J148" s="21"/>
-      <c r="K148" s="21"/>
-      <c r="L148" s="21"/>
-      <c r="M148" s="21"/>
+      <c r="D148" s="16"/>
+      <c r="E148" s="16"/>
+      <c r="F148" s="17"/>
+      <c r="G148" s="17"/>
+      <c r="H148" s="17"/>
+      <c r="I148" s="17"/>
+      <c r="J148" s="18"/>
+      <c r="K148" s="18"/>
+      <c r="L148" s="18"/>
+      <c r="M148" s="18"/>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="n">
@@ -4687,32 +4667,32 @@
       <c r="B149" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C149" s="19"/>
-      <c r="D149" s="19"/>
-      <c r="E149" s="19" t="n">
+      <c r="C149" s="16"/>
+      <c r="D149" s="16"/>
+      <c r="E149" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="F149" s="20"/>
-      <c r="G149" s="20"/>
-      <c r="H149" s="20"/>
-      <c r="I149" s="20"/>
-      <c r="J149" s="21"/>
-      <c r="K149" s="21"/>
-      <c r="L149" s="21"/>
-      <c r="M149" s="21"/>
+      <c r="F149" s="17"/>
+      <c r="G149" s="17"/>
+      <c r="H149" s="17"/>
+      <c r="I149" s="17"/>
+      <c r="J149" s="18"/>
+      <c r="K149" s="18"/>
+      <c r="L149" s="18"/>
+      <c r="M149" s="18"/>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C150" s="19"/>
-      <c r="D150" s="19"/>
-      <c r="E150" s="19"/>
-      <c r="F150" s="20"/>
-      <c r="G150" s="20"/>
-      <c r="H150" s="20"/>
-      <c r="I150" s="20"/>
-      <c r="J150" s="21"/>
-      <c r="K150" s="21"/>
-      <c r="L150" s="21"/>
-      <c r="M150" s="21"/>
+      <c r="C150" s="16"/>
+      <c r="D150" s="16"/>
+      <c r="E150" s="16"/>
+      <c r="F150" s="17"/>
+      <c r="G150" s="17"/>
+      <c r="H150" s="17"/>
+      <c r="I150" s="17"/>
+      <c r="J150" s="18"/>
+      <c r="K150" s="18"/>
+      <c r="L150" s="18"/>
+      <c r="M150" s="18"/>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="n">
@@ -4721,19 +4701,19 @@
       <c r="B151" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C151" s="19"/>
-      <c r="D151" s="19" t="n">
+      <c r="C151" s="16"/>
+      <c r="D151" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="E151" s="19"/>
-      <c r="F151" s="20"/>
-      <c r="G151" s="20"/>
-      <c r="H151" s="20"/>
-      <c r="I151" s="20"/>
-      <c r="J151" s="21"/>
-      <c r="K151" s="21"/>
-      <c r="L151" s="21"/>
-      <c r="M151" s="21"/>
+      <c r="E151" s="16"/>
+      <c r="F151" s="17"/>
+      <c r="G151" s="17"/>
+      <c r="H151" s="17"/>
+      <c r="I151" s="17"/>
+      <c r="J151" s="18"/>
+      <c r="K151" s="18"/>
+      <c r="L151" s="18"/>
+      <c r="M151" s="18"/>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="n">
@@ -4742,61 +4722,61 @@
       <c r="B152" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C152" s="19" t="n">
+      <c r="C152" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="D152" s="19"/>
-      <c r="E152" s="19"/>
-      <c r="F152" s="20"/>
-      <c r="G152" s="20"/>
-      <c r="H152" s="20"/>
-      <c r="I152" s="20"/>
-      <c r="J152" s="21"/>
-      <c r="K152" s="21"/>
-      <c r="L152" s="21"/>
-      <c r="M152" s="21"/>
+      <c r="D152" s="16"/>
+      <c r="E152" s="16"/>
+      <c r="F152" s="17"/>
+      <c r="G152" s="17"/>
+      <c r="H152" s="17"/>
+      <c r="I152" s="17"/>
+      <c r="J152" s="18"/>
+      <c r="K152" s="18"/>
+      <c r="L152" s="18"/>
+      <c r="M152" s="18"/>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C153" s="19"/>
-      <c r="D153" s="19"/>
-      <c r="E153" s="19"/>
-      <c r="F153" s="20"/>
-      <c r="G153" s="20"/>
-      <c r="H153" s="20"/>
-      <c r="I153" s="20"/>
-      <c r="J153" s="21"/>
-      <c r="K153" s="21"/>
-      <c r="L153" s="21"/>
-      <c r="M153" s="21"/>
+      <c r="C153" s="16"/>
+      <c r="D153" s="16"/>
+      <c r="E153" s="16"/>
+      <c r="F153" s="17"/>
+      <c r="G153" s="17"/>
+      <c r="H153" s="17"/>
+      <c r="I153" s="17"/>
+      <c r="J153" s="18"/>
+      <c r="K153" s="18"/>
+      <c r="L153" s="18"/>
+      <c r="M153" s="18"/>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B154" s="23" t="s">
+      <c r="B154" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C154" s="19"/>
-      <c r="D154" s="19"/>
-      <c r="E154" s="19"/>
-      <c r="F154" s="20"/>
-      <c r="G154" s="20"/>
-      <c r="H154" s="20"/>
-      <c r="I154" s="20"/>
-      <c r="J154" s="21"/>
-      <c r="K154" s="21"/>
-      <c r="L154" s="21"/>
-      <c r="M154" s="21"/>
+      <c r="C154" s="16"/>
+      <c r="D154" s="16"/>
+      <c r="E154" s="16"/>
+      <c r="F154" s="17"/>
+      <c r="G154" s="17"/>
+      <c r="H154" s="17"/>
+      <c r="I154" s="17"/>
+      <c r="J154" s="18"/>
+      <c r="K154" s="18"/>
+      <c r="L154" s="18"/>
+      <c r="M154" s="18"/>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C155" s="19"/>
-      <c r="D155" s="19"/>
-      <c r="E155" s="19"/>
-      <c r="F155" s="20"/>
-      <c r="G155" s="20"/>
-      <c r="H155" s="20"/>
-      <c r="I155" s="20"/>
-      <c r="J155" s="21"/>
-      <c r="K155" s="21"/>
-      <c r="L155" s="21"/>
-      <c r="M155" s="21"/>
+      <c r="C155" s="16"/>
+      <c r="D155" s="16"/>
+      <c r="E155" s="16"/>
+      <c r="F155" s="17"/>
+      <c r="G155" s="17"/>
+      <c r="H155" s="17"/>
+      <c r="I155" s="17"/>
+      <c r="J155" s="18"/>
+      <c r="K155" s="18"/>
+      <c r="L155" s="18"/>
+      <c r="M155" s="18"/>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="n">
@@ -4805,19 +4785,19 @@
       <c r="B156" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C156" s="19"/>
-      <c r="D156" s="19" t="n">
+      <c r="C156" s="16"/>
+      <c r="D156" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="E156" s="19"/>
-      <c r="F156" s="20"/>
-      <c r="G156" s="20"/>
-      <c r="H156" s="20"/>
-      <c r="I156" s="20"/>
-      <c r="J156" s="21"/>
-      <c r="K156" s="21"/>
-      <c r="L156" s="21"/>
-      <c r="M156" s="21"/>
+      <c r="E156" s="16"/>
+      <c r="F156" s="17"/>
+      <c r="G156" s="17"/>
+      <c r="H156" s="17"/>
+      <c r="I156" s="17"/>
+      <c r="J156" s="18"/>
+      <c r="K156" s="18"/>
+      <c r="L156" s="18"/>
+      <c r="M156" s="18"/>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="n">
@@ -4826,19 +4806,19 @@
       <c r="B157" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C157" s="19"/>
-      <c r="D157" s="19" t="n">
+      <c r="C157" s="16"/>
+      <c r="D157" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="E157" s="19"/>
-      <c r="F157" s="20"/>
-      <c r="G157" s="20"/>
-      <c r="H157" s="20"/>
-      <c r="I157" s="20"/>
-      <c r="J157" s="21"/>
-      <c r="K157" s="21"/>
-      <c r="L157" s="21"/>
-      <c r="M157" s="21"/>
+      <c r="E157" s="16"/>
+      <c r="F157" s="17"/>
+      <c r="G157" s="17"/>
+      <c r="H157" s="17"/>
+      <c r="I157" s="17"/>
+      <c r="J157" s="18"/>
+      <c r="K157" s="18"/>
+      <c r="L157" s="18"/>
+      <c r="M157" s="18"/>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="n">
@@ -4847,19 +4827,19 @@
       <c r="B158" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C158" s="19"/>
-      <c r="D158" s="19"/>
-      <c r="E158" s="19" t="n">
+      <c r="C158" s="16"/>
+      <c r="D158" s="16"/>
+      <c r="E158" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="F158" s="20"/>
-      <c r="G158" s="20"/>
-      <c r="H158" s="20"/>
-      <c r="I158" s="20"/>
-      <c r="J158" s="21"/>
-      <c r="K158" s="21"/>
-      <c r="L158" s="21"/>
-      <c r="M158" s="21"/>
+      <c r="F158" s="17"/>
+      <c r="G158" s="17"/>
+      <c r="H158" s="17"/>
+      <c r="I158" s="17"/>
+      <c r="J158" s="18"/>
+      <c r="K158" s="18"/>
+      <c r="L158" s="18"/>
+      <c r="M158" s="18"/>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="n">
@@ -4868,19 +4848,19 @@
       <c r="B159" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C159" s="19"/>
-      <c r="D159" s="19" t="n">
+      <c r="C159" s="16"/>
+      <c r="D159" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="E159" s="19"/>
-      <c r="F159" s="20"/>
-      <c r="G159" s="20"/>
-      <c r="H159" s="20"/>
-      <c r="I159" s="20"/>
-      <c r="J159" s="21"/>
-      <c r="K159" s="21"/>
-      <c r="L159" s="21"/>
-      <c r="M159" s="21"/>
+      <c r="E159" s="16"/>
+      <c r="F159" s="17"/>
+      <c r="G159" s="17"/>
+      <c r="H159" s="17"/>
+      <c r="I159" s="17"/>
+      <c r="J159" s="18"/>
+      <c r="K159" s="18"/>
+      <c r="L159" s="18"/>
+      <c r="M159" s="18"/>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="n">
@@ -4889,19 +4869,19 @@
       <c r="B160" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C160" s="19"/>
-      <c r="D160" s="19" t="n">
+      <c r="C160" s="16"/>
+      <c r="D160" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="E160" s="19"/>
-      <c r="F160" s="20"/>
-      <c r="G160" s="20"/>
-      <c r="H160" s="20"/>
-      <c r="I160" s="20"/>
-      <c r="J160" s="21"/>
-      <c r="K160" s="21"/>
-      <c r="L160" s="21"/>
-      <c r="M160" s="21"/>
+      <c r="E160" s="16"/>
+      <c r="F160" s="17"/>
+      <c r="G160" s="17"/>
+      <c r="H160" s="17"/>
+      <c r="I160" s="17"/>
+      <c r="J160" s="18"/>
+      <c r="K160" s="18"/>
+      <c r="L160" s="18"/>
+      <c r="M160" s="18"/>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="n">
@@ -4910,32 +4890,32 @@
       <c r="B161" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C161" s="19"/>
-      <c r="D161" s="19"/>
-      <c r="E161" s="19" t="n">
+      <c r="C161" s="16"/>
+      <c r="D161" s="16"/>
+      <c r="E161" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="F161" s="20"/>
-      <c r="G161" s="20"/>
-      <c r="H161" s="20"/>
-      <c r="I161" s="20"/>
-      <c r="J161" s="21"/>
-      <c r="K161" s="21"/>
-      <c r="L161" s="21"/>
-      <c r="M161" s="21"/>
+      <c r="F161" s="17"/>
+      <c r="G161" s="17"/>
+      <c r="H161" s="17"/>
+      <c r="I161" s="17"/>
+      <c r="J161" s="18"/>
+      <c r="K161" s="18"/>
+      <c r="L161" s="18"/>
+      <c r="M161" s="18"/>
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C162" s="19"/>
-      <c r="D162" s="19"/>
-      <c r="E162" s="19"/>
-      <c r="F162" s="20"/>
-      <c r="G162" s="20"/>
-      <c r="H162" s="20"/>
-      <c r="I162" s="20"/>
-      <c r="J162" s="21"/>
-      <c r="K162" s="21"/>
-      <c r="L162" s="21"/>
-      <c r="M162" s="21"/>
+      <c r="C162" s="16"/>
+      <c r="D162" s="16"/>
+      <c r="E162" s="16"/>
+      <c r="F162" s="17"/>
+      <c r="G162" s="17"/>
+      <c r="H162" s="17"/>
+      <c r="I162" s="17"/>
+      <c r="J162" s="18"/>
+      <c r="K162" s="18"/>
+      <c r="L162" s="18"/>
+      <c r="M162" s="18"/>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="n">
@@ -4944,681 +4924,709 @@
       <c r="B163" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C163" s="19"/>
-      <c r="D163" s="19" t="n">
+      <c r="C163" s="16"/>
+      <c r="D163" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="E163" s="19"/>
-      <c r="F163" s="20"/>
-      <c r="G163" s="20"/>
-      <c r="H163" s="20"/>
-      <c r="I163" s="20"/>
-      <c r="J163" s="21"/>
-      <c r="K163" s="21"/>
-      <c r="L163" s="21"/>
-      <c r="M163" s="21"/>
+      <c r="E163" s="16"/>
+      <c r="F163" s="17"/>
+      <c r="G163" s="17"/>
+      <c r="H163" s="17"/>
+      <c r="I163" s="17"/>
+      <c r="J163" s="18"/>
+      <c r="K163" s="18"/>
+      <c r="L163" s="18"/>
+      <c r="M163" s="18"/>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="n">
         <v>45943</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C164" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="D164" s="19"/>
-      <c r="E164" s="19"/>
-      <c r="F164" s="20"/>
-      <c r="G164" s="20"/>
-      <c r="H164" s="20"/>
-      <c r="I164" s="20"/>
-      <c r="J164" s="21"/>
-      <c r="K164" s="21"/>
-      <c r="L164" s="21"/>
-      <c r="M164" s="21"/>
+        <v>56</v>
+      </c>
+      <c r="C164" s="16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D164" s="16"/>
+      <c r="E164" s="16"/>
+      <c r="F164" s="17"/>
+      <c r="G164" s="17"/>
+      <c r="H164" s="17"/>
+      <c r="I164" s="17"/>
+      <c r="J164" s="18"/>
+      <c r="K164" s="18"/>
+      <c r="L164" s="18"/>
+      <c r="M164" s="18"/>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="n">
         <v>45943</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C165" s="19"/>
-      <c r="D165" s="19"/>
-      <c r="E165" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C165" s="16"/>
+      <c r="D165" s="16"/>
+      <c r="E165" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="F165" s="20"/>
-      <c r="G165" s="20"/>
-      <c r="H165" s="20"/>
-      <c r="I165" s="20"/>
-      <c r="J165" s="21"/>
-      <c r="K165" s="21"/>
-      <c r="L165" s="21"/>
-      <c r="M165" s="21"/>
+      <c r="F165" s="17"/>
+      <c r="G165" s="17"/>
+      <c r="H165" s="17"/>
+      <c r="I165" s="17"/>
+      <c r="J165" s="18"/>
+      <c r="K165" s="18"/>
+      <c r="L165" s="18"/>
+      <c r="M165" s="18"/>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="n">
         <v>45943</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C166" s="19"/>
-      <c r="D166" s="19"/>
-      <c r="E166" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C166" s="16"/>
+      <c r="D166" s="16"/>
+      <c r="E166" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="F166" s="20"/>
-      <c r="G166" s="20"/>
-      <c r="H166" s="20"/>
-      <c r="I166" s="20"/>
-      <c r="J166" s="21"/>
-      <c r="K166" s="21"/>
-      <c r="L166" s="21"/>
-      <c r="M166" s="21"/>
+      <c r="F166" s="17"/>
+      <c r="G166" s="17"/>
+      <c r="H166" s="17"/>
+      <c r="I166" s="17"/>
+      <c r="J166" s="18"/>
+      <c r="K166" s="18"/>
+      <c r="L166" s="18"/>
+      <c r="M166" s="18"/>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C167" s="19"/>
-      <c r="D167" s="19"/>
-      <c r="E167" s="19"/>
-      <c r="F167" s="20"/>
-      <c r="G167" s="20"/>
-      <c r="H167" s="20"/>
-      <c r="I167" s="20"/>
-      <c r="J167" s="21"/>
-      <c r="K167" s="21"/>
-      <c r="L167" s="21"/>
-      <c r="M167" s="21"/>
+      <c r="C167" s="16"/>
+      <c r="D167" s="16"/>
+      <c r="E167" s="16"/>
+      <c r="F167" s="17"/>
+      <c r="G167" s="17"/>
+      <c r="H167" s="17"/>
+      <c r="I167" s="17"/>
+      <c r="J167" s="18"/>
+      <c r="K167" s="18"/>
+      <c r="L167" s="18"/>
+      <c r="M167" s="18"/>
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="n">
         <v>45945</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C168" s="19"/>
-      <c r="D168" s="19"/>
-      <c r="E168" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C168" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="F168" s="20"/>
-      <c r="G168" s="20"/>
-      <c r="H168" s="20"/>
-      <c r="I168" s="20"/>
-      <c r="J168" s="21"/>
-      <c r="K168" s="21"/>
-      <c r="L168" s="21"/>
-      <c r="M168" s="21"/>
+      <c r="D168" s="16"/>
+      <c r="E168" s="16"/>
+      <c r="F168" s="17"/>
+      <c r="G168" s="17"/>
+      <c r="H168" s="17"/>
+      <c r="I168" s="17"/>
+      <c r="J168" s="18"/>
+      <c r="K168" s="18"/>
+      <c r="L168" s="18"/>
+      <c r="M168" s="18"/>
+      <c r="XEY168" s="0"/>
+      <c r="XEZ168" s="0"/>
+      <c r="XFA168" s="0"/>
+      <c r="XFB168" s="0"/>
+      <c r="XFC168" s="0"/>
+      <c r="XFD168" s="0"/>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="n">
         <v>45945</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C169" s="16"/>
+      <c r="D169" s="16"/>
+      <c r="E169" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F169" s="17"/>
+      <c r="G169" s="17"/>
+      <c r="H169" s="17"/>
+      <c r="I169" s="17"/>
+      <c r="J169" s="18"/>
+      <c r="K169" s="18"/>
+      <c r="L169" s="18"/>
+      <c r="M169" s="18"/>
+    </row>
+    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C169" s="19"/>
-      <c r="D169" s="19"/>
-      <c r="E169" s="19" t="s">
+      <c r="C170" s="16"/>
+      <c r="D170" s="16"/>
+      <c r="E170" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="F169" s="20"/>
-      <c r="G169" s="20"/>
-      <c r="H169" s="20"/>
-      <c r="I169" s="20"/>
-      <c r="J169" s="21"/>
-      <c r="K169" s="21"/>
-      <c r="L169" s="21"/>
-      <c r="M169" s="21"/>
-    </row>
-    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C170" s="19"/>
-      <c r="D170" s="19"/>
-      <c r="E170" s="19"/>
-      <c r="F170" s="20"/>
-      <c r="G170" s="20"/>
-      <c r="H170" s="20"/>
-      <c r="I170" s="20"/>
-      <c r="J170" s="21"/>
-      <c r="K170" s="21"/>
-      <c r="L170" s="21"/>
-      <c r="M170" s="21"/>
+      <c r="F170" s="17"/>
+      <c r="G170" s="17"/>
+      <c r="H170" s="17"/>
+      <c r="I170" s="17"/>
+      <c r="J170" s="18"/>
+      <c r="K170" s="18"/>
+      <c r="L170" s="18"/>
+      <c r="M170" s="18"/>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C171" s="19"/>
-      <c r="D171" s="19"/>
-      <c r="E171" s="19"/>
-      <c r="F171" s="20"/>
-      <c r="G171" s="20"/>
-      <c r="H171" s="20"/>
-      <c r="I171" s="20"/>
-      <c r="J171" s="21"/>
-      <c r="K171" s="21"/>
-      <c r="L171" s="21"/>
-      <c r="M171" s="21"/>
+      <c r="C171" s="16"/>
+      <c r="D171" s="16"/>
+      <c r="E171" s="16"/>
+      <c r="F171" s="17"/>
+      <c r="G171" s="17"/>
+      <c r="H171" s="17"/>
+      <c r="I171" s="17"/>
+      <c r="J171" s="18"/>
+      <c r="K171" s="18"/>
+      <c r="L171" s="18"/>
+      <c r="M171" s="18"/>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C172" s="19"/>
-      <c r="D172" s="19"/>
-      <c r="E172" s="19"/>
-      <c r="F172" s="20"/>
-      <c r="G172" s="20"/>
-      <c r="H172" s="20"/>
-      <c r="I172" s="20"/>
-      <c r="J172" s="21"/>
-      <c r="K172" s="21"/>
-      <c r="L172" s="21"/>
-      <c r="M172" s="21"/>
+      <c r="C172" s="16"/>
+      <c r="D172" s="16"/>
+      <c r="E172" s="16"/>
+      <c r="F172" s="17"/>
+      <c r="G172" s="17"/>
+      <c r="H172" s="17"/>
+      <c r="I172" s="17"/>
+      <c r="J172" s="18"/>
+      <c r="K172" s="18"/>
+      <c r="L172" s="18"/>
+      <c r="M172" s="18"/>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B173" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C173" s="19"/>
-      <c r="D173" s="19"/>
-      <c r="E173" s="19"/>
-      <c r="F173" s="20"/>
-      <c r="G173" s="20"/>
-      <c r="H173" s="20"/>
-      <c r="I173" s="20"/>
-      <c r="J173" s="21"/>
-      <c r="K173" s="21"/>
-      <c r="L173" s="21"/>
-      <c r="M173" s="21"/>
+      <c r="C173" s="16"/>
+      <c r="D173" s="16"/>
+      <c r="E173" s="16"/>
+      <c r="F173" s="17"/>
+      <c r="G173" s="17"/>
+      <c r="H173" s="17"/>
+      <c r="I173" s="17"/>
+      <c r="J173" s="18"/>
+      <c r="K173" s="18"/>
+      <c r="L173" s="18"/>
+      <c r="M173" s="18"/>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B174" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C174" s="19"/>
-      <c r="D174" s="19"/>
-      <c r="E174" s="19"/>
-      <c r="F174" s="20"/>
-      <c r="G174" s="20"/>
-      <c r="H174" s="20"/>
-      <c r="I174" s="20"/>
-      <c r="J174" s="21"/>
-      <c r="K174" s="21"/>
-      <c r="L174" s="21"/>
-      <c r="M174" s="21"/>
+        <v>132</v>
+      </c>
+      <c r="C174" s="16"/>
+      <c r="D174" s="16"/>
+      <c r="E174" s="16"/>
+      <c r="F174" s="17"/>
+      <c r="G174" s="17"/>
+      <c r="H174" s="17"/>
+      <c r="I174" s="17"/>
+      <c r="J174" s="18"/>
+      <c r="K174" s="18"/>
+      <c r="L174" s="18"/>
+      <c r="M174" s="18"/>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B175" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C175" s="16"/>
+      <c r="D175" s="16"/>
+      <c r="E175" s="16"/>
+      <c r="F175" s="17"/>
+      <c r="G175" s="17"/>
+      <c r="H175" s="17"/>
+      <c r="I175" s="17"/>
+      <c r="J175" s="18"/>
+      <c r="K175" s="18"/>
+      <c r="L175" s="18"/>
+      <c r="M175" s="18"/>
+    </row>
+    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B176" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C175" s="19"/>
-      <c r="D175" s="19"/>
-      <c r="E175" s="19"/>
-      <c r="F175" s="20"/>
-      <c r="G175" s="20"/>
-      <c r="H175" s="20"/>
-      <c r="I175" s="20"/>
-      <c r="J175" s="21"/>
-      <c r="K175" s="21"/>
-      <c r="L175" s="21"/>
-      <c r="M175" s="21"/>
-    </row>
-    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C176" s="19"/>
-      <c r="D176" s="19"/>
-      <c r="E176" s="19"/>
-      <c r="F176" s="20"/>
-      <c r="G176" s="20"/>
-      <c r="H176" s="20"/>
-      <c r="I176" s="20"/>
-      <c r="J176" s="21"/>
-      <c r="K176" s="21"/>
-      <c r="L176" s="21"/>
-      <c r="M176" s="21"/>
+      <c r="C176" s="16"/>
+      <c r="D176" s="16"/>
+      <c r="E176" s="16"/>
+      <c r="F176" s="17"/>
+      <c r="G176" s="17"/>
+      <c r="H176" s="17"/>
+      <c r="I176" s="17"/>
+      <c r="J176" s="18"/>
+      <c r="K176" s="18"/>
+      <c r="L176" s="18"/>
+      <c r="M176" s="18"/>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C177" s="19"/>
-      <c r="D177" s="19"/>
-      <c r="E177" s="19"/>
-      <c r="F177" s="20"/>
-      <c r="G177" s="20"/>
-      <c r="H177" s="20"/>
-      <c r="I177" s="20"/>
-      <c r="J177" s="21"/>
-      <c r="K177" s="21"/>
-      <c r="L177" s="21"/>
-      <c r="M177" s="21"/>
+      <c r="C177" s="16"/>
+      <c r="D177" s="16"/>
+      <c r="E177" s="16"/>
+      <c r="F177" s="17"/>
+      <c r="G177" s="17"/>
+      <c r="H177" s="17"/>
+      <c r="I177" s="17"/>
+      <c r="J177" s="18"/>
+      <c r="K177" s="18"/>
+      <c r="L177" s="18"/>
+      <c r="M177" s="18"/>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C178" s="19"/>
-      <c r="D178" s="19"/>
-      <c r="E178" s="19"/>
-      <c r="F178" s="20"/>
-      <c r="G178" s="20"/>
-      <c r="H178" s="20"/>
-      <c r="I178" s="20"/>
-      <c r="J178" s="21"/>
-      <c r="K178" s="21"/>
-      <c r="L178" s="21"/>
-      <c r="M178" s="21"/>
+      <c r="C178" s="16"/>
+      <c r="D178" s="16"/>
+      <c r="E178" s="16"/>
+      <c r="F178" s="17"/>
+      <c r="G178" s="17"/>
+      <c r="H178" s="17"/>
+      <c r="I178" s="17"/>
+      <c r="J178" s="18"/>
+      <c r="K178" s="18"/>
+      <c r="L178" s="18"/>
+      <c r="M178" s="18"/>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C179" s="19"/>
-      <c r="D179" s="19"/>
-      <c r="E179" s="19"/>
-      <c r="F179" s="20"/>
-      <c r="G179" s="20"/>
-      <c r="H179" s="20"/>
-      <c r="I179" s="20"/>
-      <c r="J179" s="21"/>
-      <c r="K179" s="21"/>
-      <c r="L179" s="21"/>
-      <c r="M179" s="21"/>
+      <c r="C179" s="16"/>
+      <c r="D179" s="16"/>
+      <c r="E179" s="16"/>
+      <c r="F179" s="17"/>
+      <c r="G179" s="17"/>
+      <c r="H179" s="17"/>
+      <c r="I179" s="17"/>
+      <c r="J179" s="18"/>
+      <c r="K179" s="18"/>
+      <c r="L179" s="18"/>
+      <c r="M179" s="18"/>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B180" s="0"/>
-      <c r="C180" s="19"/>
-      <c r="D180" s="19"/>
-      <c r="E180" s="19"/>
-      <c r="F180" s="20"/>
-      <c r="G180" s="20"/>
-      <c r="H180" s="20"/>
-      <c r="I180" s="20"/>
-      <c r="J180" s="21"/>
-      <c r="K180" s="21"/>
-      <c r="L180" s="21"/>
-      <c r="M180" s="21"/>
+      <c r="C180" s="16"/>
+      <c r="D180" s="16"/>
+      <c r="E180" s="16"/>
+      <c r="F180" s="17"/>
+      <c r="G180" s="17"/>
+      <c r="H180" s="17"/>
+      <c r="I180" s="17"/>
+      <c r="J180" s="18"/>
+      <c r="K180" s="18"/>
+      <c r="L180" s="18"/>
+      <c r="M180" s="18"/>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B181" s="0"/>
-      <c r="C181" s="19"/>
-      <c r="D181" s="19"/>
-      <c r="E181" s="19"/>
-      <c r="F181" s="20"/>
-      <c r="G181" s="20"/>
-      <c r="H181" s="20"/>
-      <c r="I181" s="20"/>
-      <c r="J181" s="21"/>
-      <c r="K181" s="21"/>
-      <c r="L181" s="21"/>
-      <c r="M181" s="21"/>
+      <c r="B181" s="21"/>
+      <c r="C181" s="16"/>
+      <c r="D181" s="16"/>
+      <c r="E181" s="16"/>
+      <c r="F181" s="17"/>
+      <c r="G181" s="17"/>
+      <c r="H181" s="17"/>
+      <c r="I181" s="17"/>
+      <c r="J181" s="18"/>
+      <c r="K181" s="18"/>
+      <c r="L181" s="18"/>
+      <c r="M181" s="18"/>
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B182" s="18"/>
-      <c r="C182" s="19"/>
-      <c r="D182" s="19"/>
-      <c r="E182" s="19"/>
-      <c r="F182" s="20"/>
-      <c r="G182" s="20"/>
-      <c r="H182" s="20"/>
-      <c r="I182" s="20"/>
-      <c r="J182" s="21"/>
-      <c r="K182" s="21"/>
-      <c r="L182" s="21"/>
-      <c r="M182" s="21"/>
+      <c r="B182" s="21"/>
+      <c r="C182" s="16"/>
+      <c r="D182" s="16"/>
+      <c r="E182" s="16"/>
+      <c r="F182" s="17"/>
+      <c r="G182" s="17"/>
+      <c r="H182" s="17"/>
+      <c r="I182" s="17"/>
+      <c r="J182" s="18"/>
+      <c r="K182" s="18"/>
+      <c r="L182" s="18"/>
+      <c r="M182" s="18"/>
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C183" s="19"/>
-      <c r="D183" s="19"/>
-      <c r="E183" s="19"/>
-      <c r="F183" s="20"/>
-      <c r="G183" s="20"/>
-      <c r="H183" s="20"/>
-      <c r="I183" s="20"/>
-      <c r="J183" s="21"/>
-      <c r="K183" s="21"/>
-      <c r="L183" s="21"/>
-      <c r="M183" s="21"/>
+      <c r="B183" s="15"/>
+      <c r="C183" s="16"/>
+      <c r="D183" s="16"/>
+      <c r="E183" s="16"/>
+      <c r="F183" s="17"/>
+      <c r="G183" s="17"/>
+      <c r="H183" s="17"/>
+      <c r="I183" s="17"/>
+      <c r="J183" s="18"/>
+      <c r="K183" s="18"/>
+      <c r="L183" s="18"/>
+      <c r="M183" s="18"/>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C184" s="19"/>
-      <c r="D184" s="19"/>
-      <c r="E184" s="19"/>
-      <c r="F184" s="20"/>
-      <c r="G184" s="20"/>
-      <c r="H184" s="20"/>
-      <c r="I184" s="20"/>
-      <c r="J184" s="21"/>
-      <c r="K184" s="21"/>
-      <c r="L184" s="21"/>
-      <c r="M184" s="21"/>
+      <c r="C184" s="16"/>
+      <c r="D184" s="16"/>
+      <c r="E184" s="16"/>
+      <c r="F184" s="17"/>
+      <c r="G184" s="17"/>
+      <c r="H184" s="17"/>
+      <c r="I184" s="17"/>
+      <c r="J184" s="18"/>
+      <c r="K184" s="18"/>
+      <c r="L184" s="18"/>
+      <c r="M184" s="18"/>
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="24" t="s">
+      <c r="C185" s="16"/>
+      <c r="D185" s="16"/>
+      <c r="E185" s="16"/>
+      <c r="F185" s="17"/>
+      <c r="G185" s="17"/>
+      <c r="H185" s="17"/>
+      <c r="I185" s="17"/>
+      <c r="J185" s="18"/>
+      <c r="K185" s="18"/>
+      <c r="L185" s="18"/>
+      <c r="M185" s="18"/>
+    </row>
+    <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A186" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="B185" s="18"/>
-      <c r="C185" s="25" t="n">
-        <f aca="false">SUM(C4:C184)</f>
-        <v>44</v>
-      </c>
-      <c r="D185" s="25" t="n">
-        <f aca="false">SUM(D4:D184)</f>
+      <c r="B186" s="15"/>
+      <c r="C186" s="23" t="n">
+        <f aca="false">SUM(C4:C185)</f>
+        <v>46.5</v>
+      </c>
+      <c r="D186" s="23" t="n">
+        <f aca="false">SUM(D4:D185)</f>
         <v>70</v>
       </c>
-      <c r="E185" s="25" t="n">
-        <f aca="false">SUM(E4:E184)</f>
+      <c r="E186" s="23" t="n">
+        <f aca="false">SUM(E4:E185)</f>
         <v>146</v>
       </c>
-      <c r="F185" s="26" t="n">
-        <f aca="false">SUM(F4:F184)</f>
+      <c r="F186" s="24" t="n">
+        <f aca="false">SUM(F4:F185)</f>
         <v>8.5</v>
       </c>
-      <c r="G185" s="26" t="n">
-        <f aca="false">SUM(G4:G184)</f>
+      <c r="G186" s="24" t="n">
+        <f aca="false">SUM(G4:G185)</f>
         <v>83</v>
       </c>
-      <c r="H185" s="26" t="n">
-        <f aca="false">SUM(H4:H184)</f>
+      <c r="H186" s="24" t="n">
+        <f aca="false">SUM(H4:H185)</f>
         <v>1</v>
       </c>
-      <c r="I185" s="26" t="n">
-        <f aca="false">SUM(I4:I184)</f>
+      <c r="I186" s="24" t="n">
+        <f aca="false">SUM(I4:I185)</f>
         <v>0</v>
       </c>
-      <c r="J185" s="26" t="n">
-        <f aca="false">SUM(J4:J184)</f>
+      <c r="J186" s="24" t="n">
+        <f aca="false">SUM(J4:J185)</f>
         <v>51.5</v>
       </c>
-      <c r="K185" s="26" t="n">
-        <f aca="false">SUM(K4:K184)</f>
+      <c r="K186" s="24" t="n">
+        <f aca="false">SUM(K4:K185)</f>
         <v>0</v>
       </c>
-      <c r="L185" s="26" t="n">
-        <f aca="false">SUM(L4:L184)</f>
+      <c r="L186" s="24" t="n">
+        <f aca="false">SUM(L4:L185)</f>
         <v>0</v>
       </c>
-      <c r="M185" s="26" t="n">
-        <f aca="false">SUM(M4:M184)</f>
+      <c r="M186" s="24" t="n">
+        <f aca="false">SUM(M4:M185)</f>
         <v>0</v>
       </c>
-      <c r="N185" s="18"/>
-      <c r="O185" s="18"/>
-      <c r="P185" s="18"/>
-      <c r="Q185" s="18"/>
-      <c r="R185" s="18"/>
-      <c r="S185" s="18"/>
-      <c r="T185" s="18"/>
-      <c r="U185" s="18"/>
-      <c r="V185" s="18"/>
-      <c r="W185" s="18"/>
-      <c r="X185" s="18"/>
-      <c r="Y185" s="18"/>
-      <c r="Z185" s="18"/>
-      <c r="AA185" s="18"/>
-      <c r="AB185" s="18"/>
-      <c r="AC185" s="18"/>
-      <c r="AD185" s="18"/>
-      <c r="AE185" s="18"/>
-    </row>
-    <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B186" s="18"/>
-      <c r="C186" s="27"/>
-      <c r="D186" s="27"/>
-      <c r="E186" s="27"/>
-      <c r="F186" s="27"/>
-      <c r="G186" s="27"/>
-      <c r="H186" s="27"/>
-      <c r="I186" s="27"/>
-      <c r="J186" s="27"/>
-      <c r="K186" s="27"/>
-      <c r="L186" s="27"/>
-      <c r="M186" s="27"/>
-    </row>
-    <row r="187" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B187" s="18"/>
-      <c r="D187" s="28"/>
-      <c r="E187" s="28"/>
-      <c r="F187" s="27"/>
-      <c r="H187" s="29"/>
-      <c r="I187" s="29"/>
-      <c r="J187" s="27"/>
-      <c r="K187" s="27"/>
-      <c r="L187" s="30"/>
-      <c r="M187" s="30"/>
-    </row>
-    <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B188" s="18"/>
-      <c r="D188" s="31" t="s">
+      <c r="N186" s="15"/>
+      <c r="O186" s="15"/>
+      <c r="P186" s="15"/>
+      <c r="Q186" s="15"/>
+      <c r="R186" s="15"/>
+      <c r="S186" s="15"/>
+      <c r="T186" s="15"/>
+      <c r="U186" s="15"/>
+      <c r="V186" s="15"/>
+      <c r="W186" s="15"/>
+      <c r="X186" s="15"/>
+      <c r="Y186" s="15"/>
+      <c r="Z186" s="15"/>
+      <c r="AA186" s="15"/>
+      <c r="AB186" s="15"/>
+      <c r="AC186" s="15"/>
+      <c r="AD186" s="15"/>
+      <c r="AE186" s="15"/>
+    </row>
+    <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B187" s="15"/>
+      <c r="C187" s="25"/>
+      <c r="D187" s="25"/>
+      <c r="E187" s="25"/>
+      <c r="F187" s="25"/>
+      <c r="G187" s="25"/>
+      <c r="H187" s="25"/>
+      <c r="I187" s="25"/>
+      <c r="J187" s="25"/>
+      <c r="K187" s="25"/>
+      <c r="L187" s="25"/>
+      <c r="M187" s="25"/>
+    </row>
+    <row r="188" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B188" s="15"/>
+      <c r="D188" s="26"/>
+      <c r="E188" s="26"/>
+      <c r="F188" s="25"/>
+      <c r="H188" s="27"/>
+      <c r="I188" s="27"/>
+      <c r="J188" s="25"/>
+      <c r="K188" s="25"/>
+      <c r="L188" s="28"/>
+      <c r="M188" s="28"/>
+    </row>
+    <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B189" s="15"/>
+      <c r="D189" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E188" s="28" t="n">
-        <f aca="false">SUM(C185:E185)</f>
-        <v>260</v>
-      </c>
-      <c r="F188" s="27"/>
-      <c r="H188" s="32" t="s">
+      <c r="E189" s="26" t="n">
+        <f aca="false">SUM(C186:E186)</f>
+        <v>262.5</v>
+      </c>
+      <c r="F189" s="25"/>
+      <c r="H189" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="I188" s="29" t="n">
-        <f aca="false">SUM(F185:I185)</f>
+      <c r="I189" s="27" t="n">
+        <f aca="false">SUM(F186:I186)</f>
         <v>92.5</v>
       </c>
-      <c r="J188" s="27"/>
-      <c r="K188" s="27"/>
-      <c r="L188" s="33" t="s">
+      <c r="J189" s="25"/>
+      <c r="K189" s="25"/>
+      <c r="L189" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="M188" s="30" t="n">
-        <f aca="false">SUM(J185:M185)</f>
+      <c r="M189" s="28" t="n">
+        <f aca="false">SUM(J186:M186)</f>
         <v>51.5</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B189" s="18"/>
-      <c r="D189" s="28"/>
-      <c r="E189" s="28"/>
-      <c r="F189" s="27"/>
-      <c r="H189" s="29"/>
-      <c r="I189" s="29"/>
-      <c r="J189" s="27"/>
-      <c r="K189" s="27"/>
-      <c r="L189" s="30"/>
-      <c r="M189" s="30"/>
-    </row>
     <row r="190" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B190" s="18"/>
-      <c r="D190" s="34"/>
-      <c r="E190" s="34"/>
-      <c r="F190" s="27"/>
-      <c r="H190" s="34"/>
-      <c r="I190" s="34"/>
-      <c r="J190" s="27"/>
-      <c r="K190" s="27"/>
-      <c r="L190" s="35"/>
-      <c r="M190" s="35"/>
+      <c r="B190" s="15"/>
+      <c r="D190" s="26"/>
+      <c r="E190" s="26"/>
+      <c r="F190" s="25"/>
+      <c r="H190" s="27"/>
+      <c r="I190" s="27"/>
+      <c r="J190" s="25"/>
+      <c r="K190" s="25"/>
+      <c r="L190" s="28"/>
+      <c r="M190" s="28"/>
     </row>
     <row r="191" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B191" s="18"/>
-      <c r="D191" s="36"/>
-      <c r="E191" s="37"/>
-      <c r="H191" s="38"/>
-      <c r="I191" s="39"/>
-      <c r="L191" s="40"/>
-      <c r="M191" s="41"/>
-    </row>
-    <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B192" s="18"/>
-      <c r="D192" s="42" t="n">
+      <c r="B191" s="15"/>
+      <c r="D191" s="32"/>
+      <c r="E191" s="32"/>
+      <c r="F191" s="25"/>
+      <c r="H191" s="32"/>
+      <c r="I191" s="32"/>
+      <c r="J191" s="25"/>
+      <c r="K191" s="25"/>
+      <c r="L191" s="33"/>
+      <c r="M191" s="33"/>
+    </row>
+    <row r="192" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B192" s="15"/>
+      <c r="D192" s="34"/>
+      <c r="E192" s="35"/>
+      <c r="H192" s="36"/>
+      <c r="I192" s="37"/>
+      <c r="L192" s="38"/>
+      <c r="M192" s="39"/>
+    </row>
+    <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B193" s="15"/>
+      <c r="D193" s="40" t="n">
         <v>2025</v>
       </c>
-      <c r="E192" s="43" t="n">
-        <f aca="false">SUM(C4:E184)</f>
-        <v>260</v>
-      </c>
-      <c r="H192" s="44" t="n">
+      <c r="E193" s="41" t="n">
+        <f aca="false">SUM(C4:E185)</f>
+        <v>262.5</v>
+      </c>
+      <c r="H193" s="42" t="n">
         <v>2025</v>
       </c>
-      <c r="I192" s="45" t="n">
-        <f aca="false">SUM(F4:I184)</f>
+      <c r="I193" s="43" t="n">
+        <f aca="false">SUM(F4:I185)</f>
         <v>92.5</v>
       </c>
-      <c r="L192" s="46" t="n">
+      <c r="L193" s="44" t="n">
         <v>2025</v>
       </c>
-      <c r="M192" s="47" t="n">
-        <f aca="false">SUM(J4:M184)</f>
+      <c r="M193" s="45" t="n">
+        <f aca="false">SUM(J4:M185)</f>
         <v>51.5</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B193" s="18"/>
-      <c r="D193" s="48" t="s">
+    <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B194" s="15"/>
+      <c r="D194" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="E193" s="43" t="n">
-        <f aca="false">SUM(C155:E184)</f>
-        <v>21</v>
-      </c>
-      <c r="H193" s="49" t="s">
+      <c r="E194" s="41" t="n">
+        <f aca="false">SUM(C155:E185)</f>
+        <v>23.5</v>
+      </c>
+      <c r="H194" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="I193" s="45" t="n">
-        <f aca="false">SUM(F155:I184)</f>
+      <c r="I194" s="43" t="n">
+        <f aca="false">SUM(F155:I185)</f>
         <v>0</v>
       </c>
-      <c r="L193" s="50" t="s">
+      <c r="L194" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="M193" s="47" t="n">
-        <f aca="false">SUM(J155:M184)</f>
+      <c r="M194" s="45" t="n">
+        <f aca="false">SUM(J155:M185)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B194" s="18"/>
-      <c r="D194" s="36"/>
-      <c r="E194" s="37"/>
-      <c r="H194" s="38"/>
-      <c r="I194" s="39"/>
-      <c r="K194" s="51"/>
-      <c r="L194" s="40"/>
-      <c r="M194" s="41"/>
-    </row>
     <row r="195" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B195" s="18"/>
-      <c r="E195" s="27"/>
-      <c r="K195" s="51"/>
-      <c r="M195" s="27"/>
+      <c r="B195" s="15"/>
+      <c r="D195" s="34"/>
+      <c r="E195" s="35"/>
+      <c r="H195" s="36"/>
+      <c r="I195" s="37"/>
+      <c r="K195" s="49"/>
+      <c r="L195" s="38"/>
+      <c r="M195" s="39"/>
     </row>
     <row r="196" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B196" s="18"/>
-      <c r="E196" s="27"/>
-      <c r="K196" s="52"/>
-      <c r="L196" s="53"/>
-      <c r="M196" s="54"/>
-    </row>
-    <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B197" s="18"/>
-      <c r="E197" s="27"/>
-      <c r="K197" s="52" t="s">
+      <c r="B196" s="15"/>
+      <c r="E196" s="25"/>
+      <c r="K196" s="49"/>
+      <c r="M196" s="25"/>
+    </row>
+    <row r="197" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B197" s="15"/>
+      <c r="E197" s="25"/>
+      <c r="K197" s="50"/>
+      <c r="L197" s="51"/>
+      <c r="M197" s="52"/>
+    </row>
+    <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B198" s="15"/>
+      <c r="E198" s="25"/>
+      <c r="K198" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="L197" s="55"/>
-      <c r="M197" s="56" t="n">
-        <f aca="false">SUM(C4:M184)</f>
-        <v>404</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K198" s="52" t="s">
+      <c r="L198" s="53"/>
+      <c r="M198" s="54" t="n">
+        <f aca="false">SUM(C4:M185)</f>
+        <v>406.5</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K199" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="L198" s="57"/>
-      <c r="M198" s="56" t="n">
-        <f aca="false">E193+I193+M193</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K199" s="53"/>
-      <c r="L199" s="53"/>
-      <c r="M199" s="54"/>
-    </row>
-    <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C200" s="27"/>
-      <c r="K200" s="58" t="s">
+      <c r="L199" s="55"/>
+      <c r="M199" s="54" t="n">
+        <f aca="false">E194+I194+M194</f>
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K200" s="51"/>
+      <c r="L200" s="51"/>
+      <c r="M200" s="52"/>
+    </row>
+    <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C201" s="25"/>
+      <c r="K201" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="M200" s="2" t="n">
+      <c r="M201" s="2" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B201" s="59" t="s">
+    <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B202" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="C201" s="27"/>
-      <c r="K201" s="2" t="s">
+      <c r="C202" s="25"/>
+      <c r="K202" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="M201" s="2" t="n">
-        <f aca="false">M200-M198</f>
-        <v>179</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C202" s="27"/>
-      <c r="K202" s="2" t="s">
+      <c r="M202" s="2" t="n">
+        <f aca="false">M201-M199</f>
+        <v>176.5</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C203" s="25"/>
+      <c r="K203" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="M202" s="2" t="n">
-        <f aca="false">M201/8</f>
-        <v>22.375</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B203" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C203" s="27"/>
+      <c r="M203" s="2" t="n">
+        <f aca="false">M202/8</f>
+        <v>22.0625</v>
+      </c>
     </row>
     <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B204" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C204" s="27"/>
+        <v>142</v>
+      </c>
+      <c r="C204" s="25"/>
     </row>
     <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B205" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C205" s="25"/>
+    </row>
+    <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B206" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C205" s="60"/>
-    </row>
-    <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B206" s="2" t="s">
+      <c r="C206" s="58"/>
+    </row>
+    <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B207" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B208" s="18" t="s">
+    <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B209" s="15" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B209" s="18" t="s">
+    <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B210" s="15" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B210" s="18" t="s">
+    <row r="211" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B211" s="15" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B211" s="18" t="s">
+    <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B212" s="15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B212" s="18" t="s">
+    <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B213" s="15" t="s">
         <v>150</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
+  <mergeCells count="3">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5637,385 +5645,385 @@
   </sheetPr>
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.66015625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="61" width="3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="61" width="18.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="61" width="15.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="61" width="2.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="61" width="15.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="61" width="15.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="61" width="2.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="61" width="15.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="61" width="14.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="61" width="2.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="61" width="15.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="61" width="14.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="61" width="2.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="61" width="15.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="61" width="14.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="61" width="2.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="61" width="15.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="61" width="14.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="61" width="11.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="21" style="61" width="7.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="61" width="12.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1025" style="61" width="11"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1026" style="61" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="59" width="3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="59" width="18.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="59" width="15.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="59" width="2.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="59" width="15.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="59" width="15.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="59" width="2.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="59" width="15.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="59" width="14.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="59" width="2.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="59" width="15.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="59" width="14.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="59" width="2.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="59" width="15.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="59" width="14.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="59" width="2.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="59" width="15.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="59" width="14.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="59" width="11.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="21" style="59" width="7.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="59" width="12.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1025" style="59" width="11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1026" style="59" width="10.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63" t="s">
+      <c r="A2" s="60"/>
+      <c r="B2" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="65" t="s">
+      <c r="C2" s="62"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="F2" s="66"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="65" t="s">
+      <c r="F2" s="64"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="I2" s="66"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="65" t="s">
+      <c r="I2" s="64"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="65" t="s">
+      <c r="L2" s="64"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="O2" s="67"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="65" t="s">
+      <c r="O2" s="65"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="R2" s="66"/>
+      <c r="R2" s="64"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="62"/>
-      <c r="B3" s="68" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="C3" s="64" t="n">
-        <f aca="false">SUM(Tasks_23_24!C337:E337)</f>
+      <c r="C3" s="62" t="n">
+        <f aca="false">SUM(Tasks_23_24!C338:E338)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="69" t="s">
+      <c r="D3" s="60"/>
+      <c r="E3" s="67" t="s">
         <v>154</v>
       </c>
-      <c r="F3" s="70" t="s">
+      <c r="F3" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="69" t="s">
+      <c r="G3" s="60"/>
+      <c r="H3" s="67" t="s">
         <v>156</v>
       </c>
-      <c r="I3" s="70" t="s">
+      <c r="I3" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="J3" s="62"/>
-      <c r="K3" s="69" t="s">
+      <c r="J3" s="60"/>
+      <c r="K3" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="L3" s="70" t="s">
+      <c r="L3" s="68" t="s">
         <v>159</v>
       </c>
-      <c r="M3" s="62"/>
-      <c r="N3" s="69" t="s">
+      <c r="M3" s="60"/>
+      <c r="N3" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="O3" s="70" t="s">
+      <c r="O3" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="69" t="s">
+      <c r="P3" s="60"/>
+      <c r="Q3" s="67" t="s">
         <v>162</v>
       </c>
-      <c r="R3" s="70" t="s">
+      <c r="R3" s="68" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="62"/>
-      <c r="B4" s="71" t="s">
+      <c r="A4" s="60"/>
+      <c r="B4" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="72" t="n">
+      <c r="C4" s="70" t="n">
         <v>100</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="67" t="s">
+      <c r="D4" s="60"/>
+      <c r="E4" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="F4" s="73" t="e">
-        <f aca="false">SUM(Tasks_23_24!F507:G507)+#REF!*228/496</f>
+      <c r="F4" s="71" t="e">
+        <f aca="false">SUM(Tasks_23_24!F508:G508)+#REF!*228/496</f>
         <v>#REF!</v>
       </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="67" t="s">
+      <c r="G4" s="60"/>
+      <c r="H4" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="I4" s="73" t="e">
+      <c r="I4" s="71" t="e">
         <f aca="false">#REF!+#REF!*80/496</f>
         <v>#REF!</v>
       </c>
-      <c r="J4" s="62"/>
-      <c r="K4" s="67" t="s">
+      <c r="J4" s="60"/>
+      <c r="K4" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="L4" s="73" t="e">
-        <f aca="false">Tasks_23_24!H507+#REF!*36/496</f>
+      <c r="L4" s="71" t="e">
+        <f aca="false">Tasks_23_24!H508+#REF!*36/496</f>
         <v>#REF!</v>
       </c>
-      <c r="M4" s="62"/>
-      <c r="N4" s="67" t="s">
+      <c r="M4" s="60"/>
+      <c r="N4" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="O4" s="73" t="e">
+      <c r="O4" s="71" t="e">
         <f aca="false">#REF!+#REF!*24/496</f>
         <v>#REF!</v>
       </c>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="67" t="s">
+      <c r="P4" s="60"/>
+      <c r="Q4" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="R4" s="73" t="e">
-        <f aca="false">Tasks_23_24!I507+#REF!*128/496</f>
+      <c r="R4" s="71" t="e">
+        <f aca="false">Tasks_23_24!I508+#REF!*128/496</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="62"/>
-      <c r="B5" s="74" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="72" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="75" t="n">
+      <c r="C5" s="73" t="n">
         <f aca="false">C3*C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="76" t="s">
+      <c r="D5" s="60"/>
+      <c r="E5" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="F5" s="77" t="n">
+      <c r="F5" s="75" t="n">
         <v>100</v>
       </c>
-      <c r="G5" s="62"/>
-      <c r="H5" s="76" t="s">
+      <c r="G5" s="60"/>
+      <c r="H5" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="I5" s="77" t="n">
+      <c r="I5" s="75" t="n">
         <v>100</v>
       </c>
-      <c r="J5" s="62"/>
-      <c r="K5" s="76" t="s">
+      <c r="J5" s="60"/>
+      <c r="K5" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="L5" s="77" t="n">
+      <c r="L5" s="75" t="n">
         <v>100</v>
       </c>
-      <c r="M5" s="62"/>
-      <c r="N5" s="76" t="s">
+      <c r="M5" s="60"/>
+      <c r="N5" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="O5" s="77" t="n">
+      <c r="O5" s="75" t="n">
         <v>100</v>
       </c>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="76" t="s">
+      <c r="P5" s="60"/>
+      <c r="Q5" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="R5" s="77" t="n">
+      <c r="R5" s="75" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="62"/>
-      <c r="B6" s="71" t="s">
+      <c r="A6" s="60"/>
+      <c r="B6" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="78" t="n">
+      <c r="C6" s="76" t="n">
         <f aca="false">C5*0.2</f>
         <v>0</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="79" t="s">
+      <c r="D6" s="60"/>
+      <c r="E6" s="77" t="s">
         <v>165</v>
       </c>
-      <c r="F6" s="80" t="e">
+      <c r="F6" s="78" t="e">
         <f aca="false">F4*F5</f>
         <v>#REF!</v>
       </c>
-      <c r="G6" s="62"/>
-      <c r="H6" s="79" t="s">
+      <c r="G6" s="60"/>
+      <c r="H6" s="77" t="s">
         <v>165</v>
       </c>
-      <c r="I6" s="80" t="e">
+      <c r="I6" s="78" t="e">
         <f aca="false">I4*I5</f>
         <v>#REF!</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="79" t="s">
+      <c r="J6" s="60"/>
+      <c r="K6" s="77" t="s">
         <v>165</v>
       </c>
-      <c r="L6" s="80" t="e">
+      <c r="L6" s="78" t="e">
         <f aca="false">L4*L5</f>
         <v>#REF!</v>
       </c>
-      <c r="M6" s="62"/>
-      <c r="N6" s="79" t="s">
+      <c r="M6" s="60"/>
+      <c r="N6" s="77" t="s">
         <v>165</v>
       </c>
-      <c r="O6" s="80" t="e">
+      <c r="O6" s="78" t="e">
         <f aca="false">O4*O5</f>
         <v>#REF!</v>
       </c>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="79" t="s">
+      <c r="P6" s="60"/>
+      <c r="Q6" s="77" t="s">
         <v>165</v>
       </c>
-      <c r="R6" s="80" t="e">
+      <c r="R6" s="78" t="e">
         <f aca="false">R4*R5</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="62"/>
-      <c r="B7" s="81" t="s">
+      <c r="A7" s="60"/>
+      <c r="B7" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="82" t="n">
+      <c r="C7" s="80" t="n">
         <f aca="false">C5+C6</f>
         <v>0</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="76" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="F7" s="73" t="e">
+      <c r="F7" s="71" t="e">
         <f aca="false">F6*0.2</f>
         <v>#REF!</v>
       </c>
-      <c r="G7" s="62"/>
-      <c r="H7" s="76" t="s">
+      <c r="G7" s="60"/>
+      <c r="H7" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="I7" s="73" t="e">
+      <c r="I7" s="71" t="e">
         <f aca="false">I6*0.2</f>
         <v>#REF!</v>
       </c>
-      <c r="J7" s="62"/>
-      <c r="K7" s="76" t="s">
+      <c r="J7" s="60"/>
+      <c r="K7" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="L7" s="73" t="e">
+      <c r="L7" s="71" t="e">
         <f aca="false">L6*0.2</f>
         <v>#REF!</v>
       </c>
-      <c r="M7" s="62"/>
-      <c r="N7" s="76" t="s">
+      <c r="M7" s="60"/>
+      <c r="N7" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="O7" s="73" t="e">
+      <c r="O7" s="71" t="e">
         <f aca="false">O6*0.2</f>
         <v>#REF!</v>
       </c>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="76" t="s">
+      <c r="P7" s="60"/>
+      <c r="Q7" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="R7" s="73" t="e">
+      <c r="R7" s="71" t="e">
         <f aca="false">R6*0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E8" s="81" t="s">
+      <c r="E8" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="F8" s="82" t="e">
+      <c r="F8" s="80" t="e">
         <f aca="false">F6+F7</f>
         <v>#REF!</v>
       </c>
-      <c r="G8" s="62"/>
-      <c r="H8" s="81" t="s">
+      <c r="G8" s="60"/>
+      <c r="H8" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="I8" s="82" t="e">
+      <c r="I8" s="80" t="e">
         <f aca="false">I6+I7</f>
         <v>#REF!</v>
       </c>
-      <c r="J8" s="62"/>
-      <c r="K8" s="81" t="s">
+      <c r="J8" s="60"/>
+      <c r="K8" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="L8" s="82" t="e">
+      <c r="L8" s="80" t="e">
         <f aca="false">L6+L7</f>
         <v>#REF!</v>
       </c>
-      <c r="M8" s="62"/>
-      <c r="N8" s="81" t="s">
+      <c r="M8" s="60"/>
+      <c r="N8" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="O8" s="82" t="e">
+      <c r="O8" s="80" t="e">
         <f aca="false">O6+O7</f>
         <v>#REF!</v>
       </c>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="81" t="s">
+      <c r="P8" s="60"/>
+      <c r="Q8" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="R8" s="82" t="e">
+      <c r="R8" s="80" t="e">
         <f aca="false">R6+R7</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H9" s="62"/>
+      <c r="H9" s="60"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E10" s="69" t="s">
+      <c r="E10" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="F10" s="70" t="s">
+      <c r="F10" s="68" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="F11" s="83" t="e">
+      <c r="F11" s="81" t="e">
         <f aca="false">F4+I4+L4+R4+O4</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E12" s="81" t="s">
+      <c r="E12" s="79" t="s">
         <v>167</v>
       </c>
-      <c r="F12" s="82" t="e">
+      <c r="F12" s="80" t="e">
         <f aca="false">F6+I6+L6+R6+O6</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="62"/>
-      <c r="B13" s="84" t="s">
+      <c r="A13" s="60"/>
+      <c r="B13" s="82" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="85" t="e">
+      <c r="C13" s="83" t="e">
         <f aca="false">C7+F12</f>
         <v>#REF!</v>
       </c>
@@ -6028,31 +6036,31 @@
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E21" s="86"/>
+      <c r="E21" s="84"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E23" s="87"/>
-      <c r="I23" s="88"/>
+      <c r="E23" s="85"/>
+      <c r="I23" s="86"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E24" s="87"/>
-      <c r="I24" s="88"/>
+      <c r="E24" s="85"/>
+      <c r="I24" s="86"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E25" s="87"/>
-      <c r="I25" s="88"/>
+      <c r="E25" s="85"/>
+      <c r="I25" s="86"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E26" s="87"/>
-      <c r="I26" s="88"/>
+      <c r="E26" s="85"/>
+      <c r="I26" s="86"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E27" s="87"/>
-      <c r="I27" s="88"/>
+      <c r="E27" s="85"/>
+      <c r="I27" s="86"/>
     </row>
     <row r="28" customFormat="false" ht="6.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/SustSol/TimeTracking_2025.xlsx
+++ b/SustSol/TimeTracking_2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="172">
   <si>
     <t xml:space="preserve">SustSol Time Tracking</t>
   </si>
@@ -401,6 +401,15 @@
     <t xml:space="preserve">F&amp;E grant proposal theme research &amp; outlines for 2024+25</t>
   </si>
   <si>
+    <t xml:space="preserve">Susview API add search field + tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peregrin Call Monday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F&amp;E grant proposal WebViewer DICOM-WEB v0</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;ImageViewer/&gt; component refactoring (splitting functionality)</t>
   </si>
   <si>
@@ -408,9 +417,6 @@
   </si>
   <si>
     <t xml:space="preserve">Schluckakt-2-Avif extractor Python (for demo)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peregrin Call Monday</t>
   </si>
   <si>
     <t xml:space="preserve">Externalized state management for new WebViewer (Tigerstate II)</t>
@@ -1683,10 +1689,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD213"/>
+  <dimension ref="A1:XFD218"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A153" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E165" activeCellId="0" sqref="E165"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A155" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E169" activeCellId="0" sqref="E169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
@@ -4961,18 +4967,18 @@
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="n">
-        <v>45943</v>
+        <v>45953</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C165" s="16"/>
       <c r="D165" s="16"/>
-      <c r="E165" s="16" t="s">
-        <v>127</v>
-      </c>
+      <c r="E165" s="16"/>
       <c r="F165" s="17"/>
-      <c r="G165" s="17"/>
+      <c r="G165" s="17" t="n">
+        <v>2</v>
+      </c>
       <c r="H165" s="17"/>
       <c r="I165" s="17"/>
       <c r="J165" s="18"/>
@@ -4982,15 +4988,15 @@
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="n">
-        <v>45943</v>
+        <v>45954</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C166" s="16"/>
       <c r="D166" s="16"/>
-      <c r="E166" s="16" t="s">
-        <v>127</v>
+      <c r="E166" s="16" t="n">
+        <v>1.5</v>
       </c>
       <c r="F166" s="17"/>
       <c r="G166" s="17"/>
@@ -5002,6 +5008,7 @@
       <c r="M166" s="18"/>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0"/>
       <c r="C167" s="16"/>
       <c r="D167" s="16"/>
       <c r="E167" s="16"/>
@@ -5016,16 +5023,16 @@
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="n">
-        <v>45945</v>
+        <v>45957</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C168" s="16" t="s">
-        <v>127</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C168" s="16"/>
       <c r="D168" s="16"/>
-      <c r="E168" s="16"/>
+      <c r="E168" s="16" t="n">
+        <v>2</v>
+      </c>
       <c r="F168" s="17"/>
       <c r="G168" s="17"/>
       <c r="H168" s="17"/>
@@ -5034,25 +5041,11 @@
       <c r="K168" s="18"/>
       <c r="L168" s="18"/>
       <c r="M168" s="18"/>
-      <c r="XEY168" s="0"/>
-      <c r="XEZ168" s="0"/>
-      <c r="XFA168" s="0"/>
-      <c r="XFB168" s="0"/>
-      <c r="XFC168" s="0"/>
-      <c r="XFD168" s="0"/>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1" t="n">
-        <v>45945</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="C169" s="16"/>
       <c r="D169" s="16"/>
-      <c r="E169" s="16" t="s">
-        <v>127</v>
-      </c>
+      <c r="E169" s="16"/>
       <c r="F169" s="17"/>
       <c r="G169" s="17"/>
       <c r="H169" s="17"/>
@@ -5063,16 +5056,13 @@
       <c r="M169" s="18"/>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1" t="n">
-        <v>45945</v>
-      </c>
       <c r="B170" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C170" s="16"/>
       <c r="D170" s="16"/>
       <c r="E170" s="16" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F170" s="17"/>
       <c r="G170" s="17"/>
@@ -5084,9 +5074,14 @@
       <c r="M170" s="18"/>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B171" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="C171" s="16"/>
       <c r="D171" s="16"/>
-      <c r="E171" s="16"/>
+      <c r="E171" s="16" t="s">
+        <v>130</v>
+      </c>
       <c r="F171" s="17"/>
       <c r="G171" s="17"/>
       <c r="H171" s="17"/>
@@ -5095,6 +5090,12 @@
       <c r="K171" s="18"/>
       <c r="L171" s="18"/>
       <c r="M171" s="18"/>
+      <c r="XEY171" s="21"/>
+      <c r="XEZ171" s="21"/>
+      <c r="XFA171" s="21"/>
+      <c r="XFB171" s="21"/>
+      <c r="XFC171" s="21"/>
+      <c r="XFD171" s="21"/>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C172" s="16"/>
@@ -5110,7 +5111,12 @@
       <c r="M172" s="18"/>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C173" s="16"/>
+      <c r="B173" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C173" s="16" t="s">
+        <v>130</v>
+      </c>
       <c r="D173" s="16"/>
       <c r="E173" s="16"/>
       <c r="F173" s="17"/>
@@ -5128,7 +5134,9 @@
       </c>
       <c r="C174" s="16"/>
       <c r="D174" s="16"/>
-      <c r="E174" s="16"/>
+      <c r="E174" s="16" t="s">
+        <v>130</v>
+      </c>
       <c r="F174" s="17"/>
       <c r="G174" s="17"/>
       <c r="H174" s="17"/>
@@ -5144,7 +5152,9 @@
       </c>
       <c r="C175" s="16"/>
       <c r="D175" s="16"/>
-      <c r="E175" s="16"/>
+      <c r="E175" s="16" t="s">
+        <v>130</v>
+      </c>
       <c r="F175" s="17"/>
       <c r="G175" s="17"/>
       <c r="H175" s="17"/>
@@ -5155,9 +5165,6 @@
       <c r="M175" s="18"/>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B176" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="C176" s="16"/>
       <c r="D176" s="16"/>
       <c r="E176" s="16"/>
@@ -5197,6 +5204,9 @@
       <c r="M178" s="18"/>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B179" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="C179" s="16"/>
       <c r="D179" s="16"/>
       <c r="E179" s="16"/>
@@ -5210,6 +5220,9 @@
       <c r="M179" s="18"/>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B180" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="C180" s="16"/>
       <c r="D180" s="16"/>
       <c r="E180" s="16"/>
@@ -5223,7 +5236,9 @@
       <c r="M180" s="18"/>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B181" s="21"/>
+      <c r="B181" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="C181" s="16"/>
       <c r="D181" s="16"/>
       <c r="E181" s="16"/>
@@ -5237,7 +5252,6 @@
       <c r="M181" s="18"/>
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B182" s="21"/>
       <c r="C182" s="16"/>
       <c r="D182" s="16"/>
       <c r="E182" s="16"/>
@@ -5251,7 +5265,6 @@
       <c r="M182" s="18"/>
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B183" s="15"/>
       <c r="C183" s="16"/>
       <c r="D183" s="16"/>
       <c r="E183" s="16"/>
@@ -5291,335 +5304,403 @@
       <c r="M185" s="18"/>
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B186" s="15"/>
-      <c r="C186" s="23" t="n">
-        <f aca="false">SUM(C4:C185)</f>
+      <c r="B186" s="21"/>
+      <c r="C186" s="16"/>
+      <c r="D186" s="16"/>
+      <c r="E186" s="16"/>
+      <c r="F186" s="17"/>
+      <c r="G186" s="17"/>
+      <c r="H186" s="17"/>
+      <c r="I186" s="17"/>
+      <c r="J186" s="18"/>
+      <c r="K186" s="18"/>
+      <c r="L186" s="18"/>
+      <c r="M186" s="18"/>
+    </row>
+    <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B187" s="21"/>
+      <c r="C187" s="16"/>
+      <c r="D187" s="16"/>
+      <c r="E187" s="16"/>
+      <c r="F187" s="17"/>
+      <c r="G187" s="17"/>
+      <c r="H187" s="17"/>
+      <c r="I187" s="17"/>
+      <c r="J187" s="18"/>
+      <c r="K187" s="18"/>
+      <c r="L187" s="18"/>
+      <c r="M187" s="18"/>
+    </row>
+    <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B188" s="15"/>
+      <c r="C188" s="16"/>
+      <c r="D188" s="16"/>
+      <c r="E188" s="16"/>
+      <c r="F188" s="17"/>
+      <c r="G188" s="17"/>
+      <c r="H188" s="17"/>
+      <c r="I188" s="17"/>
+      <c r="J188" s="18"/>
+      <c r="K188" s="18"/>
+      <c r="L188" s="18"/>
+      <c r="M188" s="18"/>
+    </row>
+    <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C189" s="16"/>
+      <c r="D189" s="16"/>
+      <c r="E189" s="16"/>
+      <c r="F189" s="17"/>
+      <c r="G189" s="17"/>
+      <c r="H189" s="17"/>
+      <c r="I189" s="17"/>
+      <c r="J189" s="18"/>
+      <c r="K189" s="18"/>
+      <c r="L189" s="18"/>
+      <c r="M189" s="18"/>
+    </row>
+    <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C190" s="16"/>
+      <c r="D190" s="16"/>
+      <c r="E190" s="16"/>
+      <c r="F190" s="17"/>
+      <c r="G190" s="17"/>
+      <c r="H190" s="17"/>
+      <c r="I190" s="17"/>
+      <c r="J190" s="18"/>
+      <c r="K190" s="18"/>
+      <c r="L190" s="18"/>
+      <c r="M190" s="18"/>
+    </row>
+    <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A191" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B191" s="15"/>
+      <c r="C191" s="23" t="n">
+        <f aca="false">SUM(C4:C190)</f>
         <v>46.5</v>
       </c>
-      <c r="D186" s="23" t="n">
-        <f aca="false">SUM(D4:D185)</f>
+      <c r="D191" s="23" t="n">
+        <f aca="false">SUM(D4:D190)</f>
         <v>70</v>
       </c>
-      <c r="E186" s="23" t="n">
-        <f aca="false">SUM(E4:E185)</f>
-        <v>146</v>
-      </c>
-      <c r="F186" s="24" t="n">
-        <f aca="false">SUM(F4:F185)</f>
+      <c r="E191" s="23" t="n">
+        <f aca="false">SUM(E4:E190)</f>
+        <v>149.5</v>
+      </c>
+      <c r="F191" s="24" t="n">
+        <f aca="false">SUM(F4:F190)</f>
         <v>8.5</v>
       </c>
-      <c r="G186" s="24" t="n">
-        <f aca="false">SUM(G4:G185)</f>
-        <v>83</v>
-      </c>
-      <c r="H186" s="24" t="n">
-        <f aca="false">SUM(H4:H185)</f>
+      <c r="G191" s="24" t="n">
+        <f aca="false">SUM(G4:G190)</f>
+        <v>85</v>
+      </c>
+      <c r="H191" s="24" t="n">
+        <f aca="false">SUM(H4:H190)</f>
         <v>1</v>
       </c>
-      <c r="I186" s="24" t="n">
-        <f aca="false">SUM(I4:I185)</f>
+      <c r="I191" s="24" t="n">
+        <f aca="false">SUM(I4:I190)</f>
         <v>0</v>
       </c>
-      <c r="J186" s="24" t="n">
-        <f aca="false">SUM(J4:J185)</f>
+      <c r="J191" s="24" t="n">
+        <f aca="false">SUM(J4:J190)</f>
         <v>51.5</v>
       </c>
-      <c r="K186" s="24" t="n">
-        <f aca="false">SUM(K4:K185)</f>
+      <c r="K191" s="24" t="n">
+        <f aca="false">SUM(K4:K190)</f>
         <v>0</v>
       </c>
-      <c r="L186" s="24" t="n">
-        <f aca="false">SUM(L4:L185)</f>
+      <c r="L191" s="24" t="n">
+        <f aca="false">SUM(L4:L190)</f>
         <v>0</v>
       </c>
-      <c r="M186" s="24" t="n">
-        <f aca="false">SUM(M4:M185)</f>
+      <c r="M191" s="24" t="n">
+        <f aca="false">SUM(M4:M190)</f>
         <v>0</v>
       </c>
-      <c r="N186" s="15"/>
-      <c r="O186" s="15"/>
-      <c r="P186" s="15"/>
-      <c r="Q186" s="15"/>
-      <c r="R186" s="15"/>
-      <c r="S186" s="15"/>
-      <c r="T186" s="15"/>
-      <c r="U186" s="15"/>
-      <c r="V186" s="15"/>
-      <c r="W186" s="15"/>
-      <c r="X186" s="15"/>
-      <c r="Y186" s="15"/>
-      <c r="Z186" s="15"/>
-      <c r="AA186" s="15"/>
-      <c r="AB186" s="15"/>
-      <c r="AC186" s="15"/>
-      <c r="AD186" s="15"/>
-      <c r="AE186" s="15"/>
-    </row>
-    <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B187" s="15"/>
-      <c r="C187" s="25"/>
-      <c r="D187" s="25"/>
-      <c r="E187" s="25"/>
-      <c r="F187" s="25"/>
-      <c r="G187" s="25"/>
-      <c r="H187" s="25"/>
-      <c r="I187" s="25"/>
-      <c r="J187" s="25"/>
-      <c r="K187" s="25"/>
-      <c r="L187" s="25"/>
-      <c r="M187" s="25"/>
-    </row>
-    <row r="188" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B188" s="15"/>
-      <c r="D188" s="26"/>
-      <c r="E188" s="26"/>
-      <c r="F188" s="25"/>
-      <c r="H188" s="27"/>
-      <c r="I188" s="27"/>
-      <c r="J188" s="25"/>
-      <c r="K188" s="25"/>
-      <c r="L188" s="28"/>
-      <c r="M188" s="28"/>
-    </row>
-    <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B189" s="15"/>
-      <c r="D189" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E189" s="26" t="n">
-        <f aca="false">SUM(C186:E186)</f>
-        <v>262.5</v>
-      </c>
-      <c r="F189" s="25"/>
-      <c r="H189" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="I189" s="27" t="n">
-        <f aca="false">SUM(F186:I186)</f>
-        <v>92.5</v>
-      </c>
-      <c r="J189" s="25"/>
-      <c r="K189" s="25"/>
-      <c r="L189" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="M189" s="28" t="n">
-        <f aca="false">SUM(J186:M186)</f>
-        <v>51.5</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B190" s="15"/>
-      <c r="D190" s="26"/>
-      <c r="E190" s="26"/>
-      <c r="F190" s="25"/>
-      <c r="H190" s="27"/>
-      <c r="I190" s="27"/>
-      <c r="J190" s="25"/>
-      <c r="K190" s="25"/>
-      <c r="L190" s="28"/>
-      <c r="M190" s="28"/>
-    </row>
-    <row r="191" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B191" s="15"/>
-      <c r="D191" s="32"/>
-      <c r="E191" s="32"/>
-      <c r="F191" s="25"/>
-      <c r="H191" s="32"/>
-      <c r="I191" s="32"/>
-      <c r="J191" s="25"/>
-      <c r="K191" s="25"/>
-      <c r="L191" s="33"/>
-      <c r="M191" s="33"/>
-    </row>
-    <row r="192" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="N191" s="15"/>
+      <c r="O191" s="15"/>
+      <c r="P191" s="15"/>
+      <c r="Q191" s="15"/>
+      <c r="R191" s="15"/>
+      <c r="S191" s="15"/>
+      <c r="T191" s="15"/>
+      <c r="U191" s="15"/>
+      <c r="V191" s="15"/>
+      <c r="W191" s="15"/>
+      <c r="X191" s="15"/>
+      <c r="Y191" s="15"/>
+      <c r="Z191" s="15"/>
+      <c r="AA191" s="15"/>
+      <c r="AB191" s="15"/>
+      <c r="AC191" s="15"/>
+      <c r="AD191" s="15"/>
+      <c r="AE191" s="15"/>
+    </row>
+    <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B192" s="15"/>
-      <c r="D192" s="34"/>
-      <c r="E192" s="35"/>
-      <c r="H192" s="36"/>
-      <c r="I192" s="37"/>
-      <c r="L192" s="38"/>
-      <c r="M192" s="39"/>
-    </row>
-    <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C192" s="25"/>
+      <c r="D192" s="25"/>
+      <c r="E192" s="25"/>
+      <c r="F192" s="25"/>
+      <c r="G192" s="25"/>
+      <c r="H192" s="25"/>
+      <c r="I192" s="25"/>
+      <c r="J192" s="25"/>
+      <c r="K192" s="25"/>
+      <c r="L192" s="25"/>
+      <c r="M192" s="25"/>
+    </row>
+    <row r="193" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B193" s="15"/>
-      <c r="D193" s="40" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E193" s="41" t="n">
-        <f aca="false">SUM(C4:E185)</f>
-        <v>262.5</v>
-      </c>
-      <c r="H193" s="42" t="n">
-        <v>2025</v>
-      </c>
-      <c r="I193" s="43" t="n">
-        <f aca="false">SUM(F4:I185)</f>
-        <v>92.5</v>
-      </c>
-      <c r="L193" s="44" t="n">
-        <v>2025</v>
-      </c>
-      <c r="M193" s="45" t="n">
-        <f aca="false">SUM(J4:M185)</f>
-        <v>51.5</v>
-      </c>
+      <c r="D193" s="26"/>
+      <c r="E193" s="26"/>
+      <c r="F193" s="25"/>
+      <c r="H193" s="27"/>
+      <c r="I193" s="27"/>
+      <c r="J193" s="25"/>
+      <c r="K193" s="25"/>
+      <c r="L193" s="28"/>
+      <c r="M193" s="28"/>
     </row>
     <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B194" s="15"/>
-      <c r="D194" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="E194" s="41" t="n">
-        <f aca="false">SUM(C155:E185)</f>
-        <v>23.5</v>
-      </c>
-      <c r="H194" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="I194" s="43" t="n">
-        <f aca="false">SUM(F155:I185)</f>
-        <v>0</v>
-      </c>
-      <c r="L194" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="M194" s="45" t="n">
-        <f aca="false">SUM(J155:M185)</f>
-        <v>0</v>
+      <c r="D194" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E194" s="26" t="n">
+        <f aca="false">SUM(C191:E191)</f>
+        <v>266</v>
+      </c>
+      <c r="F194" s="25"/>
+      <c r="H194" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="I194" s="27" t="n">
+        <f aca="false">SUM(F191:I191)</f>
+        <v>94.5</v>
+      </c>
+      <c r="J194" s="25"/>
+      <c r="K194" s="25"/>
+      <c r="L194" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="M194" s="28" t="n">
+        <f aca="false">SUM(J191:M191)</f>
+        <v>51.5</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B195" s="15"/>
-      <c r="D195" s="34"/>
-      <c r="E195" s="35"/>
-      <c r="H195" s="36"/>
-      <c r="I195" s="37"/>
-      <c r="K195" s="49"/>
-      <c r="L195" s="38"/>
-      <c r="M195" s="39"/>
+      <c r="D195" s="26"/>
+      <c r="E195" s="26"/>
+      <c r="F195" s="25"/>
+      <c r="H195" s="27"/>
+      <c r="I195" s="27"/>
+      <c r="J195" s="25"/>
+      <c r="K195" s="25"/>
+      <c r="L195" s="28"/>
+      <c r="M195" s="28"/>
     </row>
     <row r="196" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B196" s="15"/>
-      <c r="E196" s="25"/>
-      <c r="K196" s="49"/>
-      <c r="M196" s="25"/>
+      <c r="D196" s="32"/>
+      <c r="E196" s="32"/>
+      <c r="F196" s="25"/>
+      <c r="H196" s="32"/>
+      <c r="I196" s="32"/>
+      <c r="J196" s="25"/>
+      <c r="K196" s="25"/>
+      <c r="L196" s="33"/>
+      <c r="M196" s="33"/>
     </row>
     <row r="197" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B197" s="15"/>
-      <c r="E197" s="25"/>
-      <c r="K197" s="50"/>
-      <c r="L197" s="51"/>
-      <c r="M197" s="52"/>
+      <c r="D197" s="34"/>
+      <c r="E197" s="35"/>
+      <c r="H197" s="36"/>
+      <c r="I197" s="37"/>
+      <c r="L197" s="38"/>
+      <c r="M197" s="39"/>
     </row>
     <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B198" s="15"/>
-      <c r="E198" s="25"/>
-      <c r="K198" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="L198" s="53"/>
-      <c r="M198" s="54" t="n">
-        <f aca="false">SUM(C4:M185)</f>
-        <v>406.5</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K199" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="L199" s="55"/>
-      <c r="M199" s="54" t="n">
-        <f aca="false">E194+I194+M194</f>
-        <v>23.5</v>
+      <c r="D198" s="40" t="n">
+        <v>2025</v>
+      </c>
+      <c r="E198" s="41" t="n">
+        <f aca="false">SUM(C4:E190)</f>
+        <v>266</v>
+      </c>
+      <c r="H198" s="42" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I198" s="43" t="n">
+        <f aca="false">SUM(F4:I190)</f>
+        <v>94.5</v>
+      </c>
+      <c r="L198" s="44" t="n">
+        <v>2025</v>
+      </c>
+      <c r="M198" s="45" t="n">
+        <f aca="false">SUM(J4:M190)</f>
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B199" s="15"/>
+      <c r="D199" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="E199" s="41" t="n">
+        <f aca="false">SUM(C155:E190)</f>
+        <v>27</v>
+      </c>
+      <c r="H199" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="I199" s="43" t="n">
+        <f aca="false">SUM(F155:I190)</f>
+        <v>2</v>
+      </c>
+      <c r="L199" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="M199" s="45" t="n">
+        <f aca="false">SUM(J155:M190)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K200" s="51"/>
-      <c r="L200" s="51"/>
-      <c r="M200" s="52"/>
-    </row>
-    <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C201" s="25"/>
-      <c r="K201" s="56" t="s">
+      <c r="B200" s="15"/>
+      <c r="D200" s="34"/>
+      <c r="E200" s="35"/>
+      <c r="H200" s="36"/>
+      <c r="I200" s="37"/>
+      <c r="K200" s="49"/>
+      <c r="L200" s="38"/>
+      <c r="M200" s="39"/>
+    </row>
+    <row r="201" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B201" s="15"/>
+      <c r="E201" s="25"/>
+      <c r="K201" s="49"/>
+      <c r="M201" s="25"/>
+    </row>
+    <row r="202" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B202" s="15"/>
+      <c r="E202" s="25"/>
+      <c r="K202" s="50"/>
+      <c r="L202" s="51"/>
+      <c r="M202" s="52"/>
+    </row>
+    <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B203" s="15"/>
+      <c r="E203" s="25"/>
+      <c r="K203" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="L203" s="53"/>
+      <c r="M203" s="54" t="n">
+        <f aca="false">SUM(C4:M190)</f>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K204" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="M201" s="2" t="n">
+      <c r="L204" s="55"/>
+      <c r="M204" s="54" t="n">
+        <f aca="false">E199+I199+M199</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K205" s="51"/>
+      <c r="L205" s="51"/>
+      <c r="M205" s="52"/>
+    </row>
+    <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C206" s="25"/>
+      <c r="K206" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="M206" s="2" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B202" s="57" t="s">
-        <v>139</v>
-      </c>
-      <c r="C202" s="25"/>
-      <c r="K202" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="M202" s="2" t="n">
-        <f aca="false">M201-M199</f>
-        <v>176.5</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C203" s="25"/>
-      <c r="K203" s="2" t="s">
+    <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B207" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="M203" s="2" t="n">
-        <f aca="false">M202/8</f>
-        <v>22.0625</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B204" s="2" t="s">
+      <c r="C207" s="25"/>
+      <c r="K207" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C204" s="25"/>
-    </row>
-    <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B205" s="2" t="s">
+      <c r="M207" s="2" t="n">
+        <f aca="false">M206-M204</f>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C208" s="25"/>
+      <c r="K208" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C205" s="25"/>
-    </row>
-    <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B206" s="2" t="s">
+      <c r="M208" s="2" t="n">
+        <f aca="false">M207/8</f>
+        <v>21.375</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B209" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C206" s="58"/>
-    </row>
-    <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B207" s="2" t="s">
+      <c r="C209" s="25"/>
+    </row>
+    <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B210" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B209" s="15" t="s">
+      <c r="C210" s="25"/>
+    </row>
+    <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B211" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B210" s="15" t="s">
+      <c r="C211" s="58"/>
+    </row>
+    <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B212" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B211" s="15" t="s">
+    <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B214" s="15" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B212" s="15" t="s">
+    <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B215" s="15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B213" s="15" t="s">
+    <row r="216" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B216" s="15" t="s">
         <v>150</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B217" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B218" s="15" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -5680,99 +5761,99 @@
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="60"/>
       <c r="B2" s="61" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C2" s="62"/>
       <c r="D2" s="60"/>
       <c r="E2" s="63" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F2" s="64"/>
       <c r="G2" s="60"/>
       <c r="H2" s="63" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I2" s="64"/>
       <c r="J2" s="60"/>
       <c r="K2" s="63" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L2" s="64"/>
       <c r="M2" s="60"/>
       <c r="N2" s="63" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O2" s="65"/>
       <c r="P2" s="60"/>
       <c r="Q2" s="63" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="R2" s="64"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="60"/>
       <c r="B3" s="66" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C3" s="62" t="n">
-        <f aca="false">SUM(Tasks_23_24!C338:E338)</f>
+        <f aca="false">SUM(Tasks_23_24!C343:E343)</f>
         <v>0</v>
       </c>
       <c r="D3" s="60"/>
       <c r="E3" s="67" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F3" s="68" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G3" s="60"/>
       <c r="H3" s="67" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I3" s="68" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J3" s="60"/>
       <c r="K3" s="67" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L3" s="68" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M3" s="60"/>
       <c r="N3" s="67" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O3" s="68" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P3" s="60"/>
       <c r="Q3" s="67" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="R3" s="68" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="60"/>
       <c r="B4" s="69" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C4" s="70" t="n">
         <v>100</v>
       </c>
       <c r="D4" s="60"/>
       <c r="E4" s="65" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F4" s="71" t="e">
-        <f aca="false">SUM(Tasks_23_24!F508:G508)+#REF!*228/496</f>
+        <f aca="false">SUM(Tasks_23_24!F513:G513)+#REF!*228/496</f>
         <v>#REF!</v>
       </c>
       <c r="G4" s="60"/>
       <c r="H4" s="65" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I4" s="71" t="e">
         <f aca="false">#REF!+#REF!*80/496</f>
@@ -5780,15 +5861,15 @@
       </c>
       <c r="J4" s="60"/>
       <c r="K4" s="65" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L4" s="71" t="e">
-        <f aca="false">Tasks_23_24!H508+#REF!*36/496</f>
+        <f aca="false">Tasks_23_24!H513+#REF!*36/496</f>
         <v>#REF!</v>
       </c>
       <c r="M4" s="60"/>
       <c r="N4" s="65" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O4" s="71" t="e">
         <f aca="false">#REF!+#REF!*24/496</f>
@@ -5796,17 +5877,17 @@
       </c>
       <c r="P4" s="60"/>
       <c r="Q4" s="65" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="R4" s="71" t="e">
-        <f aca="false">Tasks_23_24!I508+#REF!*128/496</f>
+        <f aca="false">Tasks_23_24!I513+#REF!*128/496</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="60"/>
       <c r="B5" s="72" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C5" s="73" t="n">
         <f aca="false">C3*C4</f>
@@ -5814,35 +5895,35 @@
       </c>
       <c r="D5" s="60"/>
       <c r="E5" s="74" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F5" s="75" t="n">
         <v>100</v>
       </c>
       <c r="G5" s="60"/>
       <c r="H5" s="74" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I5" s="75" t="n">
         <v>100</v>
       </c>
       <c r="J5" s="60"/>
       <c r="K5" s="74" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L5" s="75" t="n">
         <v>100</v>
       </c>
       <c r="M5" s="60"/>
       <c r="N5" s="74" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O5" s="75" t="n">
         <v>100</v>
       </c>
       <c r="P5" s="60"/>
       <c r="Q5" s="74" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="R5" s="75" t="n">
         <v>100</v>
@@ -5851,7 +5932,7 @@
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="60"/>
       <c r="B6" s="69" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C6" s="76" t="n">
         <f aca="false">C5*0.2</f>
@@ -5859,7 +5940,7 @@
       </c>
       <c r="D6" s="60"/>
       <c r="E6" s="77" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F6" s="78" t="e">
         <f aca="false">F4*F5</f>
@@ -5867,7 +5948,7 @@
       </c>
       <c r="G6" s="60"/>
       <c r="H6" s="77" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I6" s="78" t="e">
         <f aca="false">I4*I5</f>
@@ -5875,7 +5956,7 @@
       </c>
       <c r="J6" s="60"/>
       <c r="K6" s="77" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L6" s="78" t="e">
         <f aca="false">L4*L5</f>
@@ -5883,7 +5964,7 @@
       </c>
       <c r="M6" s="60"/>
       <c r="N6" s="77" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O6" s="78" t="e">
         <f aca="false">O4*O5</f>
@@ -5891,7 +5972,7 @@
       </c>
       <c r="P6" s="60"/>
       <c r="Q6" s="77" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="R6" s="78" t="e">
         <f aca="false">R4*R5</f>
@@ -5901,7 +5982,7 @@
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="60"/>
       <c r="B7" s="79" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C7" s="80" t="n">
         <f aca="false">C5+C6</f>
@@ -5909,7 +5990,7 @@
       </c>
       <c r="D7" s="60"/>
       <c r="E7" s="74" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F7" s="71" t="e">
         <f aca="false">F6*0.2</f>
@@ -5917,7 +5998,7 @@
       </c>
       <c r="G7" s="60"/>
       <c r="H7" s="74" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I7" s="71" t="e">
         <f aca="false">I6*0.2</f>
@@ -5925,7 +6006,7 @@
       </c>
       <c r="J7" s="60"/>
       <c r="K7" s="74" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L7" s="71" t="e">
         <f aca="false">L6*0.2</f>
@@ -5933,7 +6014,7 @@
       </c>
       <c r="M7" s="60"/>
       <c r="N7" s="74" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O7" s="71" t="e">
         <f aca="false">O6*0.2</f>
@@ -5941,7 +6022,7 @@
       </c>
       <c r="P7" s="60"/>
       <c r="Q7" s="74" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="R7" s="71" t="e">
         <f aca="false">R6*0.2</f>
@@ -5950,7 +6031,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E8" s="79" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F8" s="80" t="e">
         <f aca="false">F6+F7</f>
@@ -5958,7 +6039,7 @@
       </c>
       <c r="G8" s="60"/>
       <c r="H8" s="79" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I8" s="80" t="e">
         <f aca="false">I6+I7</f>
@@ -5966,7 +6047,7 @@
       </c>
       <c r="J8" s="60"/>
       <c r="K8" s="79" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L8" s="80" t="e">
         <f aca="false">L6+L7</f>
@@ -5974,7 +6055,7 @@
       </c>
       <c r="M8" s="60"/>
       <c r="N8" s="79" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O8" s="80" t="e">
         <f aca="false">O6+O7</f>
@@ -5982,7 +6063,7 @@
       </c>
       <c r="P8" s="60"/>
       <c r="Q8" s="79" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="R8" s="80" t="e">
         <f aca="false">R6+R7</f>
@@ -5994,15 +6075,15 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E10" s="67" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F10" s="68" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E11" s="59" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F11" s="81" t="e">
         <f aca="false">F4+I4+L4+R4+O4</f>
@@ -6011,7 +6092,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E12" s="79" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F12" s="80" t="e">
         <f aca="false">F6+I6+L6+R6+O6</f>
@@ -6021,7 +6102,7 @@
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="60"/>
       <c r="B13" s="82" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C13" s="83" t="e">
         <f aca="false">C7+F12</f>

--- a/SustSol/TimeTracking_2025.xlsx
+++ b/SustSol/TimeTracking_2025.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="169">
   <si>
     <t xml:space="preserve">SustSol Time Tracking</t>
   </si>
@@ -410,28 +410,19 @@
     <t xml:space="preserve">F&amp;E grant proposal WebViewer DICOM-WEB v0</t>
   </si>
   <si>
+    <t xml:space="preserve">Monday – rest of projects: epics &amp; tasks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;ImageViewer/&gt; component refactoring (splitting functionality)</t>
   </si>
   <si>
-    <t xml:space="preserve">x</t>
-  </si>
-  <si>
     <t xml:space="preserve">Schluckakt-2-Avif extractor Python (for demo)</t>
   </si>
   <si>
-    <t xml:space="preserve">Externalized state management for new WebViewer (Tigerstate II)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Basic Layout for new Viewer (CSS Grid + animations)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Svelte/kit "Native" with Capacitor + Konsta UI+ iOS Simulator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WebViewer Mobile UI planning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WebViewer Mobile UI separation strategy</t>
   </si>
   <si>
     <t xml:space="preserve">Sum hours</t>
@@ -581,7 +572,7 @@
     <numFmt numFmtId="168" formatCode="d\-mmm"/>
     <numFmt numFmtId="169" formatCode="0"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -702,6 +693,13 @@
     <font>
       <sz val="10"/>
       <color theme="0"/>
+      <name val="LiterationSerif Nerd Font"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="LiterationSerif Nerd Font"/>
       <family val="1"/>
       <charset val="1"/>
@@ -1075,7 +1073,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="90">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1164,15 +1162,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="19" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="18" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="20" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1180,23 +1190,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="22" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="23" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="23" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1204,35 +1214,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="24" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1240,7 +1226,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1248,7 +1234,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1256,27 +1242,51 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="26" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1292,11 +1302,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1304,7 +1314,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1312,11 +1322,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1324,103 +1338,99 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="32" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="31" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="33" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="32" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="32" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="34" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="32" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="32" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="30" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="31" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="34" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="35" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="35" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="33" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="36" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="31" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="29" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="34" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="35" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1689,27 +1699,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD218"/>
+  <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A155" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E169" activeCellId="0" sqref="E169"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A165" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B175" activeCellId="0" sqref="B175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="5.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="6.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="6.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="6.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="5.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="6.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="5.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="5.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="5.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="5.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="2" width="5.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="5.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="7" style="2" width="5.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1017" min="14" style="2" width="11.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1018" min="1018" style="2" width="12.67"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16378" min="1019" style="2" width="11"/>
@@ -4993,11 +4995,11 @@
       <c r="B166" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C166" s="16"/>
+      <c r="C166" s="16" t="n">
+        <v>1.5</v>
+      </c>
       <c r="D166" s="16"/>
-      <c r="E166" s="16" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="E166" s="16"/>
       <c r="F166" s="17"/>
       <c r="G166" s="17"/>
       <c r="H166" s="17"/>
@@ -5008,7 +5010,7 @@
       <c r="M166" s="18"/>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0"/>
+      <c r="A167" s="21"/>
       <c r="C167" s="16"/>
       <c r="D167" s="16"/>
       <c r="E167" s="16"/>
@@ -5029,10 +5031,10 @@
         <v>128</v>
       </c>
       <c r="C168" s="16"/>
-      <c r="D168" s="16"/>
-      <c r="E168" s="16" t="n">
+      <c r="D168" s="16" t="n">
         <v>2</v>
       </c>
+      <c r="E168" s="16"/>
       <c r="F168" s="17"/>
       <c r="G168" s="17"/>
       <c r="H168" s="17"/>
@@ -5043,8 +5045,16 @@
       <c r="M168" s="18"/>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="C169" s="16"/>
-      <c r="D169" s="16"/>
+      <c r="D169" s="16" t="s">
+        <v>130</v>
+      </c>
       <c r="E169" s="16"/>
       <c r="F169" s="17"/>
       <c r="G169" s="17"/>
@@ -5057,7 +5067,7 @@
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B170" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C170" s="16"/>
       <c r="D170" s="16"/>
@@ -5075,7 +5085,7 @@
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B171" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C171" s="16"/>
       <c r="D171" s="16"/>
@@ -5112,13 +5122,13 @@
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B173" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C173" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C173" s="16"/>
+      <c r="D173" s="16"/>
+      <c r="E173" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D173" s="16"/>
-      <c r="E173" s="16"/>
       <c r="F173" s="17"/>
       <c r="G173" s="17"/>
       <c r="H173" s="17"/>
@@ -5129,14 +5139,9 @@
       <c r="M173" s="18"/>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B174" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="C174" s="16"/>
       <c r="D174" s="16"/>
-      <c r="E174" s="16" t="s">
-        <v>130</v>
-      </c>
+      <c r="E174" s="16"/>
       <c r="F174" s="17"/>
       <c r="G174" s="17"/>
       <c r="H174" s="17"/>
@@ -5147,14 +5152,9 @@
       <c r="M174" s="18"/>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B175" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="C175" s="16"/>
       <c r="D175" s="16"/>
-      <c r="E175" s="16" t="s">
-        <v>130</v>
-      </c>
+      <c r="E175" s="16"/>
       <c r="F175" s="17"/>
       <c r="G175" s="17"/>
       <c r="H175" s="17"/>
@@ -5165,9 +5165,11 @@
       <c r="M175" s="18"/>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C176" s="16"/>
-      <c r="D176" s="16"/>
-      <c r="E176" s="16"/>
+      <c r="A176" s="22"/>
+      <c r="B176" s="23"/>
+      <c r="C176" s="24"/>
+      <c r="D176" s="24"/>
+      <c r="E176" s="24"/>
       <c r="F176" s="17"/>
       <c r="G176" s="17"/>
       <c r="H176" s="17"/>
@@ -5178,9 +5180,11 @@
       <c r="M176" s="18"/>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C177" s="16"/>
-      <c r="D177" s="16"/>
-      <c r="E177" s="16"/>
+      <c r="A177" s="22"/>
+      <c r="B177" s="23"/>
+      <c r="C177" s="24"/>
+      <c r="D177" s="24"/>
+      <c r="E177" s="24"/>
       <c r="F177" s="17"/>
       <c r="G177" s="17"/>
       <c r="H177" s="17"/>
@@ -5191,9 +5195,11 @@
       <c r="M177" s="18"/>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C178" s="16"/>
-      <c r="D178" s="16"/>
-      <c r="E178" s="16"/>
+      <c r="A178" s="22"/>
+      <c r="B178" s="23"/>
+      <c r="C178" s="24"/>
+      <c r="D178" s="24"/>
+      <c r="E178" s="24"/>
       <c r="F178" s="17"/>
       <c r="G178" s="17"/>
       <c r="H178" s="17"/>
@@ -5204,12 +5210,11 @@
       <c r="M178" s="18"/>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B179" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C179" s="16"/>
-      <c r="D179" s="16"/>
-      <c r="E179" s="16"/>
+      <c r="A179" s="22"/>
+      <c r="B179" s="23"/>
+      <c r="C179" s="24"/>
+      <c r="D179" s="24"/>
+      <c r="E179" s="24"/>
       <c r="F179" s="17"/>
       <c r="G179" s="17"/>
       <c r="H179" s="17"/>
@@ -5220,12 +5225,11 @@
       <c r="M179" s="18"/>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B180" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C180" s="16"/>
-      <c r="D180" s="16"/>
-      <c r="E180" s="16"/>
+      <c r="A180" s="22"/>
+      <c r="B180" s="23"/>
+      <c r="C180" s="24"/>
+      <c r="D180" s="24"/>
+      <c r="E180" s="24"/>
       <c r="F180" s="17"/>
       <c r="G180" s="17"/>
       <c r="H180" s="17"/>
@@ -5236,12 +5240,11 @@
       <c r="M180" s="18"/>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B181" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C181" s="16"/>
-      <c r="D181" s="16"/>
-      <c r="E181" s="16"/>
+      <c r="A181" s="22"/>
+      <c r="B181" s="23"/>
+      <c r="C181" s="24"/>
+      <c r="D181" s="24"/>
+      <c r="E181" s="24"/>
       <c r="F181" s="17"/>
       <c r="G181" s="17"/>
       <c r="H181" s="17"/>
@@ -5278,6 +5281,7 @@
       <c r="M183" s="18"/>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B184" s="21"/>
       <c r="C184" s="16"/>
       <c r="D184" s="16"/>
       <c r="E184" s="16"/>
@@ -5291,6 +5295,7 @@
       <c r="M184" s="18"/>
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B185" s="21"/>
       <c r="C185" s="16"/>
       <c r="D185" s="16"/>
       <c r="E185" s="16"/>
@@ -5304,7 +5309,7 @@
       <c r="M185" s="18"/>
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B186" s="21"/>
+      <c r="B186" s="15"/>
       <c r="C186" s="16"/>
       <c r="D186" s="16"/>
       <c r="E186" s="16"/>
@@ -5318,7 +5323,6 @@
       <c r="M186" s="18"/>
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B187" s="21"/>
       <c r="C187" s="16"/>
       <c r="D187" s="16"/>
       <c r="E187" s="16"/>
@@ -5332,7 +5336,6 @@
       <c r="M187" s="18"/>
     </row>
     <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B188" s="15"/>
       <c r="C188" s="16"/>
       <c r="D188" s="16"/>
       <c r="E188" s="16"/>
@@ -5346,363 +5349,339 @@
       <c r="M188" s="18"/>
     </row>
     <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C189" s="16"/>
-      <c r="D189" s="16"/>
-      <c r="E189" s="16"/>
-      <c r="F189" s="17"/>
-      <c r="G189" s="17"/>
-      <c r="H189" s="17"/>
-      <c r="I189" s="17"/>
-      <c r="J189" s="18"/>
-      <c r="K189" s="18"/>
-      <c r="L189" s="18"/>
-      <c r="M189" s="18"/>
+      <c r="A189" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="B189" s="15"/>
+      <c r="C189" s="26" t="n">
+        <f aca="false">SUM(C4:C188)</f>
+        <v>48</v>
+      </c>
+      <c r="D189" s="26" t="n">
+        <f aca="false">SUM(D4:D188)</f>
+        <v>72</v>
+      </c>
+      <c r="E189" s="26" t="n">
+        <f aca="false">SUM(E4:E188)</f>
+        <v>146</v>
+      </c>
+      <c r="F189" s="27" t="n">
+        <f aca="false">SUM(F4:F188)</f>
+        <v>8.5</v>
+      </c>
+      <c r="G189" s="27" t="n">
+        <f aca="false">SUM(G4:G188)</f>
+        <v>85</v>
+      </c>
+      <c r="H189" s="27" t="n">
+        <f aca="false">SUM(H4:H188)</f>
+        <v>1</v>
+      </c>
+      <c r="I189" s="27" t="n">
+        <f aca="false">SUM(I4:I188)</f>
+        <v>0</v>
+      </c>
+      <c r="J189" s="27" t="n">
+        <f aca="false">SUM(J4:J188)</f>
+        <v>51.5</v>
+      </c>
+      <c r="K189" s="27" t="n">
+        <f aca="false">SUM(K4:K188)</f>
+        <v>0</v>
+      </c>
+      <c r="L189" s="27" t="n">
+        <f aca="false">SUM(L4:L188)</f>
+        <v>0</v>
+      </c>
+      <c r="M189" s="27" t="n">
+        <f aca="false">SUM(M4:M188)</f>
+        <v>0</v>
+      </c>
+      <c r="N189" s="15"/>
+      <c r="O189" s="15"/>
+      <c r="P189" s="15"/>
+      <c r="Q189" s="15"/>
+      <c r="R189" s="15"/>
+      <c r="S189" s="15"/>
+      <c r="T189" s="15"/>
+      <c r="U189" s="15"/>
+      <c r="V189" s="15"/>
+      <c r="W189" s="15"/>
+      <c r="X189" s="15"/>
+      <c r="Y189" s="15"/>
+      <c r="Z189" s="15"/>
+      <c r="AA189" s="15"/>
+      <c r="AB189" s="15"/>
+      <c r="AC189" s="15"/>
+      <c r="AD189" s="15"/>
+      <c r="AE189" s="15"/>
     </row>
     <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C190" s="16"/>
-      <c r="D190" s="16"/>
-      <c r="E190" s="16"/>
-      <c r="F190" s="17"/>
-      <c r="G190" s="17"/>
-      <c r="H190" s="17"/>
-      <c r="I190" s="17"/>
-      <c r="J190" s="18"/>
-      <c r="K190" s="18"/>
-      <c r="L190" s="18"/>
-      <c r="M190" s="18"/>
-    </row>
-    <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A191" s="22" t="s">
-        <v>137</v>
-      </c>
+      <c r="B190" s="15"/>
+      <c r="C190" s="28"/>
+      <c r="D190" s="28"/>
+      <c r="E190" s="28"/>
+      <c r="F190" s="28"/>
+      <c r="G190" s="28"/>
+      <c r="H190" s="28"/>
+      <c r="I190" s="28"/>
+      <c r="J190" s="28"/>
+      <c r="K190" s="28"/>
+      <c r="L190" s="28"/>
+      <c r="M190" s="28"/>
+    </row>
+    <row r="191" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B191" s="15"/>
-      <c r="C191" s="23" t="n">
-        <f aca="false">SUM(C4:C190)</f>
-        <v>46.5</v>
-      </c>
-      <c r="D191" s="23" t="n">
-        <f aca="false">SUM(D4:D190)</f>
-        <v>70</v>
-      </c>
-      <c r="E191" s="23" t="n">
-        <f aca="false">SUM(E4:E190)</f>
-        <v>149.5</v>
-      </c>
-      <c r="F191" s="24" t="n">
-        <f aca="false">SUM(F4:F190)</f>
-        <v>8.5</v>
-      </c>
-      <c r="G191" s="24" t="n">
-        <f aca="false">SUM(G4:G190)</f>
-        <v>85</v>
-      </c>
-      <c r="H191" s="24" t="n">
-        <f aca="false">SUM(H4:H190)</f>
-        <v>1</v>
-      </c>
-      <c r="I191" s="24" t="n">
-        <f aca="false">SUM(I4:I190)</f>
-        <v>0</v>
-      </c>
-      <c r="J191" s="24" t="n">
-        <f aca="false">SUM(J4:J190)</f>
-        <v>51.5</v>
-      </c>
-      <c r="K191" s="24" t="n">
-        <f aca="false">SUM(K4:K190)</f>
-        <v>0</v>
-      </c>
-      <c r="L191" s="24" t="n">
-        <f aca="false">SUM(L4:L190)</f>
-        <v>0</v>
-      </c>
-      <c r="M191" s="24" t="n">
-        <f aca="false">SUM(M4:M190)</f>
-        <v>0</v>
-      </c>
-      <c r="N191" s="15"/>
-      <c r="O191" s="15"/>
-      <c r="P191" s="15"/>
-      <c r="Q191" s="15"/>
-      <c r="R191" s="15"/>
-      <c r="S191" s="15"/>
-      <c r="T191" s="15"/>
-      <c r="U191" s="15"/>
-      <c r="V191" s="15"/>
-      <c r="W191" s="15"/>
-      <c r="X191" s="15"/>
-      <c r="Y191" s="15"/>
-      <c r="Z191" s="15"/>
-      <c r="AA191" s="15"/>
-      <c r="AB191" s="15"/>
-      <c r="AC191" s="15"/>
-      <c r="AD191" s="15"/>
-      <c r="AE191" s="15"/>
+      <c r="D191" s="29"/>
+      <c r="E191" s="29"/>
+      <c r="F191" s="28"/>
+      <c r="H191" s="30"/>
+      <c r="I191" s="30"/>
+      <c r="J191" s="28"/>
+      <c r="K191" s="28"/>
+      <c r="L191" s="31"/>
+      <c r="M191" s="31"/>
     </row>
     <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B192" s="15"/>
-      <c r="C192" s="25"/>
-      <c r="D192" s="25"/>
-      <c r="E192" s="25"/>
-      <c r="F192" s="25"/>
-      <c r="G192" s="25"/>
-      <c r="H192" s="25"/>
-      <c r="I192" s="25"/>
-      <c r="J192" s="25"/>
-      <c r="K192" s="25"/>
-      <c r="L192" s="25"/>
-      <c r="M192" s="25"/>
+      <c r="D192" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E192" s="29" t="n">
+        <f aca="false">SUM(C189:E189)</f>
+        <v>266</v>
+      </c>
+      <c r="F192" s="28"/>
+      <c r="H192" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I192" s="30" t="n">
+        <f aca="false">SUM(F189:I189)</f>
+        <v>94.5</v>
+      </c>
+      <c r="J192" s="28"/>
+      <c r="K192" s="28"/>
+      <c r="L192" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="M192" s="31" t="n">
+        <f aca="false">SUM(J189:M189)</f>
+        <v>51.5</v>
+      </c>
     </row>
     <row r="193" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B193" s="15"/>
-      <c r="D193" s="26"/>
-      <c r="E193" s="26"/>
-      <c r="F193" s="25"/>
-      <c r="H193" s="27"/>
-      <c r="I193" s="27"/>
-      <c r="J193" s="25"/>
-      <c r="K193" s="25"/>
-      <c r="L193" s="28"/>
-      <c r="M193" s="28"/>
-    </row>
-    <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D193" s="29"/>
+      <c r="E193" s="29"/>
+      <c r="F193" s="28"/>
+      <c r="H193" s="30"/>
+      <c r="I193" s="30"/>
+      <c r="J193" s="28"/>
+      <c r="K193" s="28"/>
+      <c r="L193" s="31"/>
+      <c r="M193" s="31"/>
+    </row>
+    <row r="194" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B194" s="15"/>
-      <c r="D194" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="E194" s="26" t="n">
-        <f aca="false">SUM(C191:E191)</f>
-        <v>266</v>
-      </c>
-      <c r="F194" s="25"/>
-      <c r="H194" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="I194" s="27" t="n">
-        <f aca="false">SUM(F191:I191)</f>
-        <v>94.5</v>
-      </c>
-      <c r="J194" s="25"/>
-      <c r="K194" s="25"/>
-      <c r="L194" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="M194" s="28" t="n">
-        <f aca="false">SUM(J191:M191)</f>
-        <v>51.5</v>
-      </c>
+      <c r="D194" s="35"/>
+      <c r="E194" s="35"/>
+      <c r="F194" s="28"/>
+      <c r="H194" s="35"/>
+      <c r="I194" s="35"/>
+      <c r="J194" s="28"/>
+      <c r="K194" s="28"/>
+      <c r="L194" s="36"/>
+      <c r="M194" s="36"/>
     </row>
     <row r="195" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B195" s="15"/>
-      <c r="D195" s="26"/>
-      <c r="E195" s="26"/>
-      <c r="F195" s="25"/>
-      <c r="H195" s="27"/>
-      <c r="I195" s="27"/>
-      <c r="J195" s="25"/>
-      <c r="K195" s="25"/>
-      <c r="L195" s="28"/>
-      <c r="M195" s="28"/>
-    </row>
-    <row r="196" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D195" s="37"/>
+      <c r="E195" s="38"/>
+      <c r="H195" s="39"/>
+      <c r="I195" s="40"/>
+      <c r="L195" s="41"/>
+      <c r="M195" s="42"/>
+    </row>
+    <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B196" s="15"/>
-      <c r="D196" s="32"/>
-      <c r="E196" s="32"/>
-      <c r="F196" s="25"/>
-      <c r="H196" s="32"/>
-      <c r="I196" s="32"/>
-      <c r="J196" s="25"/>
-      <c r="K196" s="25"/>
-      <c r="L196" s="33"/>
-      <c r="M196" s="33"/>
-    </row>
-    <row r="197" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D196" s="43" t="n">
+        <v>2025</v>
+      </c>
+      <c r="E196" s="44" t="n">
+        <f aca="false">SUM(C4:E188)</f>
+        <v>266</v>
+      </c>
+      <c r="H196" s="45" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I196" s="46" t="n">
+        <f aca="false">SUM(F4:I188)</f>
+        <v>94.5</v>
+      </c>
+      <c r="L196" s="47" t="n">
+        <v>2025</v>
+      </c>
+      <c r="M196" s="48" t="n">
+        <f aca="false">SUM(J4:M188)</f>
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B197" s="15"/>
-      <c r="D197" s="34"/>
-      <c r="E197" s="35"/>
-      <c r="H197" s="36"/>
-      <c r="I197" s="37"/>
-      <c r="L197" s="38"/>
-      <c r="M197" s="39"/>
-    </row>
-    <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D197" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="E197" s="44" t="n">
+        <f aca="false">SUM(C155:E188)</f>
+        <v>27</v>
+      </c>
+      <c r="H197" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="I197" s="46" t="n">
+        <f aca="false">SUM(F155:I188)</f>
+        <v>2</v>
+      </c>
+      <c r="L197" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="M197" s="48" t="n">
+        <f aca="false">SUM(J155:M188)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B198" s="15"/>
-      <c r="D198" s="40" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E198" s="41" t="n">
-        <f aca="false">SUM(C4:E190)</f>
-        <v>266</v>
-      </c>
-      <c r="H198" s="42" t="n">
-        <v>2025</v>
-      </c>
-      <c r="I198" s="43" t="n">
-        <f aca="false">SUM(F4:I190)</f>
-        <v>94.5</v>
-      </c>
-      <c r="L198" s="44" t="n">
-        <v>2025</v>
-      </c>
-      <c r="M198" s="45" t="n">
-        <f aca="false">SUM(J4:M190)</f>
-        <v>51.5</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D198" s="37"/>
+      <c r="E198" s="38"/>
+      <c r="H198" s="39"/>
+      <c r="I198" s="40"/>
+      <c r="K198" s="52"/>
+      <c r="L198" s="41"/>
+      <c r="M198" s="42"/>
+    </row>
+    <row r="199" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B199" s="15"/>
-      <c r="D199" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="E199" s="41" t="n">
-        <f aca="false">SUM(C155:E190)</f>
-        <v>27</v>
-      </c>
-      <c r="H199" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="I199" s="43" t="n">
-        <f aca="false">SUM(F155:I190)</f>
-        <v>2</v>
-      </c>
-      <c r="L199" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="M199" s="45" t="n">
-        <f aca="false">SUM(J155:M190)</f>
-        <v>0</v>
-      </c>
+      <c r="E199" s="28"/>
+      <c r="K199" s="52"/>
+      <c r="M199" s="28"/>
     </row>
     <row r="200" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B200" s="15"/>
-      <c r="D200" s="34"/>
-      <c r="E200" s="35"/>
-      <c r="H200" s="36"/>
-      <c r="I200" s="37"/>
-      <c r="K200" s="49"/>
-      <c r="L200" s="38"/>
-      <c r="M200" s="39"/>
-    </row>
-    <row r="201" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E200" s="28"/>
+      <c r="K200" s="53"/>
+      <c r="L200" s="54"/>
+      <c r="M200" s="55"/>
+    </row>
+    <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B201" s="15"/>
-      <c r="E201" s="25"/>
-      <c r="K201" s="49"/>
-      <c r="M201" s="25"/>
-    </row>
-    <row r="202" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B202" s="15"/>
-      <c r="E202" s="25"/>
-      <c r="K202" s="50"/>
-      <c r="L202" s="51"/>
-      <c r="M202" s="52"/>
-    </row>
-    <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B203" s="15"/>
-      <c r="E203" s="25"/>
-      <c r="K203" s="50" t="s">
+      <c r="E201" s="28"/>
+      <c r="K201" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="L201" s="56"/>
+      <c r="M201" s="57" t="n">
+        <f aca="false">SUM(C4:M188)</f>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K202" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="L202" s="58"/>
+      <c r="M202" s="57" t="n">
+        <f aca="false">E197+I197+M197</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K203" s="54"/>
+      <c r="L203" s="54"/>
+      <c r="M203" s="55"/>
+    </row>
+    <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C204" s="28"/>
+      <c r="K204" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="M204" s="2" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B205" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="C205" s="28"/>
+      <c r="K205" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="L203" s="53"/>
-      <c r="M203" s="54" t="n">
-        <f aca="false">SUM(C4:M190)</f>
-        <v>412</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K204" s="50" t="s">
-        <v>138</v>
-      </c>
-      <c r="L204" s="55"/>
-      <c r="M204" s="54" t="n">
-        <f aca="false">E199+I199+M199</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K205" s="51"/>
-      <c r="L205" s="51"/>
-      <c r="M205" s="52"/>
+      <c r="M205" s="2" t="n">
+        <f aca="false">M204-M202</f>
+        <v>171</v>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C206" s="25"/>
-      <c r="K206" s="56" t="s">
+      <c r="C206" s="28"/>
+      <c r="K206" s="2" t="s">
         <v>140</v>
       </c>
       <c r="M206" s="2" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B207" s="57" t="s">
+        <f aca="false">M205/8</f>
+        <v>21.375</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B207" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C207" s="25"/>
-      <c r="K207" s="2" t="s">
+      <c r="C207" s="28"/>
+    </row>
+    <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B208" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="M207" s="2" t="n">
-        <f aca="false">M206-M204</f>
-        <v>171</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C208" s="25"/>
-      <c r="K208" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="M208" s="2" t="n">
-        <f aca="false">M207/8</f>
-        <v>21.375</v>
-      </c>
+      <c r="C208" s="28"/>
     </row>
     <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B209" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C209" s="61"/>
+    </row>
+    <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B210" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C209" s="25"/>
-    </row>
-    <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B210" s="2" t="s">
+    </row>
+    <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B212" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="C210" s="25"/>
-    </row>
-    <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B211" s="2" t="s">
+    </row>
+    <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B213" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C211" s="58"/>
-    </row>
-    <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B212" s="2" t="s">
+    </row>
+    <row r="214" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B214" s="15" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B214" s="15" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B215" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B216" s="15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B216" s="15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B217" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B218" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C2:E2"/>
@@ -5726,385 +5705,385 @@
   </sheetPr>
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.66015625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="59" width="3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="59" width="18.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="59" width="15.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="59" width="2.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="59" width="15.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="59" width="15.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="59" width="2.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="59" width="15.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="59" width="14.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="59" width="2.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="59" width="15.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="59" width="14.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="59" width="2.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="59" width="15.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="59" width="14.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="59" width="2.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="59" width="15.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="59" width="14.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="59" width="11.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="21" style="59" width="7.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="59" width="12.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1025" style="59" width="11"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1026" style="59" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="62" width="3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="62" width="18.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="62" width="15.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="62" width="2.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="62" width="15.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="62" width="15.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="62" width="2.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="62" width="15.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="62" width="14.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="62" width="2.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="62" width="15.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="62" width="14.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="62" width="2.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="62" width="15.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="62" width="14.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="62" width="2.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="62" width="15.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="62" width="14.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="62" width="11.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="21" style="62" width="7.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="62" width="12.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1025" style="62" width="11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1026" style="62" width="10.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="67"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="I2" s="67"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="L2" s="67"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="O2" s="68"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="R2" s="67"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="63"/>
+      <c r="B3" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="65" t="n">
+        <f aca="false">SUM(Tasks_23_24!C341:E341)</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="63"/>
+      <c r="E3" s="70" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="63" t="s">
+      <c r="F3" s="71" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="63" t="s">
-        <v>154</v>
-      </c>
-      <c r="I2" s="64"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="63" t="s">
-        <v>154</v>
-      </c>
-      <c r="L2" s="64"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="63" t="s">
-        <v>154</v>
-      </c>
-      <c r="O2" s="65"/>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="63" t="s">
-        <v>154</v>
-      </c>
-      <c r="R2" s="64"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="60"/>
-      <c r="B3" s="66" t="s">
+      <c r="G3" s="63"/>
+      <c r="H3" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="62" t="n">
-        <f aca="false">SUM(Tasks_23_24!C343:E343)</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="67" t="s">
+      <c r="I3" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="J3" s="63"/>
+      <c r="K3" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="G3" s="60"/>
-      <c r="H3" s="67" t="s">
+      <c r="L3" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="I3" s="68" t="s">
+      <c r="M3" s="63"/>
+      <c r="N3" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="J3" s="60"/>
-      <c r="K3" s="67" t="s">
+      <c r="O3" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="L3" s="68" t="s">
+      <c r="P3" s="63"/>
+      <c r="Q3" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="M3" s="60"/>
-      <c r="N3" s="67" t="s">
+      <c r="R3" s="71" t="s">
         <v>162</v>
       </c>
-      <c r="O3" s="68" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="63"/>
+      <c r="B4" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="P3" s="60"/>
-      <c r="Q3" s="67" t="s">
-        <v>164</v>
-      </c>
-      <c r="R3" s="68" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="60"/>
-      <c r="B4" s="69" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="70" t="n">
+      <c r="C4" s="73" t="n">
         <v>100</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="F4" s="71" t="e">
-        <f aca="false">SUM(Tasks_23_24!F513:G513)+#REF!*228/496</f>
+      <c r="D4" s="63"/>
+      <c r="E4" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="74" t="e">
+        <f aca="false">SUM(Tasks_23_24!F511:G511)+#REF!*228/496</f>
         <v>#REF!</v>
       </c>
-      <c r="G4" s="60"/>
-      <c r="H4" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="I4" s="71" t="e">
+      <c r="G4" s="63"/>
+      <c r="H4" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="I4" s="74" t="e">
         <f aca="false">#REF!+#REF!*80/496</f>
         <v>#REF!</v>
       </c>
-      <c r="J4" s="60"/>
-      <c r="K4" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="L4" s="71" t="e">
-        <f aca="false">Tasks_23_24!H513+#REF!*36/496</f>
+      <c r="J4" s="63"/>
+      <c r="K4" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="L4" s="74" t="e">
+        <f aca="false">Tasks_23_24!H511+#REF!*36/496</f>
         <v>#REF!</v>
       </c>
-      <c r="M4" s="60"/>
-      <c r="N4" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="O4" s="71" t="e">
+      <c r="M4" s="63"/>
+      <c r="N4" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="O4" s="74" t="e">
         <f aca="false">#REF!+#REF!*24/496</f>
         <v>#REF!</v>
       </c>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="R4" s="71" t="e">
-        <f aca="false">Tasks_23_24!I513+#REF!*128/496</f>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="68" t="s">
+        <v>152</v>
+      </c>
+      <c r="R4" s="74" t="e">
+        <f aca="false">Tasks_23_24!I511+#REF!*128/496</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="60"/>
-      <c r="B5" s="72" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" s="73" t="n">
+      <c r="A5" s="63"/>
+      <c r="B5" s="75" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="76" t="n">
         <f aca="false">C3*C4</f>
         <v>0</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="74" t="s">
-        <v>166</v>
-      </c>
-      <c r="F5" s="75" t="n">
+      <c r="D5" s="63"/>
+      <c r="E5" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="78" t="n">
         <v>100</v>
       </c>
-      <c r="G5" s="60"/>
-      <c r="H5" s="74" t="s">
-        <v>166</v>
-      </c>
-      <c r="I5" s="75" t="n">
+      <c r="G5" s="63"/>
+      <c r="H5" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="I5" s="78" t="n">
         <v>100</v>
       </c>
-      <c r="J5" s="60"/>
-      <c r="K5" s="74" t="s">
-        <v>166</v>
-      </c>
-      <c r="L5" s="75" t="n">
+      <c r="J5" s="63"/>
+      <c r="K5" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="L5" s="78" t="n">
         <v>100</v>
       </c>
-      <c r="M5" s="60"/>
-      <c r="N5" s="74" t="s">
-        <v>166</v>
-      </c>
-      <c r="O5" s="75" t="n">
+      <c r="M5" s="63"/>
+      <c r="N5" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="O5" s="78" t="n">
         <v>100</v>
       </c>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="74" t="s">
-        <v>166</v>
-      </c>
-      <c r="R5" s="75" t="n">
+      <c r="P5" s="63"/>
+      <c r="Q5" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="R5" s="78" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="60"/>
-      <c r="B6" s="69" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" s="76" t="n">
+      <c r="A6" s="63"/>
+      <c r="B6" s="72" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="79" t="n">
         <f aca="false">C5*0.2</f>
         <v>0</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="77" t="s">
-        <v>167</v>
-      </c>
-      <c r="F6" s="78" t="e">
+      <c r="D6" s="63"/>
+      <c r="E6" s="80" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" s="81" t="e">
         <f aca="false">F4*F5</f>
         <v>#REF!</v>
       </c>
-      <c r="G6" s="60"/>
-      <c r="H6" s="77" t="s">
-        <v>167</v>
-      </c>
-      <c r="I6" s="78" t="e">
+      <c r="G6" s="63"/>
+      <c r="H6" s="80" t="s">
+        <v>164</v>
+      </c>
+      <c r="I6" s="81" t="e">
         <f aca="false">I4*I5</f>
         <v>#REF!</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="77" t="s">
-        <v>167</v>
-      </c>
-      <c r="L6" s="78" t="e">
+      <c r="J6" s="63"/>
+      <c r="K6" s="80" t="s">
+        <v>164</v>
+      </c>
+      <c r="L6" s="81" t="e">
         <f aca="false">L4*L5</f>
         <v>#REF!</v>
       </c>
-      <c r="M6" s="60"/>
-      <c r="N6" s="77" t="s">
-        <v>167</v>
-      </c>
-      <c r="O6" s="78" t="e">
+      <c r="M6" s="63"/>
+      <c r="N6" s="80" t="s">
+        <v>164</v>
+      </c>
+      <c r="O6" s="81" t="e">
         <f aca="false">O4*O5</f>
         <v>#REF!</v>
       </c>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="77" t="s">
-        <v>167</v>
-      </c>
-      <c r="R6" s="78" t="e">
+      <c r="P6" s="63"/>
+      <c r="Q6" s="80" t="s">
+        <v>164</v>
+      </c>
+      <c r="R6" s="81" t="e">
         <f aca="false">R4*R5</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="60"/>
-      <c r="B7" s="79" t="s">
-        <v>169</v>
-      </c>
-      <c r="C7" s="80" t="n">
+      <c r="A7" s="63"/>
+      <c r="B7" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="83" t="n">
         <f aca="false">C5+C6</f>
         <v>0</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="74" t="s">
-        <v>168</v>
-      </c>
-      <c r="F7" s="71" t="e">
+      <c r="D7" s="63"/>
+      <c r="E7" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" s="74" t="e">
         <f aca="false">F6*0.2</f>
         <v>#REF!</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="74" t="s">
-        <v>168</v>
-      </c>
-      <c r="I7" s="71" t="e">
+      <c r="G7" s="63"/>
+      <c r="H7" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="I7" s="74" t="e">
         <f aca="false">I6*0.2</f>
         <v>#REF!</v>
       </c>
-      <c r="J7" s="60"/>
-      <c r="K7" s="74" t="s">
-        <v>168</v>
-      </c>
-      <c r="L7" s="71" t="e">
+      <c r="J7" s="63"/>
+      <c r="K7" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="L7" s="74" t="e">
         <f aca="false">L6*0.2</f>
         <v>#REF!</v>
       </c>
-      <c r="M7" s="60"/>
-      <c r="N7" s="74" t="s">
-        <v>168</v>
-      </c>
-      <c r="O7" s="71" t="e">
+      <c r="M7" s="63"/>
+      <c r="N7" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="O7" s="74" t="e">
         <f aca="false">O6*0.2</f>
         <v>#REF!</v>
       </c>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="74" t="s">
-        <v>168</v>
-      </c>
-      <c r="R7" s="71" t="e">
+      <c r="P7" s="63"/>
+      <c r="Q7" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="R7" s="74" t="e">
         <f aca="false">R6*0.2</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E8" s="79" t="s">
-        <v>169</v>
-      </c>
-      <c r="F8" s="80" t="e">
+      <c r="E8" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="83" t="e">
         <f aca="false">F6+F7</f>
         <v>#REF!</v>
       </c>
-      <c r="G8" s="60"/>
-      <c r="H8" s="79" t="s">
-        <v>169</v>
-      </c>
-      <c r="I8" s="80" t="e">
+      <c r="G8" s="63"/>
+      <c r="H8" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="I8" s="83" t="e">
         <f aca="false">I6+I7</f>
         <v>#REF!</v>
       </c>
-      <c r="J8" s="60"/>
-      <c r="K8" s="79" t="s">
-        <v>169</v>
-      </c>
-      <c r="L8" s="80" t="e">
+      <c r="J8" s="63"/>
+      <c r="K8" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="L8" s="83" t="e">
         <f aca="false">L6+L7</f>
         <v>#REF!</v>
       </c>
-      <c r="M8" s="60"/>
-      <c r="N8" s="79" t="s">
-        <v>169</v>
-      </c>
-      <c r="O8" s="80" t="e">
+      <c r="M8" s="63"/>
+      <c r="N8" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="O8" s="83" t="e">
         <f aca="false">O6+O7</f>
         <v>#REF!</v>
       </c>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="79" t="s">
-        <v>169</v>
-      </c>
-      <c r="R8" s="80" t="e">
+      <c r="P8" s="63"/>
+      <c r="Q8" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="R8" s="83" t="e">
         <f aca="false">R6+R7</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H9" s="60"/>
+      <c r="H9" s="63"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E10" s="67" t="s">
-        <v>154</v>
-      </c>
-      <c r="F10" s="68" t="s">
-        <v>170</v>
+      <c r="E10" s="70" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="71" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E11" s="59" t="s">
-        <v>155</v>
-      </c>
-      <c r="F11" s="81" t="e">
+      <c r="E11" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="84" t="e">
         <f aca="false">F4+I4+L4+R4+O4</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E12" s="79" t="s">
-        <v>169</v>
-      </c>
-      <c r="F12" s="80" t="e">
+      <c r="E12" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" s="83" t="e">
         <f aca="false">F6+I6+L6+R6+O6</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="60"/>
-      <c r="B13" s="82" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" s="83" t="e">
+      <c r="A13" s="63"/>
+      <c r="B13" s="85" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="86" t="e">
         <f aca="false">C7+F12</f>
         <v>#REF!</v>
       </c>
@@ -6117,31 +6096,31 @@
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E21" s="84"/>
+      <c r="E21" s="87"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E23" s="85"/>
-      <c r="I23" s="86"/>
+      <c r="E23" s="88"/>
+      <c r="I23" s="89"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E24" s="85"/>
-      <c r="I24" s="86"/>
+      <c r="E24" s="88"/>
+      <c r="I24" s="89"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E25" s="85"/>
-      <c r="I25" s="86"/>
+      <c r="E25" s="88"/>
+      <c r="I25" s="89"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E26" s="85"/>
-      <c r="I26" s="86"/>
+      <c r="E26" s="88"/>
+      <c r="I26" s="89"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E27" s="85"/>
-      <c r="I27" s="86"/>
+      <c r="E27" s="88"/>
+      <c r="I27" s="89"/>
     </row>
     <row r="28" customFormat="false" ht="6.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/SustSol/TimeTracking_2025.xlsx
+++ b/SustSol/TimeTracking_2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="170">
   <si>
     <t xml:space="preserve">SustSol Time Tracking</t>
   </si>
@@ -408,6 +408,9 @@
   </si>
   <si>
     <t xml:space="preserve">F&amp;E grant proposal WebViewer DICOM-WEB v0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engi Call `casa-api` + Monday technical docs + docusaurus site generation</t>
   </si>
   <si>
     <t xml:space="preserve">Monday – rest of projects: epics &amp; tasks</t>
@@ -1699,13 +1702,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD1048576"/>
+  <dimension ref="A1:XFD219"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A165" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B175" activeCellId="0" sqref="B175"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A151" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A170" activeCellId="0" sqref="A170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="71"/>
@@ -5046,14 +5049,16 @@
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C169" s="16"/>
-      <c r="D169" s="16" t="s">
-        <v>130</v>
+      <c r="C169" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D169" s="16" t="n">
+        <v>1</v>
       </c>
       <c r="E169" s="16"/>
       <c r="F169" s="17"/>
@@ -5066,14 +5071,17 @@
       <c r="M169" s="18"/>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="n">
+        <v>45960</v>
+      </c>
       <c r="B170" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C170" s="16"/>
+      <c r="D170" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="C170" s="16"/>
-      <c r="D170" s="16"/>
-      <c r="E170" s="16" t="s">
-        <v>130</v>
-      </c>
+      <c r="E170" s="16"/>
       <c r="F170" s="17"/>
       <c r="G170" s="17"/>
       <c r="H170" s="17"/>
@@ -5084,14 +5092,11 @@
       <c r="M170" s="18"/>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B171" s="2" t="s">
-        <v>132</v>
-      </c>
+      <c r="A171" s="0"/>
+      <c r="B171" s="0"/>
       <c r="C171" s="16"/>
       <c r="D171" s="16"/>
-      <c r="E171" s="16" t="s">
-        <v>130</v>
-      </c>
+      <c r="E171" s="16"/>
       <c r="F171" s="17"/>
       <c r="G171" s="17"/>
       <c r="H171" s="17"/>
@@ -5100,12 +5105,6 @@
       <c r="K171" s="18"/>
       <c r="L171" s="18"/>
       <c r="M171" s="18"/>
-      <c r="XEY171" s="21"/>
-      <c r="XEZ171" s="21"/>
-      <c r="XFA171" s="21"/>
-      <c r="XFB171" s="21"/>
-      <c r="XFC171" s="21"/>
-      <c r="XFD171" s="21"/>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C172" s="16"/>
@@ -5119,15 +5118,21 @@
       <c r="K172" s="18"/>
       <c r="L172" s="18"/>
       <c r="M172" s="18"/>
+      <c r="XEY172" s="21"/>
+      <c r="XEZ172" s="21"/>
+      <c r="XFA172" s="21"/>
+      <c r="XFB172" s="21"/>
+      <c r="XFC172" s="21"/>
+      <c r="XFD172" s="21"/>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B173" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C173" s="16"/>
       <c r="D173" s="16"/>
       <c r="E173" s="16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F173" s="17"/>
       <c r="G173" s="17"/>
@@ -5139,9 +5144,14 @@
       <c r="M173" s="18"/>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B174" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="C174" s="16"/>
       <c r="D174" s="16"/>
-      <c r="E174" s="16"/>
+      <c r="E174" s="16" t="s">
+        <v>131</v>
+      </c>
       <c r="F174" s="17"/>
       <c r="G174" s="17"/>
       <c r="H174" s="17"/>
@@ -5165,11 +5175,14 @@
       <c r="M175" s="18"/>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="22"/>
-      <c r="B176" s="23"/>
-      <c r="C176" s="24"/>
-      <c r="D176" s="24"/>
-      <c r="E176" s="24"/>
+      <c r="B176" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C176" s="16"/>
+      <c r="D176" s="16"/>
+      <c r="E176" s="16" t="s">
+        <v>131</v>
+      </c>
       <c r="F176" s="17"/>
       <c r="G176" s="17"/>
       <c r="H176" s="17"/>
@@ -5180,11 +5193,9 @@
       <c r="M176" s="18"/>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="22"/>
-      <c r="B177" s="23"/>
-      <c r="C177" s="24"/>
-      <c r="D177" s="24"/>
-      <c r="E177" s="24"/>
+      <c r="C177" s="16"/>
+      <c r="D177" s="16"/>
+      <c r="E177" s="16"/>
       <c r="F177" s="17"/>
       <c r="G177" s="17"/>
       <c r="H177" s="17"/>
@@ -5195,11 +5206,9 @@
       <c r="M177" s="18"/>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="22"/>
-      <c r="B178" s="23"/>
-      <c r="C178" s="24"/>
-      <c r="D178" s="24"/>
-      <c r="E178" s="24"/>
+      <c r="C178" s="16"/>
+      <c r="D178" s="16"/>
+      <c r="E178" s="16"/>
       <c r="F178" s="17"/>
       <c r="G178" s="17"/>
       <c r="H178" s="17"/>
@@ -5255,9 +5264,11 @@
       <c r="M181" s="18"/>
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C182" s="16"/>
-      <c r="D182" s="16"/>
-      <c r="E182" s="16"/>
+      <c r="A182" s="22"/>
+      <c r="B182" s="23"/>
+      <c r="C182" s="24"/>
+      <c r="D182" s="24"/>
+      <c r="E182" s="24"/>
       <c r="F182" s="17"/>
       <c r="G182" s="17"/>
       <c r="H182" s="17"/>
@@ -5268,9 +5279,11 @@
       <c r="M182" s="18"/>
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C183" s="16"/>
-      <c r="D183" s="16"/>
-      <c r="E183" s="16"/>
+      <c r="A183" s="22"/>
+      <c r="B183" s="23"/>
+      <c r="C183" s="24"/>
+      <c r="D183" s="24"/>
+      <c r="E183" s="24"/>
       <c r="F183" s="17"/>
       <c r="G183" s="17"/>
       <c r="H183" s="17"/>
@@ -5281,10 +5294,11 @@
       <c r="M183" s="18"/>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B184" s="21"/>
-      <c r="C184" s="16"/>
-      <c r="D184" s="16"/>
-      <c r="E184" s="16"/>
+      <c r="A184" s="22"/>
+      <c r="B184" s="23"/>
+      <c r="C184" s="24"/>
+      <c r="D184" s="24"/>
+      <c r="E184" s="24"/>
       <c r="F184" s="17"/>
       <c r="G184" s="17"/>
       <c r="H184" s="17"/>
@@ -5295,7 +5309,6 @@
       <c r="M184" s="18"/>
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B185" s="21"/>
       <c r="C185" s="16"/>
       <c r="D185" s="16"/>
       <c r="E185" s="16"/>
@@ -5309,7 +5322,6 @@
       <c r="M185" s="18"/>
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B186" s="15"/>
       <c r="C186" s="16"/>
       <c r="D186" s="16"/>
       <c r="E186" s="16"/>
@@ -5323,6 +5335,7 @@
       <c r="M186" s="18"/>
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B187" s="21"/>
       <c r="C187" s="16"/>
       <c r="D187" s="16"/>
       <c r="E187" s="16"/>
@@ -5336,6 +5349,7 @@
       <c r="M187" s="18"/>
     </row>
     <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B188" s="21"/>
       <c r="C188" s="16"/>
       <c r="D188" s="16"/>
       <c r="E188" s="16"/>
@@ -5349,206 +5363,189 @@
       <c r="M188" s="18"/>
     </row>
     <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="25" t="s">
-        <v>134</v>
-      </c>
       <c r="B189" s="15"/>
-      <c r="C189" s="26" t="n">
-        <f aca="false">SUM(C4:C188)</f>
-        <v>48</v>
-      </c>
-      <c r="D189" s="26" t="n">
-        <f aca="false">SUM(D4:D188)</f>
-        <v>72</v>
-      </c>
-      <c r="E189" s="26" t="n">
-        <f aca="false">SUM(E4:E188)</f>
+      <c r="C189" s="16"/>
+      <c r="D189" s="16"/>
+      <c r="E189" s="16"/>
+      <c r="F189" s="17"/>
+      <c r="G189" s="17"/>
+      <c r="H189" s="17"/>
+      <c r="I189" s="17"/>
+      <c r="J189" s="18"/>
+      <c r="K189" s="18"/>
+      <c r="L189" s="18"/>
+      <c r="M189" s="18"/>
+    </row>
+    <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C190" s="16"/>
+      <c r="D190" s="16"/>
+      <c r="E190" s="16"/>
+      <c r="F190" s="17"/>
+      <c r="G190" s="17"/>
+      <c r="H190" s="17"/>
+      <c r="I190" s="17"/>
+      <c r="J190" s="18"/>
+      <c r="K190" s="18"/>
+      <c r="L190" s="18"/>
+      <c r="M190" s="18"/>
+    </row>
+    <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C191" s="16"/>
+      <c r="D191" s="16"/>
+      <c r="E191" s="16"/>
+      <c r="F191" s="17"/>
+      <c r="G191" s="17"/>
+      <c r="H191" s="17"/>
+      <c r="I191" s="17"/>
+      <c r="J191" s="18"/>
+      <c r="K191" s="18"/>
+      <c r="L191" s="18"/>
+      <c r="M191" s="18"/>
+    </row>
+    <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A192" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B192" s="15"/>
+      <c r="C192" s="26" t="n">
+        <f aca="false">SUM(C4:C191)</f>
+        <v>49</v>
+      </c>
+      <c r="D192" s="26" t="n">
+        <f aca="false">SUM(D4:D191)</f>
+        <v>73</v>
+      </c>
+      <c r="E192" s="26" t="n">
+        <f aca="false">SUM(E4:E191)</f>
         <v>146</v>
       </c>
-      <c r="F189" s="27" t="n">
-        <f aca="false">SUM(F4:F188)</f>
+      <c r="F192" s="27" t="n">
+        <f aca="false">SUM(F4:F191)</f>
         <v>8.5</v>
       </c>
-      <c r="G189" s="27" t="n">
-        <f aca="false">SUM(G4:G188)</f>
+      <c r="G192" s="27" t="n">
+        <f aca="false">SUM(G4:G191)</f>
         <v>85</v>
       </c>
-      <c r="H189" s="27" t="n">
-        <f aca="false">SUM(H4:H188)</f>
+      <c r="H192" s="27" t="n">
+        <f aca="false">SUM(H4:H191)</f>
         <v>1</v>
       </c>
-      <c r="I189" s="27" t="n">
-        <f aca="false">SUM(I4:I188)</f>
+      <c r="I192" s="27" t="n">
+        <f aca="false">SUM(I4:I191)</f>
         <v>0</v>
       </c>
-      <c r="J189" s="27" t="n">
-        <f aca="false">SUM(J4:J188)</f>
+      <c r="J192" s="27" t="n">
+        <f aca="false">SUM(J4:J191)</f>
         <v>51.5</v>
       </c>
-      <c r="K189" s="27" t="n">
-        <f aca="false">SUM(K4:K188)</f>
+      <c r="K192" s="27" t="n">
+        <f aca="false">SUM(K4:K191)</f>
         <v>0</v>
       </c>
-      <c r="L189" s="27" t="n">
-        <f aca="false">SUM(L4:L188)</f>
+      <c r="L192" s="27" t="n">
+        <f aca="false">SUM(L4:L191)</f>
         <v>0</v>
       </c>
-      <c r="M189" s="27" t="n">
-        <f aca="false">SUM(M4:M188)</f>
+      <c r="M192" s="27" t="n">
+        <f aca="false">SUM(M4:M191)</f>
         <v>0</v>
       </c>
-      <c r="N189" s="15"/>
-      <c r="O189" s="15"/>
-      <c r="P189" s="15"/>
-      <c r="Q189" s="15"/>
-      <c r="R189" s="15"/>
-      <c r="S189" s="15"/>
-      <c r="T189" s="15"/>
-      <c r="U189" s="15"/>
-      <c r="V189" s="15"/>
-      <c r="W189" s="15"/>
-      <c r="X189" s="15"/>
-      <c r="Y189" s="15"/>
-      <c r="Z189" s="15"/>
-      <c r="AA189" s="15"/>
-      <c r="AB189" s="15"/>
-      <c r="AC189" s="15"/>
-      <c r="AD189" s="15"/>
-      <c r="AE189" s="15"/>
-    </row>
-    <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B190" s="15"/>
-      <c r="C190" s="28"/>
-      <c r="D190" s="28"/>
-      <c r="E190" s="28"/>
-      <c r="F190" s="28"/>
-      <c r="G190" s="28"/>
-      <c r="H190" s="28"/>
-      <c r="I190" s="28"/>
-      <c r="J190" s="28"/>
-      <c r="K190" s="28"/>
-      <c r="L190" s="28"/>
-      <c r="M190" s="28"/>
-    </row>
-    <row r="191" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B191" s="15"/>
-      <c r="D191" s="29"/>
-      <c r="E191" s="29"/>
-      <c r="F191" s="28"/>
-      <c r="H191" s="30"/>
-      <c r="I191" s="30"/>
-      <c r="J191" s="28"/>
-      <c r="K191" s="28"/>
-      <c r="L191" s="31"/>
-      <c r="M191" s="31"/>
-    </row>
-    <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B192" s="15"/>
-      <c r="D192" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="E192" s="29" t="n">
-        <f aca="false">SUM(C189:E189)</f>
-        <v>266</v>
-      </c>
-      <c r="F192" s="28"/>
-      <c r="H192" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="I192" s="30" t="n">
-        <f aca="false">SUM(F189:I189)</f>
-        <v>94.5</v>
-      </c>
-      <c r="J192" s="28"/>
-      <c r="K192" s="28"/>
-      <c r="L192" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="M192" s="31" t="n">
-        <f aca="false">SUM(J189:M189)</f>
-        <v>51.5</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="N192" s="15"/>
+      <c r="O192" s="15"/>
+      <c r="P192" s="15"/>
+      <c r="Q192" s="15"/>
+      <c r="R192" s="15"/>
+      <c r="S192" s="15"/>
+      <c r="T192" s="15"/>
+      <c r="U192" s="15"/>
+      <c r="V192" s="15"/>
+      <c r="W192" s="15"/>
+      <c r="X192" s="15"/>
+      <c r="Y192" s="15"/>
+      <c r="Z192" s="15"/>
+      <c r="AA192" s="15"/>
+      <c r="AB192" s="15"/>
+      <c r="AC192" s="15"/>
+      <c r="AD192" s="15"/>
+      <c r="AE192" s="15"/>
+    </row>
+    <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B193" s="15"/>
-      <c r="D193" s="29"/>
-      <c r="E193" s="29"/>
+      <c r="C193" s="28"/>
+      <c r="D193" s="28"/>
+      <c r="E193" s="28"/>
       <c r="F193" s="28"/>
-      <c r="H193" s="30"/>
-      <c r="I193" s="30"/>
+      <c r="G193" s="28"/>
+      <c r="H193" s="28"/>
+      <c r="I193" s="28"/>
       <c r="J193" s="28"/>
       <c r="K193" s="28"/>
-      <c r="L193" s="31"/>
-      <c r="M193" s="31"/>
+      <c r="L193" s="28"/>
+      <c r="M193" s="28"/>
     </row>
     <row r="194" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B194" s="15"/>
-      <c r="D194" s="35"/>
-      <c r="E194" s="35"/>
+      <c r="D194" s="29"/>
+      <c r="E194" s="29"/>
       <c r="F194" s="28"/>
-      <c r="H194" s="35"/>
-      <c r="I194" s="35"/>
+      <c r="H194" s="30"/>
+      <c r="I194" s="30"/>
       <c r="J194" s="28"/>
       <c r="K194" s="28"/>
-      <c r="L194" s="36"/>
-      <c r="M194" s="36"/>
-    </row>
-    <row r="195" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="L194" s="31"/>
+      <c r="M194" s="31"/>
+    </row>
+    <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B195" s="15"/>
-      <c r="D195" s="37"/>
-      <c r="E195" s="38"/>
-      <c r="H195" s="39"/>
-      <c r="I195" s="40"/>
-      <c r="L195" s="41"/>
-      <c r="M195" s="42"/>
-    </row>
-    <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D195" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E195" s="29" t="n">
+        <f aca="false">SUM(C192:E192)</f>
+        <v>268</v>
+      </c>
+      <c r="F195" s="28"/>
+      <c r="H195" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I195" s="30" t="n">
+        <f aca="false">SUM(F192:I192)</f>
+        <v>94.5</v>
+      </c>
+      <c r="J195" s="28"/>
+      <c r="K195" s="28"/>
+      <c r="L195" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="M195" s="31" t="n">
+        <f aca="false">SUM(J192:M192)</f>
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B196" s="15"/>
-      <c r="D196" s="43" t="n">
-        <v>2025</v>
-      </c>
-      <c r="E196" s="44" t="n">
-        <f aca="false">SUM(C4:E188)</f>
-        <v>266</v>
-      </c>
-      <c r="H196" s="45" t="n">
-        <v>2025</v>
-      </c>
-      <c r="I196" s="46" t="n">
-        <f aca="false">SUM(F4:I188)</f>
-        <v>94.5</v>
-      </c>
-      <c r="L196" s="47" t="n">
-        <v>2025</v>
-      </c>
-      <c r="M196" s="48" t="n">
-        <f aca="false">SUM(J4:M188)</f>
-        <v>51.5</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D196" s="29"/>
+      <c r="E196" s="29"/>
+      <c r="F196" s="28"/>
+      <c r="H196" s="30"/>
+      <c r="I196" s="30"/>
+      <c r="J196" s="28"/>
+      <c r="K196" s="28"/>
+      <c r="L196" s="31"/>
+      <c r="M196" s="31"/>
+    </row>
+    <row r="197" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B197" s="15"/>
-      <c r="D197" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="E197" s="44" t="n">
-        <f aca="false">SUM(C155:E188)</f>
-        <v>27</v>
-      </c>
-      <c r="H197" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="I197" s="46" t="n">
-        <f aca="false">SUM(F155:I188)</f>
-        <v>2</v>
-      </c>
-      <c r="L197" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="M197" s="48" t="n">
-        <f aca="false">SUM(J155:M188)</f>
-        <v>0</v>
-      </c>
+      <c r="D197" s="35"/>
+      <c r="E197" s="35"/>
+      <c r="F197" s="28"/>
+      <c r="H197" s="35"/>
+      <c r="I197" s="35"/>
+      <c r="J197" s="28"/>
+      <c r="K197" s="28"/>
+      <c r="L197" s="36"/>
+      <c r="M197" s="36"/>
     </row>
     <row r="198" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B198" s="15"/>
@@ -5556,132 +5553,187 @@
       <c r="E198" s="38"/>
       <c r="H198" s="39"/>
       <c r="I198" s="40"/>
-      <c r="K198" s="52"/>
       <c r="L198" s="41"/>
       <c r="M198" s="42"/>
     </row>
-    <row r="199" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B199" s="15"/>
-      <c r="E199" s="28"/>
-      <c r="K199" s="52"/>
-      <c r="M199" s="28"/>
-    </row>
-    <row r="200" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D199" s="43" t="n">
+        <v>2025</v>
+      </c>
+      <c r="E199" s="44" t="n">
+        <f aca="false">SUM(C4:E191)</f>
+        <v>268</v>
+      </c>
+      <c r="H199" s="45" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I199" s="46" t="n">
+        <f aca="false">SUM(F4:I191)</f>
+        <v>94.5</v>
+      </c>
+      <c r="L199" s="47" t="n">
+        <v>2025</v>
+      </c>
+      <c r="M199" s="48" t="n">
+        <f aca="false">SUM(J4:M191)</f>
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B200" s="15"/>
-      <c r="E200" s="28"/>
-      <c r="K200" s="53"/>
-      <c r="L200" s="54"/>
-      <c r="M200" s="55"/>
-    </row>
-    <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D200" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="E200" s="44" t="n">
+        <f aca="false">SUM(C155:E191)</f>
+        <v>29</v>
+      </c>
+      <c r="H200" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="I200" s="46" t="n">
+        <f aca="false">SUM(F155:I191)</f>
+        <v>2</v>
+      </c>
+      <c r="L200" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="M200" s="48" t="n">
+        <f aca="false">SUM(J155:M191)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B201" s="15"/>
-      <c r="E201" s="28"/>
-      <c r="K201" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="L201" s="56"/>
-      <c r="M201" s="57" t="n">
-        <f aca="false">SUM(C4:M188)</f>
-        <v>412</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K202" s="53" t="s">
-        <v>135</v>
-      </c>
-      <c r="L202" s="58"/>
-      <c r="M202" s="57" t="n">
-        <f aca="false">E197+I197+M197</f>
-        <v>29</v>
-      </c>
+      <c r="D201" s="37"/>
+      <c r="E201" s="38"/>
+      <c r="H201" s="39"/>
+      <c r="I201" s="40"/>
+      <c r="K201" s="52"/>
+      <c r="L201" s="41"/>
+      <c r="M201" s="42"/>
+    </row>
+    <row r="202" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B202" s="15"/>
+      <c r="E202" s="28"/>
+      <c r="K202" s="52"/>
+      <c r="M202" s="28"/>
     </row>
     <row r="203" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K203" s="54"/>
+      <c r="B203" s="15"/>
+      <c r="E203" s="28"/>
+      <c r="K203" s="53"/>
       <c r="L203" s="54"/>
       <c r="M203" s="55"/>
     </row>
-    <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C204" s="28"/>
-      <c r="K204" s="59" t="s">
+    <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B204" s="15"/>
+      <c r="E204" s="28"/>
+      <c r="K204" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="M204" s="2" t="n">
+      <c r="L204" s="56"/>
+      <c r="M204" s="57" t="n">
+        <f aca="false">SUM(C4:M191)</f>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K205" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="L205" s="58"/>
+      <c r="M205" s="57" t="n">
+        <f aca="false">E200+I200+M200</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K206" s="54"/>
+      <c r="L206" s="54"/>
+      <c r="M206" s="55"/>
+    </row>
+    <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C207" s="28"/>
+      <c r="K207" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="M207" s="2" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B205" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="C205" s="28"/>
-      <c r="K205" s="2" t="s">
+    <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B208" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="M205" s="2" t="n">
-        <f aca="false">M204-M202</f>
-        <v>171</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C206" s="28"/>
-      <c r="K206" s="2" t="s">
+      <c r="C208" s="28"/>
+      <c r="K208" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="M206" s="2" t="n">
-        <f aca="false">M205/8</f>
-        <v>21.375</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B207" s="2" t="s">
+      <c r="M208" s="2" t="n">
+        <f aca="false">M207-M205</f>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C209" s="28"/>
+      <c r="K209" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C207" s="28"/>
-    </row>
-    <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B208" s="2" t="s">
+      <c r="M209" s="2" t="n">
+        <f aca="false">M208/8</f>
+        <v>21.125</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B210" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C208" s="28"/>
-    </row>
-    <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B209" s="2" t="s">
+      <c r="C210" s="28"/>
+    </row>
+    <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B211" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C209" s="61"/>
-    </row>
-    <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B210" s="2" t="s">
+      <c r="C211" s="28"/>
+    </row>
+    <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B212" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B212" s="15" t="s">
+      <c r="C212" s="61"/>
+    </row>
+    <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B213" s="2" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B213" s="15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B214" s="15" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B215" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B217" s="15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B218" s="15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B219" s="15" t="s">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C2:E2"/>
@@ -5709,7 +5761,7 @@
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.66015625" defaultRowHeight="12.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.66015625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="62" width="3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="62" width="18.16"/>
@@ -5740,99 +5792,99 @@
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="63"/>
       <c r="B2" s="64" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C2" s="65"/>
       <c r="D2" s="63"/>
       <c r="E2" s="66" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F2" s="67"/>
       <c r="G2" s="63"/>
       <c r="H2" s="66" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I2" s="67"/>
       <c r="J2" s="63"/>
       <c r="K2" s="66" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L2" s="67"/>
       <c r="M2" s="63"/>
       <c r="N2" s="66" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O2" s="68"/>
       <c r="P2" s="63"/>
       <c r="Q2" s="66" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="R2" s="67"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="63"/>
       <c r="B3" s="69" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C3" s="65" t="n">
-        <f aca="false">SUM(Tasks_23_24!C341:E341)</f>
+        <f aca="false">SUM(Tasks_23_24!C344:E344)</f>
         <v>0</v>
       </c>
       <c r="D3" s="63"/>
       <c r="E3" s="70" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F3" s="71" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G3" s="63"/>
       <c r="H3" s="70" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I3" s="71" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J3" s="63"/>
       <c r="K3" s="70" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L3" s="71" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M3" s="63"/>
       <c r="N3" s="70" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O3" s="71" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P3" s="63"/>
       <c r="Q3" s="70" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="R3" s="71" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="63"/>
       <c r="B4" s="72" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C4" s="73" t="n">
         <v>100</v>
       </c>
       <c r="D4" s="63"/>
       <c r="E4" s="68" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F4" s="74" t="e">
-        <f aca="false">SUM(Tasks_23_24!F511:G511)+#REF!*228/496</f>
+        <f aca="false">SUM(Tasks_23_24!F514:G514)+#REF!*228/496</f>
         <v>#REF!</v>
       </c>
       <c r="G4" s="63"/>
       <c r="H4" s="68" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I4" s="74" t="e">
         <f aca="false">#REF!+#REF!*80/496</f>
@@ -5840,15 +5892,15 @@
       </c>
       <c r="J4" s="63"/>
       <c r="K4" s="68" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L4" s="74" t="e">
-        <f aca="false">Tasks_23_24!H511+#REF!*36/496</f>
+        <f aca="false">Tasks_23_24!H514+#REF!*36/496</f>
         <v>#REF!</v>
       </c>
       <c r="M4" s="63"/>
       <c r="N4" s="68" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O4" s="74" t="e">
         <f aca="false">#REF!+#REF!*24/496</f>
@@ -5856,17 +5908,17 @@
       </c>
       <c r="P4" s="63"/>
       <c r="Q4" s="68" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="R4" s="74" t="e">
-        <f aca="false">Tasks_23_24!I511+#REF!*128/496</f>
+        <f aca="false">Tasks_23_24!I514+#REF!*128/496</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="63"/>
       <c r="B5" s="75" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C5" s="76" t="n">
         <f aca="false">C3*C4</f>
@@ -5874,35 +5926,35 @@
       </c>
       <c r="D5" s="63"/>
       <c r="E5" s="77" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F5" s="78" t="n">
         <v>100</v>
       </c>
       <c r="G5" s="63"/>
       <c r="H5" s="77" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I5" s="78" t="n">
         <v>100</v>
       </c>
       <c r="J5" s="63"/>
       <c r="K5" s="77" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L5" s="78" t="n">
         <v>100</v>
       </c>
       <c r="M5" s="63"/>
       <c r="N5" s="77" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O5" s="78" t="n">
         <v>100</v>
       </c>
       <c r="P5" s="63"/>
       <c r="Q5" s="77" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="R5" s="78" t="n">
         <v>100</v>
@@ -5911,7 +5963,7 @@
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="63"/>
       <c r="B6" s="72" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C6" s="79" t="n">
         <f aca="false">C5*0.2</f>
@@ -5919,7 +5971,7 @@
       </c>
       <c r="D6" s="63"/>
       <c r="E6" s="80" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F6" s="81" t="e">
         <f aca="false">F4*F5</f>
@@ -5927,7 +5979,7 @@
       </c>
       <c r="G6" s="63"/>
       <c r="H6" s="80" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I6" s="81" t="e">
         <f aca="false">I4*I5</f>
@@ -5935,7 +5987,7 @@
       </c>
       <c r="J6" s="63"/>
       <c r="K6" s="80" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L6" s="81" t="e">
         <f aca="false">L4*L5</f>
@@ -5943,7 +5995,7 @@
       </c>
       <c r="M6" s="63"/>
       <c r="N6" s="80" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O6" s="81" t="e">
         <f aca="false">O4*O5</f>
@@ -5951,7 +6003,7 @@
       </c>
       <c r="P6" s="63"/>
       <c r="Q6" s="80" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="R6" s="81" t="e">
         <f aca="false">R4*R5</f>
@@ -5961,7 +6013,7 @@
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="63"/>
       <c r="B7" s="82" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C7" s="83" t="n">
         <f aca="false">C5+C6</f>
@@ -5969,7 +6021,7 @@
       </c>
       <c r="D7" s="63"/>
       <c r="E7" s="77" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F7" s="74" t="e">
         <f aca="false">F6*0.2</f>
@@ -5977,7 +6029,7 @@
       </c>
       <c r="G7" s="63"/>
       <c r="H7" s="77" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I7" s="74" t="e">
         <f aca="false">I6*0.2</f>
@@ -5985,7 +6037,7 @@
       </c>
       <c r="J7" s="63"/>
       <c r="K7" s="77" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L7" s="74" t="e">
         <f aca="false">L6*0.2</f>
@@ -5993,7 +6045,7 @@
       </c>
       <c r="M7" s="63"/>
       <c r="N7" s="77" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O7" s="74" t="e">
         <f aca="false">O6*0.2</f>
@@ -6001,7 +6053,7 @@
       </c>
       <c r="P7" s="63"/>
       <c r="Q7" s="77" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="R7" s="74" t="e">
         <f aca="false">R6*0.2</f>
@@ -6010,7 +6062,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E8" s="82" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F8" s="83" t="e">
         <f aca="false">F6+F7</f>
@@ -6018,7 +6070,7 @@
       </c>
       <c r="G8" s="63"/>
       <c r="H8" s="82" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I8" s="83" t="e">
         <f aca="false">I6+I7</f>
@@ -6026,7 +6078,7 @@
       </c>
       <c r="J8" s="63"/>
       <c r="K8" s="82" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L8" s="83" t="e">
         <f aca="false">L6+L7</f>
@@ -6034,7 +6086,7 @@
       </c>
       <c r="M8" s="63"/>
       <c r="N8" s="82" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O8" s="83" t="e">
         <f aca="false">O6+O7</f>
@@ -6042,7 +6094,7 @@
       </c>
       <c r="P8" s="63"/>
       <c r="Q8" s="82" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="R8" s="83" t="e">
         <f aca="false">R6+R7</f>
@@ -6054,15 +6106,15 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E10" s="70" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F10" s="71" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E11" s="62" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F11" s="84" t="e">
         <f aca="false">F4+I4+L4+R4+O4</f>
@@ -6071,7 +6123,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E12" s="82" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F12" s="83" t="e">
         <f aca="false">F6+I6+L6+R6+O6</f>
@@ -6081,7 +6133,7 @@
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="63"/>
       <c r="B13" s="85" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C13" s="86" t="e">
         <f aca="false">C7+F12</f>
